--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="195" uniqueCount="134">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,16 +21,22 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900231</t>
   </si>
   <si>
-    <t>300540</t>
+    <t>900245</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900245</t>
+    <t>900150</t>
   </si>
   <si>
     <t>location</t>
@@ -42,6 +48,9 @@
     <t>Gastonia</t>
   </si>
   <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
     <t>county</t>
   </si>
   <si>
@@ -51,6 +60,9 @@
     <t>Gaston County</t>
   </si>
   <si>
+    <t>Mecklenburg County</t>
+  </si>
+  <si>
     <t>state</t>
   </si>
   <si>
@@ -78,6 +90,9 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
@@ -93,12 +108,15 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -135,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -153,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
+    <t>powder; crystals</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -186,18 +204,21 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>hallucinations</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>unpleasant</t>
   </si>
   <si>
     <t>unusual taste</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -360,6 +381,9 @@
     <t>NC | GASTON</t>
   </si>
   <si>
+    <t>NC | MECKLENBURG</t>
+  </si>
+  <si>
     <t>statefips</t>
   </si>
   <si>
@@ -378,6 +402,9 @@
     <t>071</t>
   </si>
   <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>countyfips</t>
   </si>
   <si>
@@ -385,6 +412,9 @@
   </si>
   <si>
     <t>37071</t>
+  </si>
+  <si>
+    <t>37119</t>
   </si>
 </sst>
 </file>
@@ -432,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE6"/>
+  <dimension ref="A1:CE8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,250 +473,250 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="S1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="V1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="W1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AD1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="AL1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AM1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AN1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AO1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AP1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AQ1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AR1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AS1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AT1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AU1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AV1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AW1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AX1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AY1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AZ1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="BA1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="BB1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="BC1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="BD1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="BE1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="BF1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="BG1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="BH1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="BI1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="BJ1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="BK1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BL1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="BM1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="BN1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="BO1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="BP1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BQ1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="BR1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="BS1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="BT1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="BU1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="BV1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="BW1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="BX1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="BY1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="BZ1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="CA1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="CB1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="CC1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="CD1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="CE1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2">
@@ -694,31 +724,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>45689</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -748,13 +778,13 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
@@ -765,7 +795,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="2">
         <v>1</v>
@@ -780,7 +810,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -896,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="CB2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="CC2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="CD2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="CE2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
@@ -913,49 +943,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -964,33 +994,33 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD3" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -999,7 +1029,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1009,35 +1039,35 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1085,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1115,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="CB3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CC3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="CD3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="CE3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4">
@@ -1132,31 +1162,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>45691</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1186,13 +1216,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1205,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AD4" s="2">
         <v>0</v>
@@ -1220,7 +1250,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AO4" s="2">
         <v>0</v>
@@ -1336,16 +1366,16 @@
         <v>0</v>
       </c>
       <c r="CB4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CC4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="CD4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="CE4" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
@@ -1353,31 +1383,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>45689</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1395,42 +1425,42 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1439,7 +1469,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1455,11 +1485,11 @@
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
         <v>1</v>
@@ -1486,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1513,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="2">
         <v>0</v>
@@ -1555,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CC5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="CD5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="CE5" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
@@ -1572,31 +1602,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>45689</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1626,13 +1656,13 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1645,7 +1675,7 @@
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2">
@@ -1660,7 +1690,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1776,16 +1806,454 @@
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="CC6" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="CD6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="CE6" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45689</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>121</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>128</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45693</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" t="s">
+        <v>51</v>
+      </c>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>45723</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>122</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>125</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>129</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,12 +21,12 @@
     <t>900223</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
     <t>900231</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -108,12 +108,12 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
@@ -204,10 +204,10 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
   </si>
   <si>
     <t>hallucinations</t>
@@ -955,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -970,16 +970,16 @@
         <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1012,7 +1012,9 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
@@ -1039,35 +1041,35 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1076,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1115,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1174,7 +1176,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -1189,16 +1191,16 @@
         <v>32</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1207,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1222,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1231,9 +1233,7 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
@@ -1260,35 +1260,35 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900231</t>
+    <t>900179</t>
   </si>
   <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -108,15 +108,15 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t/>
+    <t>powder; flaky</t>
   </si>
   <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
+    <t>unusual taste</t>
   </si>
   <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,7 +955,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -970,16 +970,16 @@
         <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1012,9 +1012,7 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
@@ -1041,35 +1039,35 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1078,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1117,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1176,13 +1174,13 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1191,22 +1189,22 @@
         <v>32</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1215,33 +1213,33 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1260,35 +1258,35 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1336,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1395,13 +1393,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1425,42 +1423,44 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
         <v>53</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2"/>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1647,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1670,9 +1670,7 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
@@ -1710,10 +1708,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
         <v>0</v>
@@ -1737,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1767,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="BO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="2">
         <v>0</v>
@@ -1847,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1859,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1868,16 +1866,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1891,7 +1889,9 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>67</v>
@@ -1929,10 +1929,10 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="BO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -174,12 +174,12 @@
     <t/>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -970,22 +970,22 @@
         <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -994,33 +994,33 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -1039,35 +1039,35 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="BR3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
         <v>0</v>
@@ -1204,42 +1204,42 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1264,11 +1264,11 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1396,16 +1396,16 @@
         <v>45691</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1647,22 +1647,22 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1670,7 +1670,9 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
@@ -1708,10 +1710,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
         <v>0</v>
@@ -1735,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="BO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="2">
         <v>0</v>
@@ -1833,13 +1835,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1848,10 +1850,10 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1872,16 +1874,16 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1889,17 +1891,15 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1935,19 +1935,19 @@
         <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,18 +24,18 @@
     <t>900231</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -174,15 +174,15 @@
     <t/>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -207,16 +207,16 @@
     <t>hallucinations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -1174,13 +1174,13 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1231,14 +1231,16 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1264,11 +1266,11 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1322,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1393,31 +1395,31 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1426,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1441,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1450,9 +1452,7 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
@@ -1479,35 +1479,35 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1835,31 +1835,31 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1896,10 +1896,10 @@
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,18 +21,18 @@
     <t>900223</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900231</t>
   </si>
   <si>
-    <t>300540</t>
+    <t>900245</t>
   </si>
   <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900179</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>ketamine</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
@@ -204,16 +204,16 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>hallucinations</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>unpleasant</t>
   </si>
   <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>unusual taste</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -985,42 +985,44 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
         <v>52</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -1076,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1174,13 +1176,13 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1204,44 +1206,42 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1410,10 +1410,10 @@
         <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1451,15 +1451,17 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1479,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1495,19 +1497,19 @@
         <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" s="2">
         <v>0</v>
@@ -1555,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1614,13 +1616,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1629,10 +1631,10 @@
         <v>34</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1653,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1670,17 +1672,15 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1716,19 +1716,19 @@
         <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="2">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900245</t>
+    <t>900179</t>
   </si>
   <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -108,15 +108,15 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
@@ -153,15 +153,15 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -171,15 +171,15 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>powder; flaky</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
+    <t>unusual taste</t>
   </si>
   <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1011,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,14 +1047,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1395,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1428,13 +1428,13 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>48</v>
@@ -1451,17 +1451,17 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1487,14 +1487,14 @@
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
         <v>0</v>
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="2">
         <v>0</v>
@@ -1616,31 +1616,31 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1677,10 +1677,10 @@
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1710,25 +1710,25 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1835,31 +1835,31 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1896,10 +1896,10 @@
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -27,15 +27,15 @@
     <t>900231</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -210,13 +210,13 @@
     <t>hallucinations</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
     <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -1395,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -1410,16 +1410,16 @@
         <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1452,9 +1452,7 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
@@ -1481,35 +1479,35 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1518,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1557,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1616,19 +1614,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1664,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1673,14 +1671,16 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1706,11 +1706,11 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1850,16 +1850,16 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1896,10 +1896,10 @@
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,6 +21,12 @@
     <t>900223</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
@@ -30,12 +36,6 @@
     <t>900235</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -108,6 +108,9 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
     <t>fentanyl</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,15 +153,15 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
     <t>pink</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,6 +204,12 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
@@ -211,12 +217,6 @@
   </si>
   <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1011,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,14 +1047,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1206,42 +1206,42 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1266,11 +1266,11 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1451,15 +1451,17 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1479,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1495,19 +1497,19 @@
         <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" s="2">
         <v>0</v>
@@ -1555,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1614,19 +1616,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1644,44 +1646,42 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
         <v>48</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1850,16 +1850,16 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1896,10 +1896,10 @@
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>ketamine</t>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>pink</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1011,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,14 +1047,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1233,14 +1233,16 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1266,11 +1268,11 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1324,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1395,25 +1397,25 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
@@ -1434,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>47</v>
@@ -1443,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1451,17 +1453,15 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1497,19 +1497,19 @@
         <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="2">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1835,31 +1835,31 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1896,10 +1896,10 @@
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>300540</t>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900179</t>
   </si>
   <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>cocaine</t>
+    <t>methamphetamine; MDMA</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>pink</t>
   </si>
   <si>
@@ -171,12 +171,12 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
   </si>
   <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1011,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,14 +1047,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
@@ -1232,17 +1232,17 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1268,14 +1268,14 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4" s="2">
         <v>0</v>
@@ -1397,13 +1397,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1412,22 +1412,22 @@
         <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1436,33 +1436,33 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1481,35 +1481,35 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1646,42 +1646,42 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -1706,11 +1706,11 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1737,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1835,31 +1835,31 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1877,13 +1877,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1896,10 +1896,10 @@
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1929,25 +1929,25 @@
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>ketamine</t>
+    <t>fentanyl</t>
   </si>
   <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>pink</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1011,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,14 +1047,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
@@ -1232,9 +1232,7 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
@@ -1272,10 +1270,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
@@ -1299,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1329,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="BO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="2">
         <v>0</v>
@@ -1397,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1412,22 +1410,22 @@
         <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1436,33 +1434,33 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2"/>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1481,35 +1479,35 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1557,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1616,19 +1614,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1658,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1673,14 +1671,16 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1706,11 +1706,11 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1850,22 +1850,22 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1874,33 +1874,33 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -1919,35 +1919,35 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,18 +21,18 @@
     <t>900223</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
     <t>900231</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -108,12 +108,12 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>fentanyl</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>pink</t>
   </si>
   <si>
@@ -171,15 +171,15 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -204,16 +204,16 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
   </si>
   <si>
     <t>hallucinations</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1011,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,14 +1047,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
@@ -1232,7 +1232,9 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
@@ -1270,10 +1272,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
@@ -1297,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1327,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="BO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4" s="2">
         <v>0</v>
@@ -1398,10 +1400,10 @@
         <v>45692</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1437,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1614,19 +1616,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1656,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1671,16 +1673,14 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1706,11 +1706,11 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>ketamine</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -1012,16 +1012,14 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,11 +1045,11 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1105,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" s="2">
         <v>0</v>
@@ -1397,13 +1395,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1412,22 +1410,22 @@
         <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1436,33 +1434,33 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1481,35 +1479,35 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1557,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1616,13 +1614,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1664,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1673,14 +1671,16 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1706,11 +1706,11 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1835,13 +1835,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1850,22 +1850,22 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1874,33 +1874,33 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2"/>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
       <c r="AE7" s="2"/>
-      <c r="AF7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -1919,35 +1919,35 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -111,15 +111,15 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -156,12 +156,12 @@
     <t>white</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -1012,14 +1012,16 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1045,11 +1047,11 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
         <v>1</v>
@@ -1103,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="2">
         <v>0</v>
@@ -1186,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1198,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1207,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1230,9 +1232,7 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
@@ -1270,10 +1270,10 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="BO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
@@ -1614,31 +1614,31 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1671,9 +1671,7 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
@@ -1700,35 +1698,35 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1737,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1776,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1835,13 +1833,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1850,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1874,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1891,15 +1889,17 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1935,19 +1935,19 @@
         <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,15 +24,15 @@
     <t>300540</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900245</t>
   </si>
   <si>
@@ -111,12 +111,12 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -207,13 +207,13 @@
     <t>normal</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
     <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>unpleasant</t>
@@ -1176,31 +1176,31 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1237,10 +1237,10 @@
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1270,25 +1270,25 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1425,42 +1425,42 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
       <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1485,11 +1485,11 @@
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW5" s="2">
         <v>1</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="2">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1629,22 +1629,22 @@
         <v>33</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1653,33 +1653,33 @@
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -1698,35 +1698,35 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
+    <t>900179</t>
+  </si>
+  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,15 +153,15 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,13 +988,13 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1011,17 +1011,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1047,14 +1047,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1176,13 +1176,13 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1191,22 +1191,22 @@
         <v>32</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1215,33 +1215,33 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1260,35 +1260,35 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1395,19 +1395,19 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1437,13 +1437,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1452,14 +1452,16 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
@@ -1485,11 +1487,11 @@
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
         <v>1</v>
@@ -1543,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="2">
         <v>0</v>
@@ -1644,42 +1646,42 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -1704,11 +1706,11 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
         <v>1</v>
@@ -1735,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1833,13 +1835,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1848,10 +1850,10 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1872,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
         <v>48</v>
@@ -1881,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1889,17 +1891,15 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1935,19 +1935,19 @@
         <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,15 +153,15 @@
     <t>orange</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -979,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>0</v>
@@ -1000,16 +1000,14 @@
         <v>46</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
         <v>52</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2">
         <v>1</v>
@@ -1019,10 +1017,10 @@
         <v>63</v>
       </c>
       <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -1047,14 +1045,14 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2"/>
       <c r="AV3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
         <v>0</v>
@@ -1105,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="BN3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="2">
         <v>0</v>
@@ -1206,42 +1204,42 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="s">
         <v>47</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>64</v>
       </c>
       <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
@@ -1266,11 +1264,11 @@
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
         <v>1</v>
@@ -1297,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1324,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1407,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1437,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1616,13 +1614,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
@@ -1631,16 +1629,16 @@
         <v>33</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1649,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1658,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1677,10 +1675,10 @@
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1700,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1710,25 +1708,25 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1737,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1764,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1776,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -1835,13 +1833,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -1850,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1874,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
         <v>48</v>
@@ -1883,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -1891,15 +1889,17 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1935,19 +1935,19 @@
         <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC7" s="2">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="BR7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,18 +21,18 @@
     <t>900223</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900231</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900245</t>
   </si>
   <si>
@@ -108,15 +108,15 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -153,12 +153,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -171,15 +171,15 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
@@ -204,16 +204,16 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>hallucinations</t>
   </si>
   <si>
     <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>unpleasant</t>
@@ -955,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -985,42 +985,44 @@
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
       </c>
       <c r="U3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="s">
         <v>52</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2"/>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -1076,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1174,13 +1176,13 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
@@ -1189,16 +1191,16 @@
         <v>32</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1207,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1216,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1235,10 +1237,10 @@
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1258,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1268,25 +1270,25 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1295,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1322,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1334,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1393,19 +1395,19 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1423,44 +1425,42 @@
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
         <v>47</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
         <v>0</v>
@@ -1614,31 +1614,31 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1675,10 +1675,10 @@
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1708,25 +1708,25 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="2">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="2">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="BR6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2113,7 +2113,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,18 +24,18 @@
     <t>300540</t>
   </si>
   <si>
+    <t>900179</t>
+  </si>
+  <si>
     <t>900235</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -156,12 +156,12 @@
     <t>white</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -174,15 +174,15 @@
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -207,16 +207,16 @@
     <t>normal</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -1176,31 +1176,31 @@
         <v>21</v>
       </c>
       <c r="F4" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1237,10 +1237,10 @@
       <c r="AC4" t="s">
         <v>64</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1270,25 +1270,25 @@
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="2">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4" s="2">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4" s="2">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="BR4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
         <v>0</v>
@@ -1395,37 +1395,37 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1434,33 +1434,33 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2"/>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1479,35 +1479,35 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1647,16 +1647,16 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1670,7 +1670,9 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
@@ -1708,10 +1710,10 @@
       </c>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
         <v>0</v>
@@ -1735,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
         <v>0</v>
@@ -1765,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="BO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="2">
         <v>0</v>
@@ -1857,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1878,16 +1880,14 @@
         <v>48</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
         <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2">
         <v>1</v>
@@ -1897,10 +1897,10 @@
         <v>67</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -1925,14 +1925,14 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="BN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="195" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="196" uniqueCount="135">
   <si>
     <t>sampleid</t>
   </si>
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -90,12 +90,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>methamphetamine; MDMA</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -156,12 +156,12 @@
     <t>white</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -171,18 +171,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,21 +204,21 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>trace</t>
+  </si>
+  <si>
+    <t>gcms_peak</t>
   </si>
   <si>
     <t>lab_null</t>
@@ -462,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE8"/>
+  <dimension ref="A1:CF8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -710,13 +713,16 @@
         <v>119</v>
       </c>
       <c r="CC1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="CD1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="CE1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2">
@@ -828,15 +834,15 @@
       <c r="AT2" s="2">
         <v>0</v>
       </c>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2">
-        <v>1</v>
-      </c>
+      <c r="AU2" s="2">
+        <v>6.880000114440918</v>
+      </c>
+      <c r="AV2" s="2"/>
       <c r="AW2" s="2">
         <v>1</v>
       </c>
       <c r="AX2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" s="2">
         <v>0</v>
@@ -925,17 +931,20 @@
       <c r="CA2" s="2">
         <v>0</v>
       </c>
-      <c r="CB2" t="s">
-        <v>120</v>
+      <c r="CB2" s="2">
+        <v>0</v>
       </c>
       <c r="CC2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="CD2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="CE2" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3">
@@ -955,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -970,16 +979,16 @@
         <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -988,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -1003,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1012,9 +1021,7 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
@@ -1041,47 +1048,45 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AV3" s="2"/>
       <c r="AW3" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="2">
         <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
         <v>0</v>
@@ -1120,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU3" s="2">
         <v>0</v>
@@ -1146,17 +1151,20 @@
       <c r="CA3" s="2">
         <v>0</v>
       </c>
-      <c r="CB3" t="s">
-        <v>121</v>
+      <c r="CB3" s="2">
+        <v>0</v>
       </c>
       <c r="CC3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CD3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CE3" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -1188,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1224,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1268,15 +1276,15 @@
       <c r="AT4" s="2">
         <v>1</v>
       </c>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2">
+      <c r="AU4" s="2">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2">
         <v>4</v>
       </c>
-      <c r="AW4" s="2">
-        <v>1</v>
-      </c>
       <c r="AX4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
         <v>0</v>
@@ -1297,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>1</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1324,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="BN4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4" s="2">
         <v>0</v>
@@ -1365,17 +1373,20 @@
       <c r="CA4" s="2">
         <v>0</v>
       </c>
-      <c r="CB4" t="s">
-        <v>121</v>
+      <c r="CB4" s="2">
+        <v>0</v>
       </c>
       <c r="CC4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CD4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CE4" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -1395,37 +1406,37 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1434,33 +1445,33 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1479,35 +1490,35 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>5.6100001335144043</v>
+      </c>
+      <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
         <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
         <v>0</v>
@@ -1555,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="BR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
         <v>0</v>
@@ -1584,17 +1595,20 @@
       <c r="CA5" s="2">
         <v>0</v>
       </c>
-      <c r="CB5" t="s">
-        <v>121</v>
+      <c r="CB5" s="2">
+        <v>0</v>
       </c>
       <c r="CC5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CD5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CE5" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6">
@@ -1614,19 +1628,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1638,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -1647,16 +1661,16 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1670,17 +1684,17 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
@@ -1706,17 +1720,17 @@
         <v>1</v>
       </c>
       <c r="AT6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
         <v>0</v>
@@ -1740,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1764,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="BN6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP6" s="2">
         <v>0</v>
@@ -1805,17 +1819,20 @@
       <c r="CA6" s="2">
         <v>0</v>
       </c>
-      <c r="CB6" t="s">
-        <v>121</v>
+      <c r="CB6" s="2">
+        <v>0</v>
       </c>
       <c r="CC6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CD6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CE6" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7">
@@ -1859,13 +1876,13 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -1880,14 +1897,16 @@
         <v>48</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
         <v>55</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2">
         <v>1</v>
@@ -1897,10 +1916,10 @@
         <v>67</v>
       </c>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
@@ -1925,17 +1944,17 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>7.2100000381469727</v>
+      </c>
+      <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
         <v>0</v>
@@ -1986,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="BO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
@@ -2024,17 +2043,20 @@
       <c r="CA7" s="2">
         <v>0</v>
       </c>
-      <c r="CB7" t="s">
-        <v>121</v>
+      <c r="CB7" s="2">
+        <v>0</v>
       </c>
       <c r="CC7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="CD7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="CE7" t="s">
-        <v>132</v>
+        <v>129</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -2066,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2113,7 +2135,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2146,21 +2168,21 @@
       <c r="AT8" s="2">
         <v>1</v>
       </c>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2">
+      <c r="AU8" s="2">
+        <v>10.479999542236328</v>
+      </c>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2">
         <v>4</v>
       </c>
-      <c r="AW8" s="2">
+      <c r="AX8" s="2">
         <v>3</v>
       </c>
-      <c r="AX8" s="2">
-        <v>1</v>
-      </c>
       <c r="AY8" s="2">
         <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2214,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="BR8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="2">
         <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2243,17 +2265,20 @@
       <c r="CA8" s="2">
         <v>0</v>
       </c>
-      <c r="CB8" t="s">
-        <v>122</v>
+      <c r="CB8" s="2">
+        <v>0</v>
       </c>
       <c r="CC8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="CD8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="CE8" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -21,21 +21,21 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900179</t>
-  </si>
-  <si>
     <t>900231</t>
   </si>
   <si>
     <t>300540</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -108,18 +108,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -153,15 +153,15 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
     <t>pink</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>bright_color</t>
   </si>
   <si>
@@ -171,6 +171,9 @@
     <t>powder</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
@@ -180,9 +183,6 @@
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -204,19 +204,19 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
   </si>
   <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
     <t>hallucinations</t>
   </si>
   <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -964,13 +964,13 @@
         <v>21</v>
       </c>
       <c r="F3" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -979,10 +979,10 @@
         <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
         <v>46</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1020,15 +1020,17 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1048,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
@@ -1056,7 +1058,9 @@
       <c r="AT3" s="2">
         <v>1</v>
       </c>
-      <c r="AU3" s="2"/>
+      <c r="AU3" s="2">
+        <v>7.2100000381469727</v>
+      </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2">
         <v>3</v>
@@ -1065,19 +1069,19 @@
         <v>2</v>
       </c>
       <c r="AY3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="2">
         <v>0</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="2">
         <v>0</v>
@@ -1113,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="BO3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3" s="2">
         <v>0</v>
@@ -1125,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="BS3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="2">
         <v>0</v>
@@ -1226,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1406,13 +1410,13 @@
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
@@ -1421,22 +1425,22 @@
         <v>33</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1445,33 +1449,33 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="s">
         <v>47</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>65</v>
       </c>
-      <c r="AD5" s="2"/>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
       <c r="AE5" s="2"/>
-      <c r="AF5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
@@ -1490,38 +1494,36 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>5.6100001335144043</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5" s="2">
         <v>0</v>
@@ -1569,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1628,19 +1630,19 @@
         <v>21</v>
       </c>
       <c r="F6" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1658,44 +1660,42 @@
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="s">
         <v>54</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>8.3500003814697266</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="2">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>21</v>
       </c>
       <c r="F7" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
@@ -1885,16 +1885,16 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
       </c>
       <c r="S7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -1908,17 +1908,17 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
       <c r="AC7" t="s">
         <v>67</v>
       </c>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
@@ -1944,17 +1944,17 @@
         <v>1</v>
       </c>
       <c r="AT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>7.2100000381469727</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="BO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2135,7 +2135,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -13,27 +13,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="196" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="173">
   <si>
     <t>sampleid</t>
   </si>
   <si>
+    <t>900221</t>
+  </si>
+  <si>
     <t>900223</t>
   </si>
   <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>300540</t>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900286</t>
   </si>
   <si>
     <t>900150</t>
@@ -42,12 +84,21 @@
     <t>location</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke</t>
+  </si>
+  <si>
     <t>Gastonia</t>
   </si>
   <si>
+    <t>Gaston</t>
+  </si>
+  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -57,6 +108,9 @@
     <t>Fulton County</t>
   </si>
   <si>
+    <t>Burke County</t>
+  </si>
+  <si>
     <t>Gaston County</t>
   </si>
   <si>
@@ -90,10 +144,13 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>collection</t>
@@ -105,19 +162,28 @@
     <t>expectedsubstance</t>
   </si>
   <si>
+    <t>MDMA</t>
+  </si>
+  <si>
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine; MDMA</t>
+    <t>fentanyl; xylazine</t>
   </si>
   <si>
     <t>expect_opioid</t>
@@ -150,16 +216,25 @@
     <t>color</t>
   </si>
   <si>
+    <t>pink</t>
+  </si>
+  <si>
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>pink</t>
+    <t>white; off-white</t>
+  </si>
+  <si>
+    <t>pink; light purple</t>
   </si>
   <si>
     <t>bright_color</t>
@@ -168,55 +243,79 @@
     <t>texture</t>
   </si>
   <si>
+    <t>pill</t>
+  </si>
+  <si>
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
   </si>
   <si>
     <t>tar</t>
   </si>
   <si>
-    <t>pill</t>
-  </si>
-  <si>
     <t>plant</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>lustre</t>
   </si>
   <si>
     <t>sensations</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>stronger</t>
   </si>
   <si>
+    <t>typical</t>
+  </si>
+  <si>
+    <t>typical; weaker</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal</t>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -255,6 +354,9 @@
     <t>not overdose related</t>
   </si>
   <si>
+    <t>involved in OD</t>
+  </si>
+  <si>
     <t>od</t>
   </si>
   <si>
@@ -378,9 +480,15 @@
     <t>state_county</t>
   </si>
   <si>
+    <t xml:space="preserve">GA | </t>
+  </si>
+  <si>
     <t>GA | FULTON</t>
   </si>
   <si>
+    <t>NC | BURKE</t>
+  </si>
+  <si>
     <t>NC | GASTON</t>
   </si>
   <si>
@@ -402,6 +510,9 @@
     <t>121</t>
   </si>
   <si>
+    <t>023</t>
+  </si>
+  <si>
     <t>071</t>
   </si>
   <si>
@@ -412,6 +523,9 @@
   </si>
   <si>
     <t>13121</t>
+  </si>
+  <si>
+    <t>37023</t>
   </si>
   <si>
     <t>37071</t>
@@ -465,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF8"/>
+  <dimension ref="A1:CF22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,253 +590,253 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="P1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="Q1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="R1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="S1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="T1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="U1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="W1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="X1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="Y1" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="Z1" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AC1" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="AD1" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AE1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="AF1" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AG1" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="AH1" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AI1" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="AJ1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AK1" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="AL1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="AM1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="AN1" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="AO1" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="AP1" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AQ1" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AR1" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AS1" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="AT1" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="AU1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="AV1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="AW1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="AX1" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="AY1" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="AZ1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="BA1" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="BB1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="BC1" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="BD1" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="BE1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="BF1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="BG1" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="BH1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="BI1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="BJ1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="BK1" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="BL1" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="BM1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="BN1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="BO1" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="BP1" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="BQ1" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="BR1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="BS1" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="BT1" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="BU1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="BV1" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="BW1" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="BX1" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="BY1" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="BZ1" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="CA1" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="CB1" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="CC1" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="CD1" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="CE1" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="CF1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -730,31 +844,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1">
-        <v>45689</v>
+        <v>45751</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -784,28 +898,26 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
+      <c r="X2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
@@ -816,7 +928,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -826,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS2" s="2">
         <v>1</v>
@@ -835,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="AU2" s="2">
-        <v>6.880000114440918</v>
+        <v>5.619999885559082</v>
       </c>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2">
@@ -935,16 +1047,16 @@
         <v>0</v>
       </c>
       <c r="CC2" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="CD2" t="s">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="CE2" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="CF2" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -952,31 +1064,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1006,13 +1118,13 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1020,17 +1132,15 @@
         <v>1</v>
       </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
@@ -1040,7 +1150,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1056,17 +1166,17 @@
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="2">
-        <v>7.2100000381469727</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="2">
         <v>0</v>
@@ -1117,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="BO3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3" s="2">
         <v>0</v>
@@ -1159,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="CC3" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="CD3" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="CE3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="CF3" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
@@ -1176,31 +1286,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1218,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1230,29 +1340,29 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
@@ -1262,30 +1372,28 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
@@ -1306,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
         <v>0</v>
@@ -1339,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="2">
         <v>0</v>
@@ -1381,16 +1489,16 @@
         <v>0</v>
       </c>
       <c r="CC4" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="CD4" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="CE4" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="CF4" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -1398,31 +1506,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45692</v>
+        <v>45748</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
         <v>1</v>
@@ -1452,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1469,7 +1577,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1484,7 +1592,7 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AO5" s="2">
         <v>0</v>
@@ -1494,18 +1602,20 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU5" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>10.470000267028809</v>
+      </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
         <v>2</v>
@@ -1520,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="BB5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
         <v>0</v>
@@ -1601,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="CC5" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="CD5" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="CE5" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="CF5" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -1618,31 +1728,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>45689</v>
+        <v>45750</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1669,33 +1779,35 @@
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2">
         <v>1</v>
       </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD6" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE6" s="2"/>
-      <c r="AF6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
@@ -1704,7 +1816,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="2">
         <v>0</v>
@@ -1714,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1723,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1748,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1823,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="CC6" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="CD6" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="CE6" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="CF6" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1840,31 +1952,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>45691</v>
+        <v>45748</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -1882,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -1894,26 +2006,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -1928,7 +2036,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AO7" s="2">
         <v>0</v>
@@ -1938,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -1947,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -1972,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2047,16 +2155,16 @@
         <v>0</v>
       </c>
       <c r="CC7" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="CD7" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="CE7" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="CF7" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -2064,31 +2172,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45693</v>
+        <v>45750</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2118,13 +2226,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2135,7 +2243,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2150,135 +2258,3225 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
       </c>
       <c r="AT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.479999542236328</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1">
+        <v>45748</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>80</v>
+      </c>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>45761</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1">
+        <v>45691</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>81</v>
+      </c>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45689</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2"/>
+      <c r="AC11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>5.6100001335144043</v>
+      </c>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45747</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>77</v>
+      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>45761</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>10.449999809265137</v>
+      </c>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45748</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>77</v>
+      </c>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>45761</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>10.460000038146973</v>
+      </c>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45689</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>71</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>82</v>
+      </c>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="2"/>
+      <c r="AC14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>7.2100000381469727</v>
+      </c>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45692</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>69</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>77</v>
+      </c>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>45723</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45689</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" t="s">
+        <v>69</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2">
         <v>4</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="AX16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45749</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" t="s">
+        <v>72</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" t="s">
+        <v>84</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>45761</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>10.460000038146973</v>
+      </c>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45747</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>70</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" t="s">
+        <v>80</v>
+      </c>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>45761</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>4.5100002288818359</v>
+      </c>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45721</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" t="s">
+        <v>77</v>
+      </c>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>45762</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>10.449999809265137</v>
+      </c>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45747</v>
+      </c>
+      <c r="G20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>23</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>45761</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>4.309999942779541</v>
+      </c>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>158</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>166</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45721</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>73</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
+        <v>84</v>
+      </c>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>45762</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>12.539999961853027</v>
+      </c>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX21" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>159</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>167</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45693</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" t="s">
+        <v>69</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>77</v>
+      </c>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>45723</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>10.479999542236328</v>
+      </c>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX22" s="2">
         <v>3</v>
       </c>
-      <c r="AY8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>123</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>126</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>130</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>134</v>
+      <c r="AY22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>159</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>162</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>167</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,63 +24,63 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900138</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
     <t>900151</t>
   </si>
   <si>
     <t>300540</t>
   </si>
   <si>
+    <t>900200</t>
+  </si>
+  <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900200</t>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900146</t>
   </si>
   <si>
     <t>900271</t>
   </si>
   <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900146</t>
+    <t>900150</t>
   </si>
   <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -168,12 +168,12 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -228,12 +228,12 @@
     <t>clear</t>
   </si>
   <si>
+    <t>white; off-white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
-    <t>shards</t>
-  </si>
-  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -303,16 +303,16 @@
     <t>hallucinations</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>weaker</t>
   </si>
   <si>
     <t>sedating</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1346,15 +1346,15 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>92</v>
@@ -1372,9 +1372,11 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1389,20 +1391,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1414,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1459,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1518,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1533,22 +1535,22 @@
         <v>52</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1566,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1574,13 +1576,15 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1611,20 +1615,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1636,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1681,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1755,22 +1759,22 @@
         <v>51</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1788,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1796,15 +1800,13 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD6" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1816,10 +1818,10 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1835,20 +1837,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1860,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1905,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -1976,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2012,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2184,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2199,22 +2201,22 @@
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2232,15 +2234,15 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>92</v>
@@ -2258,11 +2260,9 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2277,20 +2277,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2347,10 +2347,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2848,37 +2848,37 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2887,33 +2887,33 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -2922,17 +2922,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2941,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
@@ -2951,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3011,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3058,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3070,37 +3068,37 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3109,33 +3107,33 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
@@ -3144,15 +3142,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
@@ -3171,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3290,19 +3290,19 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45748</v>
+        <v>45692</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3349,7 +3349,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -3364,15 +3364,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3380,9 +3382,7 @@
       <c r="AT13" s="2">
         <v>1</v>
       </c>
-      <c r="AU13" s="2">
-        <v>10.460000038146973</v>
-      </c>
+      <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
         <v>3</v>
@@ -3400,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" s="2">
         <v>0</v>
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3510,19 +3510,19 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3534,13 +3534,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3549,10 +3549,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3562,21 +3562,19 @@
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2">
         <v>1</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3586,33 +3584,31 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>7.2100000381469727</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
         <v>0</v>
@@ -3630,10 +3626,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3663,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="BO14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
@@ -3722,7 +3718,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3734,19 +3730,19 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45692</v>
+        <v>45748</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3793,7 +3789,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3808,17 +3804,15 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3826,7 +3820,9 @@
       <c r="AT15" s="2">
         <v>1</v>
       </c>
-      <c r="AU15" s="2"/>
+      <c r="AU15" s="2">
+        <v>10.460000038146973</v>
+      </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
         <v>3</v>
@@ -3844,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -3954,31 +3950,31 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3987,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3996,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -4006,19 +4002,17 @@
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4028,39 +4022,37 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4078,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4105,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
@@ -4117,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4176,19 +4168,19 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45749</v>
+        <v>45721</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4218,25 +4210,27 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD17" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -4248,31 +4242,33 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>10.460000038146973</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY17" s="2">
         <v>1</v>
@@ -4290,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4329,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="BQ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR17" s="2">
         <v>0</v>
@@ -4406,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4442,7 +4438,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4614,31 +4610,31 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4647,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4662,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4673,12 +4669,12 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE19" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4698,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4707,20 +4703,20 @@
         <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4732,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4765,22 +4761,22 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP19" s="2">
         <v>0</v>
       </c>
       <c r="BQ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR19" s="2">
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4824,7 +4820,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4836,19 +4832,19 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4860,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4875,10 +4871,10 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4888,19 +4884,21 @@
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2">
         <v>1</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4910,31 +4908,33 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>4.309999942779541</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="2">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5098,24 +5098,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5136,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5145,14 +5149,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5161,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5209,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
         <v>1</v>
@@ -5236,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="2">
         <v>0</v>
@@ -5274,19 +5278,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5295,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5316,28 +5320,24 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,10 +24,16 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
     <t>900264</t>
   </si>
   <si>
-    <t>900121</t>
+    <t>900138</t>
   </si>
   <si>
     <t>900185</t>
@@ -36,51 +42,45 @@
     <t>900165</t>
   </si>
   <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900151</t>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900108</t>
   </si>
   <si>
     <t>300540</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
     <t>900200</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
     <t>900279</t>
   </si>
   <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900245</t>
+    <t>900286</t>
   </si>
   <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -144,12 +144,12 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -168,21 +168,21 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -228,12 +228,12 @@
     <t>clear</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t>shards; crystals</t>
   </si>
   <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>hallucinations</t>
   </si>
   <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sedating</t>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1340,19 +1340,17 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1372,11 +1370,9 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1391,20 +1387,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1416,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1461,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1532,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1568,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1744,7 +1740,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
@@ -1756,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1818,10 +1814,10 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1837,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.460000038146973</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1978,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2008,19 +2004,21 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>92</v>
@@ -2038,11 +2036,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2186,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2201,22 +2197,22 @@
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2234,15 +2230,15 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>92</v>
@@ -2260,9 +2256,11 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2277,20 +2275,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2302,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2347,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2418,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2448,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2478,9 +2476,11 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2624,13 +2624,13 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2681,16 +2681,14 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>94</v>
       </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2716,14 +2714,14 @@
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2777,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="2">
         <v>0</v>
@@ -2836,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2848,19 +2846,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45747</v>
+        <v>45721</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2907,10 +2905,10 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD11" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2922,31 +2920,33 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2">
         <v>10.449999809265137</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY11" s="2">
         <v>1</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="BQ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR11" s="2">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3107,33 +3107,31 @@
         <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD12" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
       <c r="AE12" s="2"/>
-      <c r="AF12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
@@ -3152,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3161,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
@@ -3186,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3290,7 +3288,7 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
@@ -3302,19 +3300,19 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3323,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3338,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3347,7 +3345,9 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
       <c r="AC13" t="s">
         <v>96</v>
       </c>
@@ -3374,36 +3374,38 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>8.3500003814697266</v>
+      </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="2">
         <v>0</v>
@@ -3412,10 +3414,10 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3451,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3498,7 +3500,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3510,19 +3512,19 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3534,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3549,32 +3551,34 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2">
         <v>1</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3584,31 +3588,33 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2">
-        <v>4.309999942779541</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
         <v>0</v>
@@ -3626,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3659,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="BO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
@@ -3742,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3950,37 +3956,37 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3989,31 +3995,33 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
-      <c r="AF16" s="2"/>
+      <c r="AF16" s="2">
+        <v>1</v>
+      </c>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
@@ -4022,15 +4030,17 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4039,20 +4049,20 @@
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.460000038146973</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4109,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4168,19 +4178,19 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45721</v>
+        <v>45692</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4227,10 +4237,10 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD17" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -4252,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4260,15 +4270,13 @@
       <c r="AT17" s="2">
         <v>1</v>
       </c>
-      <c r="AU17" s="2">
-        <v>10.449999809265137</v>
-      </c>
+      <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="2">
         <v>1</v>
@@ -4280,16 +4288,16 @@
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4325,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="BQ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR17" s="2">
         <v>0</v>
@@ -4378,7 +4386,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4393,16 +4401,16 @@
         <v>45747</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4432,19 +4440,21 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>92</v>
@@ -4462,11 +4472,9 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
@@ -4481,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
@@ -4598,7 +4606,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4610,31 +4618,31 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4643,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4658,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4669,12 +4677,12 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4684,39 +4692,37 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4734,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4761,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="2">
         <v>0</v>
@@ -4773,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4832,25 +4838,25 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4871,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
         <v>72</v>
@@ -4884,21 +4890,17 @@
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4908,39 +4910,37 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="2">
         <v>2</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5098,28 +5098,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5140,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5149,14 +5145,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5165,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5213,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
         <v>1</v>
@@ -5240,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA21" s="2">
         <v>0</v>
@@ -5278,19 +5274,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5299,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5320,24 +5316,28 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD22" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -27,54 +27,54 @@
     <t>900151</t>
   </si>
   <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
-    <t>900264</t>
+    <t>900165</t>
   </si>
   <si>
     <t>900138</t>
   </si>
   <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900165</t>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900146</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
     <t>900286</t>
   </si>
   <si>
@@ -144,15 +144,15 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -177,12 +177,12 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -228,12 +228,12 @@
     <t>clear</t>
   </si>
   <si>
+    <t>white; off-white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -258,21 +258,21 @@
     <t>crystals</t>
   </si>
   <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,19 +297,19 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
   </si>
   <si>
     <t>normal; sedating</t>
@@ -1370,7 +1370,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1516,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1528,25 +1528,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1572,15 +1572,13 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1611,20 +1609,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1636,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1681,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1740,7 +1738,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
@@ -1814,10 +1812,10 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1833,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.470000267028809</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1962,7 +1960,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -2010,21 +2008,23 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2">
         <v>1</v>
       </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -2036,9 +2036,11 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -2182,7 +2184,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2194,25 +2196,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2224,19 +2226,17 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2256,10 +2256,10 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
@@ -2275,20 +2275,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2446,19 +2446,21 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>92</v>
@@ -2476,11 +2478,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2666,29 +2666,27 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2708,20 +2706,20 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2742,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2775,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10" s="2">
         <v>0</v>
@@ -2846,7 +2844,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45721</v>
+        <v>45749</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
@@ -2888,27 +2886,25 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD11" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2920,33 +2916,31 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="2">
         <v>1</v>
@@ -2964,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3003,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="BQ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR11" s="2">
         <v>0</v>
@@ -3068,19 +3062,19 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3098,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3110,22 +3104,26 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3150,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3159,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>4.5100002288818359</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
@@ -3184,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3276,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3288,31 +3286,31 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45691</v>
+        <v>45748</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3321,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3336,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3345,11 +3343,9 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -3364,39 +3360,37 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3414,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3453,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3500,7 +3494,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3512,25 +3506,25 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3551,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3568,17 +3562,15 @@
         <v>1</v>
       </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3588,39 +3580,37 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3665,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="BO14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="2">
         <v>0</v>
@@ -3677,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3724,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3736,7 +3726,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45748</v>
+        <v>45721</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -3795,10 +3785,10 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD15" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3810,15 +3800,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3827,14 +3819,14 @@
         <v>1</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.460000038146973</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
@@ -3852,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3891,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="BQ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR15" s="2">
         <v>0</v>
@@ -3968,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4015,7 +4007,7 @@
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -4166,7 +4158,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4178,37 +4170,37 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4220,24 +4212,24 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4252,52 +4244,52 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>4.309999942779541</v>
+      </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4339,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4386,7 +4378,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4398,19 +4390,19 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4428,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4440,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4450,19 +4442,19 @@
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4472,28 +4464,30 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>4.309999942779541</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4514,16 +4508,16 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4547,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP18" s="2">
         <v>0</v>
@@ -4606,7 +4600,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4618,25 +4612,25 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4657,16 +4651,16 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4674,15 +4668,17 @@
         <v>1</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4692,37 +4688,39 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.449999809265137</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4767,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
@@ -4779,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4838,7 +4836,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45749</v>
+        <v>45692</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -4880,22 +4878,24 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -4910,28 +4910,28 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="2">
-        <v>10.460000038146973</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
         <v>2</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>45721</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -5104,7 +5104,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5333,7 +5333,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,57 +24,57 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900151</t>
   </si>
   <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
     <t>900264</t>
   </si>
   <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
     <t>900138</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
     <t>900108</t>
   </si>
   <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
     <t>900101</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900286</t>
   </si>
   <si>
@@ -144,15 +144,15 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -177,12 +177,12 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -222,12 +222,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>white; off-white</t>
   </si>
   <si>
@@ -264,12 +264,12 @@
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>shards; crystals</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>weaker</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sedating</t>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1370,9 +1370,11 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1387,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1528,25 +1530,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1558,19 +1560,17 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1590,11 +1590,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1609,20 +1607,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1634,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1679,10 +1677,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1750,25 +1748,25 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1780,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1794,13 +1792,15 @@
         <v>1</v>
       </c>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD6" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1812,10 +1812,10 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1831,20 +1831,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -1972,25 +1972,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2016,15 +2016,13 @@
         <v>1</v>
       </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD7" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -2036,10 +2034,10 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
@@ -2055,20 +2053,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2080,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2125,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2196,25 +2194,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2232,11 +2230,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2275,20 +2275,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2478,7 +2478,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
@@ -2624,37 +2624,37 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2672,16 +2672,18 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2706,44 +2708,42 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>4.5100002288818359</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2847,10 +2847,10 @@
         <v>45749</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2916,7 +2916,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -3065,10 +3065,10 @@
         <v>45691</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="AC12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3286,31 +3286,31 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3345,12 +3345,12 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3360,15 +3360,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3377,20 +3379,20 @@
         <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3408,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3435,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="BO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP13" s="2">
         <v>0</v>
@@ -3447,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3580,7 +3582,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3594,17 +3596,17 @@
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
         <v>1</v>
@@ -3714,7 +3716,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3726,37 +3728,37 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45721</v>
+        <v>45747</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3768,27 +3770,27 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD15" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3800,39 +3802,37 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.449999809265137</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR15" s="2">
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3990,30 +3990,32 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2">
         <v>1</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
@@ -4038,17 +4040,17 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>5.6100001335144043</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="2">
         <v>0</v>
@@ -4099,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
@@ -4158,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4170,19 +4172,19 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4209,16 +4211,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
+        <v>67</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>23</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" t="s">
-        <v>83</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4229,13 +4231,13 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -4244,15 +4246,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4261,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>4.309999942779541</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
@@ -4286,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4378,7 +4382,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4390,31 +4394,31 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4423,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4432,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4449,12 +4453,12 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4464,39 +4468,37 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4514,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4541,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="2">
         <v>0</v>
@@ -4553,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4612,7 +4614,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
@@ -4624,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4636,13 +4638,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4651,34 +4653,30 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4698,23 +4696,23 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>7.2100000381469727</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
         <v>0</v>
@@ -4732,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4765,10 +4763,10 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
@@ -4836,13 +4834,13 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45692</v>
+        <v>45721</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
@@ -4878,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4898,7 +4896,7 @@
         <v>99</v>
       </c>
       <c r="AD20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -4920,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4928,13 +4926,15 @@
       <c r="AT20" s="2">
         <v>1</v>
       </c>
-      <c r="AU20" s="2"/>
+      <c r="AU20" s="2">
+        <v>10.449999809265137</v>
+      </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY20" s="2">
         <v>1</v>
@@ -4946,16 +4946,16 @@
         <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" s="2">
         <v>0</v>
@@ -5059,10 +5059,10 @@
         <v>45721</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5333,7 +5333,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,63 +24,63 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
     <t>900165</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900121</t>
+    <t>900138</t>
   </si>
   <si>
     <t>900185</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900138</t>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900179</t>
   </si>
   <si>
     <t>900235</t>
   </si>
   <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
     <t>900279</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
     <t>900271</t>
   </si>
   <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900101</t>
+    <t>900150</t>
   </si>
   <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -147,12 +147,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -222,18 +222,18 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white</t>
+    <t>white; gray</t>
   </si>
   <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
     <t>shards</t>
   </si>
   <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,28 +291,28 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical; weaker</t>
+  </si>
+  <si>
     <t>typical</t>
   </si>
   <si>
-    <t>typical; weaker</t>
+    <t>unusual taste</t>
   </si>
   <si>
     <t>normal; sedating</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
     <t>unpleasant</t>
   </si>
   <si>
     <t>hallucinations</t>
-  </si>
-  <si>
-    <t>weaker</t>
   </si>
   <si>
     <t>sedating</t>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1350,15 +1350,19 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>92</v>
       </c>
       <c r="AD4" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1389,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1530,25 +1534,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1560,22 +1564,24 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1590,9 +1596,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1607,20 +1615,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1632,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1677,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1736,7 +1744,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
@@ -1778,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1788,19 +1796,15 @@
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>93</v>
       </c>
       <c r="AD6" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -1812,11 +1816,9 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1960,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1972,25 +1974,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2008,18 +2010,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2034,10 +2034,10 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
@@ -2053,20 +2053,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2194,25 +2194,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2224,24 +2224,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2256,11 +2256,9 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2275,20 +2273,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2300,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2345,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2404,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2416,25 +2414,25 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2446,24 +2444,24 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2478,9 +2476,11 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2495,20 +2495,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2624,37 +2624,37 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2672,18 +2672,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2708,42 +2706,44 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>4.5100002288818359</v>
+      </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2844,31 +2844,31 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2896,17 +2896,19 @@
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2916,37 +2918,39 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -2964,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2991,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP11" s="2">
         <v>0</v>
@@ -3003,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3062,31 +3066,31 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3095,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3104,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3119,9 +3123,7 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
         <v>95</v>
       </c>
@@ -3148,38 +3150,36 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>8.3500003814697266</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -3188,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3227,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3286,31 +3286,31 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3347,10 +3347,10 @@
       <c r="AC13" t="s">
         <v>96</v>
       </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3379,20 +3379,20 @@
         <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX13" s="2">
         <v>4</v>
       </c>
-      <c r="AX13" s="2">
-        <v>1</v>
-      </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3437,22 +3437,22 @@
         <v>0</v>
       </c>
       <c r="BO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="2">
         <v>0</v>
       </c>
       <c r="BQ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3496,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3508,7 +3508,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45748</v>
+        <v>45691</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
@@ -3520,19 +3520,19 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3565,9 +3565,11 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3582,37 +3584,39 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3630,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3669,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3740,25 +3744,25 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3770,24 +3774,24 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3802,7 +3806,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3819,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>4.309999942779541</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
@@ -3829,10 +3833,10 @@
         <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3844,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3889,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3990,13 +3994,13 @@
         <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4009,7 +4013,7 @@
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2">
@@ -4160,7 +4164,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4172,19 +4176,19 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4211,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4231,13 +4235,13 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -4246,17 +4250,15 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4265,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
@@ -4290,10 +4292,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4382,7 +4384,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4394,13 +4396,13 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -4436,24 +4438,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4468,7 +4468,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4485,14 +4485,14 @@
         <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="2">
         <v>1</v>
@@ -4602,7 +4602,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4614,37 +4614,37 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4662,16 +4662,18 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4686,11 +4688,9 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
@@ -4702,23 +4702,23 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4730,10 +4730,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4775,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4834,37 +4834,37 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4873,33 +4873,33 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4918,29 +4918,29 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4991,16 +4991,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="2">
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5098,24 +5098,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5136,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5145,14 +5149,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5161,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5209,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
         <v>1</v>
@@ -5236,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="2">
         <v>0</v>
@@ -5274,19 +5278,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5295,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5316,28 +5320,24 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,27 +24,36 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900185</t>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>300540</t>
   </si>
   <si>
     <t>900108</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
@@ -54,33 +63,24 @@
     <t>900101</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900200</t>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900279</t>
   </si>
   <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900231</t>
+    <t>900286</t>
   </si>
   <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gaston</t>
+  </si>
+  <si>
     <t>Gastonia</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -177,12 +177,12 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -222,18 +222,18 @@
     <t>orange</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>clear</t>
+    <t>white; off-white</t>
   </si>
   <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
-    <t>crystals</t>
+    <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>rock</t>
   </si>
   <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,10 +291,16 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical</t>
+  </si>
+  <si>
     <t>typical; weaker</t>
   </si>
   <si>
-    <t>typical</t>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
   </si>
   <si>
     <t>unusual taste</t>
@@ -306,13 +312,7 @@
     <t>weaker</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
   </si>
   <si>
     <t>sedating</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1350,19 +1350,15 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>92</v>
       </c>
       <c r="AD4" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1393,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1534,25 +1530,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1564,24 +1560,24 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1596,11 +1592,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1615,20 +1609,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1640,10 +1634,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1685,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1756,25 +1750,25 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1786,22 +1780,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1816,9 +1812,11 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1833,20 +1831,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1858,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1903,10 +1901,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -2004,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2019,7 +2017,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2034,11 +2032,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2053,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -2182,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2194,25 +2190,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2224,24 +2220,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2256,9 +2252,11 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2273,20 +2271,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2298,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2343,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2414,25 +2412,25 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2444,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2458,13 +2456,15 @@
         <v>1</v>
       </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>93</v>
       </c>
       <c r="AD9" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2476,10 +2476,10 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
@@ -2495,20 +2495,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2627,34 +2627,34 @@
         <v>45747</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2672,16 +2672,18 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2696,11 +2698,9 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
@@ -2725,10 +2725,10 @@
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2844,13 +2844,13 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2901,14 +2901,16 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
       <c r="AC11" t="s">
         <v>94</v>
       </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2934,14 +2936,14 @@
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
         <v>1</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="2">
         <v>0</v>
@@ -3054,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3066,37 +3068,37 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3114,18 +3116,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3150,42 +3150,44 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>4.5100002288818359</v>
+      </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3227,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3274,7 +3276,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3286,37 +3288,37 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3325,33 +3327,33 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>-1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
+      <c r="AF13" s="2">
+        <v>1</v>
+      </c>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
@@ -3370,29 +3372,29 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3404,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3443,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3496,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3508,13 +3510,13 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -3550,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3565,16 +3567,14 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3600,14 +3600,14 @@
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP14" s="2">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3791,7 +3791,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3806,31 +3806,31 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>10.449999809265137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
@@ -3842,10 +3842,10 @@
         <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3952,25 +3952,25 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4008,17 +4008,15 @@
         <v>1</v>
       </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
         <v>98</v>
       </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4038,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4047,20 +4045,20 @@
         <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX16" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4072,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
         <v>0</v>
@@ -4105,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR16" s="2">
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4164,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4224,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4235,7 +4233,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4396,7 +4394,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45749</v>
+        <v>45748</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -4438,22 +4436,24 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4482,14 +4482,14 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
         <v>10.460000038146973</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>2</v>
@@ -4614,7 +4614,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -4656,24 +4656,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4702,14 +4700,14 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2">
         <v>10.460000038146973</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="2">
         <v>2</v>
@@ -4822,7 +4820,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4858,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4876,17 +4874,19 @@
         <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2">
         <v>1</v>
@@ -4896,10 +4896,10 @@
         <v>99</v>
       </c>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4924,17 +4924,17 @@
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>5.6100001335144043</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="2">
         <v>0</v>
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5098,28 +5098,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5140,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5149,14 +5145,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5165,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5213,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
         <v>1</v>
@@ -5240,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA21" s="2">
         <v>0</v>
@@ -5278,19 +5274,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5299,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5320,24 +5316,28 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD22" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,63 +24,63 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
     <t>900165</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
     <t>900138</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900121</t>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900179</t>
   </si>
   <si>
     <t>900200</t>
   </si>
   <si>
+    <t>900146</t>
+  </si>
+  <si>
     <t>300540</t>
   </si>
   <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
     <t>900108</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
     <t>900245</t>
   </si>
   <si>
+    <t>900150</t>
+  </si>
+  <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gastonia</t>
+  </si>
+  <si>
     <t>Gaston</t>
   </si>
   <si>
-    <t>Gastonia</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -168,18 +168,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>methamphetamine; MDMA</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -222,12 +222,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; off-white</t>
   </si>
   <si>
@@ -249,24 +249,24 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
     <t>shards</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>crystals; powder</t>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
   </si>
   <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
     <t>rock</t>
   </si>
   <si>
@@ -297,16 +297,16 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>weaker</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1346,11 +1346,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1370,10 +1372,10 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
@@ -1389,20 +1391,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1414,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1459,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1518,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1530,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1560,27 +1562,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2">
         <v>1</v>
       </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1592,9 +1596,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1609,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
@@ -1750,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1780,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1972,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2002,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2032,9 +2038,11 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2049,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -2178,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2193,22 +2201,22 @@
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2220,19 +2228,17 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2252,11 +2258,9 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2271,20 +2275,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2296,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2341,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2400,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2412,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2442,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2452,19 +2456,17 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2">
         <v>1</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD9" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2476,11 +2478,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2624,7 +2624,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G10" t="s">
         <v>43</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2683,7 +2683,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2698,31 +2698,31 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>10.449999809265137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="2">
         <v>1</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="2">
         <v>0</v>
@@ -2832,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2844,13 +2844,13 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2874,44 +2874,42 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -2939,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>8.3500003814697266</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
@@ -2970,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -3056,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3068,7 +3066,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -3080,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3098,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3116,21 +3114,23 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3150,20 +3150,20 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2">
-        <v>4.5100002288818359</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3184,16 +3184,16 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12" s="2">
         <v>0</v>
@@ -3288,37 +3288,37 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3327,33 +3327,33 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD13" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
@@ -3362,17 +3362,15 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3381,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
@@ -3391,10 +3389,10 @@
         <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3451,10 +3449,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3510,19 +3508,19 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3540,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3552,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3562,19 +3560,19 @@
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3584,30 +3582,28 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
         <v>1</v>
@@ -3628,16 +3624,16 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3661,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="2">
         <v>0</v>
@@ -3720,7 +3716,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3732,31 +3728,31 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3765,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3774,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3789,7 +3785,9 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" t="s">
         <v>97</v>
       </c>
@@ -3816,36 +3814,38 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>8.3500003814697266</v>
+      </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45721</v>
+        <v>45748</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -4011,10 +4011,10 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AD16" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -4026,17 +4026,15 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4045,14 +4043,14 @@
         <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="2">
         <v>1</v>
@@ -4070,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
         <v>0</v>
@@ -4109,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR16" s="2">
         <v>0</v>
@@ -4174,13 +4172,13 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4189,22 +4187,22 @@
         <v>51</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4216,21 +4214,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
         <v>92</v>
@@ -4265,20 +4261,20 @@
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>4.309999942779541</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4290,10 +4286,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4335,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4394,19 +4390,19 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45748</v>
+        <v>45721</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4436,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4453,10 +4449,10 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AD18" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -4468,15 +4464,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4485,14 +4483,14 @@
         <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>10.460000038146973</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX18" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY18" s="2">
         <v>1</v>
@@ -4510,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
         <v>0</v>
@@ -4549,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="BQ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR18" s="2">
         <v>0</v>
@@ -4602,7 +4600,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4614,13 +4612,13 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45749</v>
+        <v>45747</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -4629,22 +4627,22 @@
         <v>52</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4656,13 +4654,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4686,9 +4684,11 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
@@ -4703,20 +4703,20 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4773,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -5056,19 +5056,19 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5098,24 +5098,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5136,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5145,14 +5149,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5161,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5209,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
         <v>1</v>
@@ -5236,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="2">
         <v>0</v>
@@ -5274,19 +5278,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5295,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5316,28 +5320,24 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,63 +24,63 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
     <t>900185</t>
   </si>
   <si>
     <t>900121</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900138</t>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900108</t>
   </si>
   <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900245</t>
+    <t>900286</t>
   </si>
   <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gaston</t>
+  </si>
+  <si>
     <t>Gastonia</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -147,12 +147,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -168,21 +168,21 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>ketamine</t>
   </si>
   <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -222,18 +222,18 @@
     <t>orange</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>clear</t>
+    <t>white; gray</t>
   </si>
   <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
-    <t>crystals</t>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
+    <t>powder; crystals</t>
   </si>
   <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sedating</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1340,19 +1340,17 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1372,11 +1370,9 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1391,20 +1387,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1416,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1461,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1520,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1532,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1572,19 +1568,15 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1615,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
@@ -1759,22 +1751,22 @@
         <v>51</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1786,21 +1778,21 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>92</v>
@@ -1818,11 +1810,9 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1837,20 +1827,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1862,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1907,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -1981,22 +1971,22 @@
         <v>52</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2014,11 +2004,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -2057,20 +2049,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2082,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2127,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2186,7 +2178,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2201,22 +2193,22 @@
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2228,17 +2220,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2258,9 +2252,11 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2275,20 +2271,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2300,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2345,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2404,7 +2400,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2416,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2446,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2456,17 +2452,19 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2">
         <v>1</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2478,9 +2476,11 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2624,7 +2624,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G10" t="s">
         <v>43</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2683,7 +2683,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2698,31 +2698,31 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>10.449999809265137</v>
+      </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
         <v>1</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="BB10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="2">
         <v>0</v>
@@ -2844,19 +2844,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2903,13 +2903,13 @@
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD11" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
       <c r="AE11" s="2"/>
-      <c r="AF11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
@@ -2918,17 +2918,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2937,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
@@ -2962,10 +2960,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3054,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3066,31 +3064,31 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3099,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3108,13 +3106,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3125,12 +3123,12 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3150,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3159,20 +3157,20 @@
         <v>1</v>
       </c>
       <c r="AU12" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX12" s="2">
         <v>4</v>
       </c>
-      <c r="AX12" s="2">
-        <v>1</v>
-      </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3184,16 +3182,16 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3217,22 +3215,22 @@
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="2">
         <v>0</v>
       </c>
       <c r="BQ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR12" s="2">
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3276,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3288,19 +3286,19 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3330,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -3362,7 +3360,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -3376,17 +3374,17 @@
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="2">
         <v>1</v>
@@ -3508,19 +3506,19 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -3538,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3550,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3560,14 +3558,16 @@
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2">
+        <v>1</v>
+      </c>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3582,15 +3582,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3599,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>4.309999942779541</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
@@ -3624,16 +3626,16 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3716,7 +3718,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3728,19 +3730,19 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3770,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3785,16 +3787,14 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3820,14 +3820,14 @@
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP15" s="2">
         <v>0</v>
@@ -3952,25 +3952,25 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
@@ -3991,16 +3991,16 @@
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4008,15 +4008,17 @@
         <v>1</v>
       </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4026,15 +4028,17 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4043,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.460000038146973</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
@@ -4053,10 +4057,10 @@
         <v>2</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4101,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
@@ -4113,10 +4117,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4160,7 +4164,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4175,16 +4179,16 @@
         <v>45749</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4214,13 +4218,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4244,7 +4248,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4378,7 +4382,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4390,37 +4394,37 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4429,33 +4433,33 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>98</v>
       </c>
-      <c r="AD18" s="2">
-        <v>-1</v>
-      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
+      <c r="AF18" s="2">
+        <v>1</v>
+      </c>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -4474,29 +4478,29 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4508,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
         <v>0</v>
@@ -4547,16 +4551,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR18" s="2">
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4600,7 +4604,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4624,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4654,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4820,7 +4824,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4832,25 +4836,25 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4871,16 +4875,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4888,17 +4892,15 @@
         <v>1</v>
       </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4918,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4926,9 +4928,7 @@
       <c r="AT20" s="2">
         <v>1</v>
       </c>
-      <c r="AU20" s="2">
-        <v>7.2100000381469727</v>
-      </c>
+      <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
         <v>3</v>
@@ -4937,19 +4937,19 @@
         <v>2</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
         <v>0</v>
@@ -4985,10 +4985,10 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5056,19 +5056,19 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5098,28 +5098,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5140,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5149,14 +5145,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5165,10 +5161,10 @@
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5213,10 +5209,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS21" s="2">
         <v>1</v>
@@ -5240,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA21" s="2">
         <v>0</v>
@@ -5278,19 +5274,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5299,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5320,24 +5316,28 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD22" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,57 +24,57 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
     <t>900151</t>
   </si>
   <si>
     <t>900165</t>
   </si>
   <si>
-    <t>900138</t>
+    <t>900185</t>
   </si>
   <si>
     <t>900264</t>
   </si>
   <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900121</t>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900271</t>
   </si>
   <si>
     <t>900200</t>
   </si>
   <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
     <t>900286</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gastonia</t>
+  </si>
+  <si>
     <t>Gaston</t>
   </si>
   <si>
-    <t>Gastonia</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -147,12 +147,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -174,15 +174,15 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -222,12 +222,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -249,27 +249,27 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>shards</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
     <t>shards; crystals</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>rock</t>
   </si>
   <si>
@@ -291,28 +291,28 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical; weaker</t>
+  </si>
+  <si>
     <t>typical</t>
   </si>
   <si>
-    <t>typical; weaker</t>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
   <si>
     <t>weaker</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
   </si>
   <si>
     <t>sedating</t>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1350,15 +1350,19 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>92</v>
       </c>
       <c r="AD4" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1370,9 +1374,11 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1387,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1564,16 +1570,18 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1588,11 +1596,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1778,24 +1784,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1810,7 +1814,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1827,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1968,25 +1972,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2004,18 +2008,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2049,20 +2051,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2074,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2119,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2237,7 +2239,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2400,7 +2402,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2412,25 +2414,25 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2456,15 +2458,13 @@
         <v>1</v>
       </c>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
         <v>93</v>
       </c>
       <c r="AD9" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2495,20 +2495,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2624,37 +2624,37 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2663,33 +2663,33 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
@@ -2698,15 +2698,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2715,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
@@ -2725,10 +2727,10 @@
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2785,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2832,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2903,7 +2905,7 @@
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2918,7 +2920,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -3052,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3064,31 +3066,31 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3097,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3106,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3123,12 +3125,12 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE12" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3148,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3157,20 +3159,20 @@
         <v>1</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3182,16 +3184,16 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3215,22 +3217,22 @@
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12" s="2">
         <v>0</v>
       </c>
       <c r="BQ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR12" s="2">
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3286,25 +3288,25 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3325,16 +3327,16 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3342,15 +3344,17 @@
         <v>1</v>
       </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3360,15 +3364,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3377,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.460000038146973</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
@@ -3387,10 +3393,10 @@
         <v>2</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3435,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="BO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ13" s="2">
         <v>0</v>
@@ -3447,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3494,7 +3500,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3506,31 +3512,31 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3539,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3548,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3563,11 +3569,9 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3592,38 +3596,36 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>8.3500003814697266</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
         <v>0</v>
@@ -3632,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3671,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3718,7 +3720,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3730,7 +3732,7 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G15" t="s">
         <v>42</v>
@@ -3742,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3760,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3778,23 +3780,21 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3814,20 +3814,20 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3848,16 +3848,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="2">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3952,13 +3952,13 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
       </c>
       <c r="S16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -4008,17 +4008,17 @@
         <v>1</v>
       </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4044,17 +4044,17 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>7.2100000381469727</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
         <v>0</v>
@@ -4078,10 +4078,10 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4105,10 +4105,10 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ16" s="2">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4179,10 +4179,10 @@
         <v>45749</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4233,7 +4233,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4248,7 +4248,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4382,7 +4382,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4394,37 +4394,37 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4433,33 +4433,33 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -4478,29 +4478,29 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4512,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
         <v>0</v>
@@ -4551,16 +4551,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR18" s="2">
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4616,37 +4616,37 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4664,16 +4664,18 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4688,11 +4690,9 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
@@ -4704,23 +4704,23 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4732,10 +4732,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4777,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4836,7 +4836,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4895,7 +4895,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -4910,31 +4910,31 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>10.449999809265137</v>
+      </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
         <v>1</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
         <v>0</v>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5333,7 +5333,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,63 +24,63 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
     <t>900138</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900264</t>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900101</t>
   </si>
   <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900146</t>
+    <t>300540</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
     <t>900200</t>
   </si>
   <si>
+    <t>900150</t>
+  </si>
+  <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gaston</t>
+  </si>
+  <si>
     <t>Gastonia</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -144,15 +144,15 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>swab</t>
   </si>
   <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -168,12 +168,12 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
@@ -228,12 +228,12 @@
     <t>clear</t>
   </si>
   <si>
+    <t>white; off-white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
     <t>shards; crystals</t>
   </si>
   <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -291,28 +291,28 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical</t>
+  </si>
+  <si>
     <t>typical; weaker</t>
   </si>
   <si>
-    <t>typical</t>
+    <t>weaker</t>
   </si>
   <si>
     <t>hallucinations</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weaker</t>
   </si>
   <si>
     <t>sedating</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1354,15 +1354,13 @@
         <v>1</v>
       </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>92</v>
       </c>
       <c r="AD4" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1374,10 +1372,10 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
@@ -1393,20 +1391,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1418,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1463,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1534,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1564,24 +1562,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1596,9 +1592,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1757,22 +1755,22 @@
         <v>51</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1784,22 +1782,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1814,9 +1814,11 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1831,20 +1833,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1901,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -1960,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1972,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2002,25 +2004,29 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>93</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -2051,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -2180,7 +2186,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2195,22 +2201,22 @@
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2222,24 +2228,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2254,11 +2258,9 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2273,20 +2275,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2298,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2343,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2417,22 +2419,22 @@
         <v>52</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2450,18 +2452,18 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2476,11 +2478,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2495,20 +2495,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2624,37 +2624,37 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2663,33 +2663,33 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
@@ -2698,39 +2698,37 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2787,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2834,7 +2832,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2849,16 +2847,16 @@
         <v>45747</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2905,7 +2903,7 @@
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2920,7 +2918,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -3054,7 +3052,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3066,31 +3064,31 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3099,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3108,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3118,19 +3116,17 @@
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3140,39 +3136,37 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3190,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3217,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="2">
         <v>0</v>
@@ -3229,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3276,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3288,25 +3282,25 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3327,16 +3321,16 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3344,17 +3338,15 @@
         <v>1</v>
       </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3383,20 +3375,20 @@
         <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3408,10 +3400,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3441,22 +3433,22 @@
         <v>0</v>
       </c>
       <c r="BO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3500,7 +3492,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3512,37 +3504,37 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3551,33 +3543,33 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
+      <c r="AF14" s="2">
+        <v>1</v>
+      </c>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
@@ -3596,36 +3588,38 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>5.6100001335144043</v>
+      </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
         <v>0</v>
@@ -3673,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3720,7 +3714,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3732,19 +3726,19 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3762,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3774,22 +3768,26 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3814,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3823,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>4.5100002288818359</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
@@ -3848,16 +3846,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3940,7 +3938,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3952,13 +3950,13 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -4009,16 +4007,14 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4044,14 +4040,14 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -4105,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
@@ -4164,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4176,13 +4172,13 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45749</v>
+        <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4191,22 +4187,22 @@
         <v>52</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4218,13 +4214,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4233,7 +4229,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4248,9 +4244,11 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
@@ -4265,20 +4263,20 @@
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4290,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4335,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4382,7 +4380,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4394,19 +4392,19 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45721</v>
+        <v>45692</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4453,10 +4451,10 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD18" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -4478,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4486,15 +4484,13 @@
       <c r="AT18" s="2">
         <v>1</v>
       </c>
-      <c r="AU18" s="2">
-        <v>10.449999809265137</v>
-      </c>
+      <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="2">
         <v>1</v>
@@ -4506,16 +4502,16 @@
         <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
         <v>0</v>
@@ -4551,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="BQ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR18" s="2">
         <v>0</v>
@@ -4616,25 +4612,25 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
@@ -4655,16 +4651,16 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4672,15 +4668,17 @@
         <v>1</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4690,15 +4688,17 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4707,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.460000038146973</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
@@ -4717,10 +4717,10 @@
         <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4765,10 +4765,10 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
@@ -4777,10 +4777,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
@@ -4839,16 +4839,16 @@
         <v>45747</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4895,7 +4895,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -4910,7 +4910,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
@@ -5056,19 +5056,19 @@
         <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5077,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -5098,24 +5098,28 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5136,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5145,14 +5149,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX21" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5161,10 +5165,10 @@
         <v>1</v>
       </c>
       <c r="BA21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
         <v>0</v>
@@ -5209,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="2">
         <v>1</v>
@@ -5236,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="2">
         <v>0</v>
@@ -5274,19 +5278,19 @@
         <v>39</v>
       </c>
       <c r="F22" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5295,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5316,28 +5320,24 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
@@ -5358,7 +5358,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,14 +5367,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5383,10 +5383,10 @@
         <v>1</v>
       </c>
       <c r="BA22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC22" s="2">
         <v>0</v>
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS22" s="2">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,57 +24,57 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900185</t>
   </si>
   <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900151</t>
-  </si>
-  <si>
     <t>900138</t>
   </si>
   <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900271</t>
   </si>
   <si>
     <t>900146</t>
   </si>
   <si>
-    <t>900279</t>
-  </si>
-  <si>
     <t>900101</t>
   </si>
   <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
     <t>900231</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gastonia</t>
+  </si>
+  <si>
     <t>Gaston</t>
   </si>
   <si>
-    <t>Gastonia</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -168,21 +168,21 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
+    <t>cocaine</t>
+  </si>
+  <si>
+    <t>ketamine</t>
   </si>
   <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -258,21 +258,21 @@
     <t>crystals</t>
   </si>
   <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>shards; crystals</t>
   </si>
   <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
+    <t>powder; crystals</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>weaker</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sedating</t>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1340,19 +1340,17 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1372,11 +1370,9 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1391,20 +1387,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1416,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1461,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1520,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1532,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1562,25 +1558,29 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
@@ -1752,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1962,7 +1962,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2004,29 +2004,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD7" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -2057,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -2186,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2201,22 +2197,22 @@
         <v>52</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2228,17 +2224,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2258,9 +2256,11 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2275,20 +2275,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2624,13 +2624,13 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2639,22 +2639,22 @@
         <v>51</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2666,19 +2666,17 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -2698,9 +2696,11 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
@@ -2712,23 +2712,23 @@
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2785,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2844,13 +2844,13 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -2859,22 +2859,22 @@
         <v>52</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2898,9 +2898,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>92</v>
@@ -2935,20 +2933,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.309999942779541</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -2960,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3005,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3052,7 +3050,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3064,19 +3062,19 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45749</v>
+        <v>45692</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3106,22 +3104,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3136,28 +3136,28 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>10.460000038146973</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
         <v>2</v>
@@ -3172,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -3270,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3282,31 +3282,31 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45721</v>
+        <v>45691</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3339,12 +3339,14 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
       <c r="AC13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD13" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3366,29 +3368,29 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3400,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3439,16 +3441,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3504,37 +3506,37 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3543,33 +3545,33 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD14" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
       <c r="AE14" s="2"/>
-      <c r="AF14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
@@ -3578,39 +3580,37 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3756,10 +3756,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3778,16 +3778,14 @@
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3802,17 +3800,15 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3821,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
@@ -3846,16 +3842,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3938,7 +3934,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3950,31 +3946,31 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3983,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3998,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4009,12 +4005,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4034,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4043,20 +4039,20 @@
         <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX16" s="2">
         <v>4</v>
       </c>
-      <c r="AX16" s="2">
-        <v>1</v>
-      </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4068,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4101,22 +4097,22 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR16" s="2">
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4160,7 +4156,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4172,7 +4168,7 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G17" t="s">
         <v>42</v>
@@ -4184,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4196,13 +4192,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4211,30 +4207,34 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -4254,23 +4254,23 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>4.5100002288818359</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="2">
         <v>0</v>
@@ -4288,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4321,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="BO17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4451,7 +4451,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4466,31 +4466,31 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>10.449999809265137</v>
+      </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
         <v>1</v>
@@ -4502,10 +4502,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4624,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4645,16 +4645,16 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -4668,12 +4668,10 @@
         <v>1</v>
       </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2">
@@ -4707,14 +4705,14 @@
         <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>7.2100000381469727</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
         <v>0</v>
@@ -4738,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4768,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="BP19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ19" s="2">
         <v>0</v>
@@ -4836,37 +4834,37 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4875,33 +4873,33 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4910,15 +4908,17 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
@@ -4937,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4997,10 +4997,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5115,7 +5115,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,57 +24,57 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900138</t>
+  </si>
+  <si>
     <t>900151</t>
   </si>
   <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900138</t>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>300540</t>
   </si>
   <si>
     <t>900108</t>
   </si>
   <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
     <t>900279</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
     <t>900101</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -144,15 +144,15 @@
     <t>scoop</t>
   </si>
   <si>
+    <t>swab</t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>swab</t>
-  </si>
-  <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -174,12 +174,12 @@
     <t>fentanyl</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
@@ -228,12 +228,12 @@
     <t>clear</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>shards</t>
   </si>
   <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
   </si>
   <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>weaker</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
   </si>
   <si>
     <t>sedating</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1352,7 +1352,9 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>92</v>
@@ -1370,7 +1372,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1387,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1516,7 +1518,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1558,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1568,19 +1570,15 @@
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1592,11 +1590,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1611,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
@@ -1740,7 +1736,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
@@ -1814,10 +1810,10 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1833,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.470000267028809</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1974,25 +1970,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2004,17 +2000,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -2053,20 +2051,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2078,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2123,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2182,7 +2180,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2194,25 +2192,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2224,19 +2222,17 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2256,10 +2252,10 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
@@ -2275,20 +2271,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2300,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2345,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2404,7 +2400,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2456,17 +2452,19 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2">
         <v>1</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD9" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2478,9 +2476,11 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2624,7 +2624,7 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2663,30 +2663,34 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2706,23 +2710,23 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2">
-        <v>4.5100002288818359</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="2">
         <v>0</v>
@@ -2740,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2773,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="BO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ10" s="2">
         <v>0</v>
@@ -2832,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2844,7 +2848,7 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45749</v>
+        <v>45747</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
@@ -2856,25 +2860,25 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2886,19 +2890,21 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>92</v>
@@ -2916,7 +2922,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -2933,20 +2939,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.460000038146973</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -2958,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3003,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3062,7 +3068,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -3074,19 +3080,19 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3095,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3110,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3119,9 +3125,11 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
       <c r="AC12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3146,36 +3154,38 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>8.3500003814697266</v>
+      </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -3184,10 +3194,10 @@
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3223,10 +3233,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3282,19 +3292,19 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -3312,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -3324,26 +3334,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -3368,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3377,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
@@ -3402,16 +3408,16 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="2">
         <v>0</v>
@@ -3506,7 +3512,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
@@ -3580,7 +3586,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
@@ -3594,17 +3600,17 @@
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.460000038146973</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
         <v>1</v>
@@ -3714,7 +3720,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3726,19 +3732,19 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3756,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3768,29 +3774,29 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3800,28 +3806,30 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2">
-        <v>4.309999942779541</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX15" s="2">
         <v>1</v>
@@ -3842,16 +3850,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3875,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP15" s="2">
         <v>0</v>
@@ -3946,13 +3954,13 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45721</v>
+        <v>45749</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -3988,27 +3996,25 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD16" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -4020,33 +4026,31 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="2">
         <v>1</v>
@@ -4064,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
         <v>0</v>
@@ -4103,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR16" s="2">
         <v>0</v>
@@ -4180,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4192,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4210,19 +4214,17 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2">
         <v>1</v>
@@ -4232,10 +4234,10 @@
         <v>97</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -4260,17 +4262,17 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>7.2100000381469727</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
         <v>0</v>
@@ -4321,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="BO17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
@@ -4392,13 +4394,13 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -4466,7 +4468,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
@@ -4480,17 +4482,17 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="2">
         <v>1</v>
@@ -4612,31 +4614,31 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4645,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4660,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4673,10 +4675,10 @@
       <c r="AC19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4696,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4704,30 +4706,28 @@
       <c r="AT19" s="2">
         <v>1</v>
       </c>
-      <c r="AU19" s="2">
-        <v>8.3500003814697266</v>
-      </c>
+      <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
         <v>0</v>
@@ -4736,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="2">
         <v>0</v>
@@ -4775,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4834,37 +4834,37 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4873,33 +4873,33 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" s="2"/>
+      <c r="AD20" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4918,29 +4918,29 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4991,16 +4991,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" s="2">
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5281,10 +5281,10 @@
         <v>45721</v>
       </c>
       <c r="G22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,57 +24,57 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900138</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
     <t>900121</t>
   </si>
   <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
     <t>900146</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gaston</t>
+  </si>
+  <si>
     <t>Gastonia</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -168,18 +168,18 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>cocaine</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
@@ -249,30 +249,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
+    <t>rock</t>
+  </si>
+  <si>
     <t>shards; crystals</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
     <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>weaker</t>
   </si>
   <si>
     <t>sedating</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1346,15 +1346,15 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>92</v>
@@ -1372,9 +1372,11 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>1</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1389,20 +1391,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1414,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1459,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1530,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1566,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1736,7 +1738,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G6" t="s">
         <v>42</v>
@@ -1748,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1810,10 +1812,10 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1829,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.460000038146973</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1973,22 +1975,22 @@
         <v>52</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2000,19 +2002,17 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -2051,20 +2051,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2234,7 +2234,9 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>92</v>
@@ -2252,11 +2254,9 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2624,25 +2624,25 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
@@ -2663,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2680,17 +2680,15 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2700,39 +2698,37 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2777,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="BO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ10" s="2">
         <v>0</v>
@@ -2789,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2848,19 +2844,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2878,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2890,24 +2886,26 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
       <c r="AC11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2922,15 +2920,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.309999942779541</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3068,19 +3068,19 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3125,16 +3125,14 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s">
         <v>95</v>
       </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3160,14 +3158,14 @@
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX12" s="2">
         <v>1</v>
@@ -3221,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP12" s="2">
         <v>0</v>
@@ -3280,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3292,13 +3290,13 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45747</v>
+        <v>45721</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
@@ -3307,22 +3305,22 @@
         <v>51</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3334,25 +3332,27 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AD13" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3374,29 +3374,29 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3447,16 +3447,16 @@
         <v>0</v>
       </c>
       <c r="BQ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
@@ -3524,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3571,7 +3571,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3586,31 +3586,31 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>10.449999809265137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
         <v>1</v>
@@ -3622,10 +3622,10 @@
         <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="2">
         <v>0</v>
@@ -3732,31 +3732,31 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3791,12 +3791,12 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3806,17 +3806,15 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3825,20 +3823,20 @@
         <v>1</v>
       </c>
       <c r="AU15" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3856,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3883,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="2">
         <v>0</v>
@@ -3895,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3942,7 +3940,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3954,13 +3952,13 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45749</v>
+        <v>45747</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -3969,22 +3967,22 @@
         <v>52</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -3996,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4026,9 +4024,11 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
@@ -4043,20 +4043,20 @@
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4160,7 +4160,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4184,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4196,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4214,30 +4214,32 @@
         <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2">
         <v>1</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -4262,17 +4264,17 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>5.6100001335144043</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="2">
         <v>0</v>
@@ -4323,10 +4325,10 @@
         <v>0</v>
       </c>
       <c r="BO17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
@@ -4394,37 +4396,37 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4433,33 +4435,33 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
+      <c r="AF18" s="2">
+        <v>1</v>
+      </c>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -4468,37 +4470,39 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>10.460000038146973</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4555,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4602,7 +4606,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4614,19 +4618,19 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45692</v>
+        <v>45749</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4656,24 +4660,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4688,28 +4690,28 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>10.460000038146973</v>
+      </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="2">
         <v>2</v>
@@ -4724,10 +4726,10 @@
         <v>0</v>
       </c>
       <c r="BB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
         <v>0</v>
@@ -4834,7 +4836,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45721</v>
+        <v>45747</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -4849,22 +4851,22 @@
         <v>52</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4876,27 +4878,27 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD20" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -4908,39 +4910,37 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.449999809265137</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4991,16 +4991,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="2">
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5115,7 +5115,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,57 +24,57 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900185</t>
   </si>
   <si>
+    <t>900264</t>
+  </si>
+  <si>
     <t>900151</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900165</t>
+    <t>900121</t>
   </si>
   <si>
     <t>900138</t>
   </si>
   <si>
-    <t>900121</t>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>300540</t>
   </si>
   <si>
     <t>900200</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900179</t>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900231</t>
   </si>
   <si>
     <t>900101</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -93,12 +93,12 @@
     <t>Burke</t>
   </si>
   <si>
+    <t>Gastonia</t>
+  </si>
+  <si>
     <t>Gaston</t>
   </si>
   <si>
-    <t>Gastonia</t>
-  </si>
-  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -147,12 +147,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -168,12 +168,12 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -222,12 +222,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -252,27 +252,27 @@
     <t>shards</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>crystals; powder</t>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t>rock</t>
   </si>
   <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>unusual taste</t>
+    <t>hallucinations</t>
   </si>
   <si>
     <t>weaker</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
   </si>
   <si>
     <t>sedating</t>
@@ -665,7 +665,7 @@
         <v>87</v>
       </c>
       <c r="AA1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
         <v>88</v>
@@ -1298,7 +1298,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1346,13 +1346,11 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1372,10 +1370,10 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
@@ -1391,20 +1389,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1416,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1461,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1520,7 +1518,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1535,22 +1533,22 @@
         <v>52</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1562,17 +1560,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1592,9 +1592,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>1</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1609,20 +1611,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1634,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1679,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1750,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1972,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
@@ -2032,11 +2034,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -2180,7 +2180,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G8" t="s">
         <v>42</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2232,17 +2232,19 @@
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2">
         <v>1</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD8" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -2254,9 +2256,11 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
@@ -2271,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
@@ -2400,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G9" t="s">
         <v>42</v>
@@ -2412,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2442,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2452,19 +2456,17 @@
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2">
         <v>1</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD9" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2476,11 +2478,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2624,31 +2624,31 @@
         <v>39</v>
       </c>
       <c r="F10" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -2666,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2683,12 +2683,12 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
@@ -2698,37 +2698,39 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2746,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="2">
         <v>0</v>
@@ -2785,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2844,19 +2846,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2874,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -2886,26 +2888,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2920,17 +2920,15 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2939,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
@@ -2964,16 +2962,16 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -3056,7 +3054,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -3068,31 +3066,31 @@
         <v>39</v>
       </c>
       <c r="F12" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
@@ -3101,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -3110,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3129,10 +3127,10 @@
       <c r="AC12" t="s">
         <v>95</v>
       </c>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
@@ -3152,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3160,30 +3158,28 @@
       <c r="AT12" s="2">
         <v>1</v>
       </c>
-      <c r="AU12" s="2">
-        <v>8.3500003814697266</v>
-      </c>
+      <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>0</v>
@@ -3192,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="2">
         <v>0</v>
@@ -3219,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="2">
         <v>0</v>
@@ -3231,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3278,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3290,25 +3286,25 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3329,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3346,15 +3342,17 @@
         <v>1</v>
       </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
         <v>96</v>
       </c>
-      <c r="AD13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3374,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3383,20 +3381,20 @@
         <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.449999809265137</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3408,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3441,22 +3439,22 @@
         <v>0</v>
       </c>
       <c r="BO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3500,7 +3498,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -3512,19 +3510,19 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45692</v>
+        <v>45749</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3554,24 +3552,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3586,28 +3582,28 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>10.460000038146973</v>
+      </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
         <v>2</v>
@@ -3622,10 +3618,10 @@
         <v>0</v>
       </c>
       <c r="BB14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="2">
         <v>0</v>
@@ -3732,13 +3728,13 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -3747,22 +3743,22 @@
         <v>51</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3780,13 +3776,11 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -3806,9 +3800,11 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
@@ -3820,23 +3816,23 @@
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3848,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3893,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3940,7 +3936,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3952,19 +3948,19 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -3982,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -4000,16 +3996,20 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>4.5100002288818359</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4172,25 +4172,25 @@
         <v>39</v>
       </c>
       <c r="F17" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4228,17 +4228,15 @@
         <v>1</v>
       </c>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -4248,39 +4246,37 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4325,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="BO17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ17" s="2">
         <v>0</v>
@@ -4337,10 +4333,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4396,37 +4392,37 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
         <v>0</v>
@@ -4435,33 +4431,33 @@
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD18" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
       <c r="AE18" s="2"/>
-      <c r="AF18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
@@ -4470,39 +4466,37 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4559,10 +4553,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4606,7 +4600,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4618,37 +4612,37 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4657,31 +4651,33 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -4690,15 +4686,17 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4707,20 +4705,20 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.460000038146973</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4777,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4836,7 +4834,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45747</v>
+        <v>45721</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -4851,22 +4849,22 @@
         <v>52</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4878,27 +4876,27 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD20" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -4910,37 +4908,39 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>4.309999942779541</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4991,16 +4991,16 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR20" s="2">
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -5115,7 +5115,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,57 +24,57 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900264</t>
+  </si>
+  <si>
     <t>900165</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
     <t>900185</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900151</t>
-  </si>
-  <si>
     <t>900121</t>
   </si>
   <si>
     <t>900138</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
     <t>900146</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900279</t>
   </si>
   <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -168,21 +168,21 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
+    <t>ketamine</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -222,12 +222,12 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -258,21 +258,21 @@
     <t>crystals</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
     <t>shards; crystals</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t>tar</t>
   </si>
   <si>
@@ -297,22 +297,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
+    <t>weaker</t>
   </si>
   <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>weaker</t>
   </si>
   <si>
     <t>sedating</t>
@@ -1313,22 +1313,22 @@
         <v>51</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1346,11 +1346,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
@@ -1389,20 +1391,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1414,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1459,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1518,7 +1520,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G5" t="s">
         <v>42</v>
@@ -1533,22 +1535,22 @@
         <v>52</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1566,13 +1568,11 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1592,10 +1592,10 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AO5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
@@ -1611,20 +1611,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1636,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1755,22 +1755,22 @@
         <v>52</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1782,19 +1782,17 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -1814,11 +1812,9 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1833,20 +1829,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1858,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1903,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -1962,7 +1958,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1977,22 +1973,22 @@
         <v>51</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2004,17 +2000,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -2034,9 +2032,11 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2051,20 +2051,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2076,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2654,42 +2654,42 @@
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
         <v>94</v>
       </c>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
@@ -2714,14 +2714,14 @@
         <v>1</v>
       </c>
       <c r="AT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>8.3500003814697266</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
         <v>1</v>
@@ -2748,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="BO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP10" s="2">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -2846,19 +2846,19 @@
         <v>39</v>
       </c>
       <c r="F11" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2885,32 +2885,34 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2">
         <v>1</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2920,31 +2922,33 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.309999942779541</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="2">
         <v>0</v>
@@ -2962,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -2995,10 +2999,10 @@
         <v>0</v>
       </c>
       <c r="BO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
@@ -3078,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3108,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3125,7 +3129,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3274,7 +3278,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
@@ -3286,25 +3290,25 @@
         <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
@@ -3325,16 +3329,16 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3342,17 +3346,15 @@
         <v>1</v>
       </c>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
@@ -3362,17 +3364,15 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="AU13" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
@@ -3391,10 +3391,10 @@
         <v>2</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="BO13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="2">
         <v>0</v>
@@ -3451,10 +3451,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3510,31 +3510,31 @@
         <v>39</v>
       </c>
       <c r="F14" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3543,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3552,27 +3552,29 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2">
+        <v>1</v>
+      </c>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3582,37 +3584,39 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3630,10 +3634,10 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3657,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP14" s="2">
         <v>0</v>
@@ -3669,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3728,13 +3732,13 @@
         <v>39</v>
       </c>
       <c r="F15" s="1">
-        <v>45747</v>
+        <v>45721</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
@@ -3743,22 +3747,22 @@
         <v>51</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3776,19 +3780,21 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AD15" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3810,29 +3816,29 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3883,16 +3889,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR15" s="2">
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3936,7 +3942,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -3948,31 +3954,31 @@
         <v>39</v>
       </c>
       <c r="F16" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -3981,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -3990,13 +3996,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4005,11 +4011,9 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -4024,17 +4028,15 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
@@ -4053,10 +4055,10 @@
         <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4074,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4113,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4160,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -4175,10 +4177,10 @@
         <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4187,22 +4189,22 @@
         <v>52</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4220,13 +4222,11 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4246,9 +4246,11 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
@@ -4263,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>10.449999809265137</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
@@ -4273,10 +4275,10 @@
         <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4288,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4333,10 +4335,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4380,7 +4382,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
@@ -4392,31 +4394,31 @@
         <v>39</v>
       </c>
       <c r="F18" s="1">
-        <v>45748</v>
+        <v>45691</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4425,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4434,13 +4436,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4449,9 +4451,11 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4466,37 +4470,39 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4514,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4553,10 +4559,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4600,7 +4606,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4612,19 +4618,19 @@
         <v>39</v>
       </c>
       <c r="F19" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4651,16 +4657,16 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4671,13 +4677,13 @@
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -4686,17 +4692,15 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4705,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
@@ -4730,10 +4734,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4834,19 +4838,19 @@
         <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>45721</v>
+        <v>45749</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4876,27 +4880,25 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AD20" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
@@ -4908,33 +4910,31 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="2">
         <v>1</v>
@@ -4952,10 +4952,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="BQ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="2">
         <v>0</v>
@@ -5068,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -5115,7 +5115,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="420" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="548" uniqueCount="192">
   <si>
     <t>sampleid</t>
   </si>
@@ -24,63 +24,87 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900154</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
     <t>900264</t>
   </si>
   <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900246</t>
+  </si>
+  <si>
     <t>900165</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900185</t>
+    <t>900138</t>
   </si>
   <si>
     <t>900121</t>
   </si>
   <si>
-    <t>900138</t>
+    <t>900174</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900279</t>
   </si>
   <si>
     <t>900231</t>
   </si>
   <si>
+    <t>900108</t>
+  </si>
+  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900271</t>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900101</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900279</t>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900135</t>
+  </si>
+  <si>
+    <t>900198</t>
+  </si>
+  <si>
+    <t>900286</t>
   </si>
   <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -90,6 +114,9 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke County</t>
+  </si>
+  <si>
     <t>Burke</t>
   </si>
   <si>
@@ -99,6 +126,9 @@
     <t>Gaston</t>
   </si>
   <si>
+    <t>McDowell</t>
+  </si>
+  <si>
     <t>Charlotte</t>
   </si>
   <si>
@@ -108,12 +138,12 @@
     <t>Fulton County</t>
   </si>
   <si>
-    <t>Burke County</t>
-  </si>
-  <si>
     <t>Gaston County</t>
   </si>
   <si>
+    <t>McDowell County</t>
+  </si>
+  <si>
     <t>Mecklenburg County</t>
   </si>
   <si>
@@ -147,12 +177,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -168,22 +198,25 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>cocaine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl; xylazine</t>
+    <t>fentanyl; methamphetamine</t>
   </si>
   <si>
     <t>expect_opioid</t>
@@ -222,16 +255,25 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white; light blue</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
+    <t>white; off-white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
+    <t>purple</t>
   </si>
   <si>
     <t>pink; light purple</t>
@@ -252,10 +294,25 @@
     <t>shards</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>rock</t>
   </si>
   <si>
     <t>powder; crystals</t>
@@ -264,13 +321,7 @@
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>rock</t>
+    <t>oil/wax</t>
   </si>
   <si>
     <t>tar</t>
@@ -285,9 +336,6 @@
     <t>sensations</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>stronger</t>
   </si>
   <si>
@@ -297,24 +345,24 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>hallucinations</t>
   </si>
   <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>normal; sedating</t>
+    <t>weaker</t>
   </si>
   <si>
     <t>unusual taste</t>
   </si>
   <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>sedating</t>
   </si>
   <si>
@@ -492,6 +540,9 @@
     <t>NC | GASTON</t>
   </si>
   <si>
+    <t>NC | MCDOWELL</t>
+  </si>
+  <si>
     <t>NC | MECKLENBURG</t>
   </si>
   <si>
@@ -516,6 +567,9 @@
     <t>071</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>119</t>
   </si>
   <si>
@@ -529,6 +583,9 @@
   </si>
   <si>
     <t>37071</t>
+  </si>
+  <si>
+    <t>37111</t>
   </si>
   <si>
     <t>37119</t>
@@ -579,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF22"/>
+  <dimension ref="A1:CF30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -590,253 +647,253 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="T1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="U1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="V1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="W1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="X1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Y1" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Z1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AB1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="AC1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="AD1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="AE1" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="AF1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="AG1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="AH1" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="AI1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="AJ1" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="AK1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="AL1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="AM1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AN1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="AO1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="AP1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="AQ1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="AR1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="AS1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="AT1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="AU1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="AV1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="AW1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="AX1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="AY1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="AZ1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="BA1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="BB1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="BC1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="BD1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="BE1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="BF1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="BG1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="BH1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="BI1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="BJ1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="BK1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="BL1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="BM1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="BN1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="BO1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="BP1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="BQ1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="BR1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="BS1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="BT1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="BU1" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="BV1" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="BW1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="BX1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="BY1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="BZ1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="CA1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="CB1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="CC1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="CD1" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="CE1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="CF1" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2">
@@ -844,31 +901,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1">
         <v>45751</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -898,13 +955,13 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2">
@@ -915,7 +972,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -928,7 +985,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1047,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="CC2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="CD2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="CE2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="CF2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -1064,31 +1121,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1">
         <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1118,13 +1175,13 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="U3" s="2">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1135,7 +1192,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1150,7 +1207,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1269,16 +1326,16 @@
         <v>0</v>
       </c>
       <c r="CC3" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="CD3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="CE3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="CF3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -1286,81 +1343,79 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1">
-        <v>45748</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>69</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" t="s">
-        <v>77</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1372,17 +1427,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1391,14 +1444,14 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.470000267028809</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
@@ -1491,16 +1544,16 @@
         <v>0</v>
       </c>
       <c r="CC4" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="CD4" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE4" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CF4" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -1508,49 +1561,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1562,22 +1615,24 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1592,10 +1647,10 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
@@ -1611,20 +1666,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1636,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1681,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1711,16 +1766,16 @@
         <v>0</v>
       </c>
       <c r="CC5" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="CD5" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE5" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CF5" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6">
@@ -1728,31 +1783,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F6" s="1">
         <v>45748</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1782,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1797,7 +1852,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1812,7 +1867,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1929,16 +1984,16 @@
         <v>0</v>
       </c>
       <c r="CC6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="CD6" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CF6" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7">
@@ -1946,31 +2001,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2000,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2017,7 +2072,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2032,10 +2087,10 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
@@ -2051,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.460000038146973</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
@@ -2151,16 +2206,16 @@
         <v>0</v>
       </c>
       <c r="CC7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="CD7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CF7" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8">
@@ -2168,49 +2223,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2222,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2236,15 +2291,13 @@
         <v>1</v>
       </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AD8" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
@@ -2256,17 +2309,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2275,20 +2328,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2300,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2345,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2375,16 +2428,16 @@
         <v>0</v>
       </c>
       <c r="CC8" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="CD8" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE8" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CF8" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -2392,49 +2445,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F9" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2446,24 +2499,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2478,15 +2529,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2495,20 +2548,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2520,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2565,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2595,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="CC9" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="CD9" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE9" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="CF9" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
@@ -2612,31 +2665,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2663,33 +2716,31 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="U10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD10" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
@@ -2698,7 +2749,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO10" s="2">
         <v>0</v>
@@ -2708,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2717,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
@@ -2742,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2817,16 +2868,16 @@
         <v>0</v>
       </c>
       <c r="CC10" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CD10" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE10" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="CF10" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11">
@@ -2834,31 +2885,31 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2870,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2885,34 +2936,32 @@
         <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2">
         <v>1</v>
       </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
@@ -2922,33 +2971,31 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>7.2100000381469727</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
         <v>0</v>
@@ -2966,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -2999,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="BO11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ11" s="2">
         <v>0</v>
@@ -3041,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="CC11" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CD11" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE11" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="CF11" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12">
@@ -3058,49 +3105,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>45692</v>
+        <v>45750</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3112,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3126,13 +3173,15 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3144,7 +3193,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -3154,42 +3203,44 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>4.5199999809265137</v>
+      </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3231,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3261,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="CC12" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CD12" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE12" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="CF12" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13">
@@ -3278,49 +3329,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3332,24 +3383,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -3364,37 +3415,39 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
       </c>
       <c r="AT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.460000038146973</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3406,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3451,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3481,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="CC13" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CD13" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE13" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="CF13" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14">
@@ -3498,43 +3551,43 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1">
-        <v>45689</v>
+        <v>45776</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -3543,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -3552,13 +3605,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3569,12 +3622,12 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
@@ -3584,39 +3637,39 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="AO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
       </c>
       <c r="AT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3634,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="BF14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH14" s="2">
         <v>0</v>
@@ -3661,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="BO14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP14" s="2">
         <v>0</v>
@@ -3673,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3703,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="CC14" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="CD14" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="CF14" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15">
@@ -3720,43 +3773,43 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45721</v>
+        <v>45691</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -3765,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3774,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3789,12 +3842,14 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="AB15" s="2">
+        <v>1</v>
+      </c>
       <c r="AC15" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="AD15" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3806,7 +3861,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO15" s="2">
         <v>0</v>
@@ -3816,29 +3871,29 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3850,16 +3905,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -3889,16 +3944,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR15" s="2">
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3925,16 +3980,16 @@
         <v>0</v>
       </c>
       <c r="CC15" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="CD15" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE15" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="CF15" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -3942,31 +3997,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -3996,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4013,7 +4068,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -4028,7 +4083,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
@@ -4042,17 +4097,17 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="2">
         <v>1</v>
@@ -4145,16 +4200,16 @@
         <v>0</v>
       </c>
       <c r="CC16" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="CD16" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE16" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="CF16" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
@@ -4162,49 +4217,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4216,22 +4271,24 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4246,7 +4303,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -4256,44 +4313,42 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="2">
-        <v>4.5100002288818359</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4335,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4365,16 +4420,16 @@
         <v>0</v>
       </c>
       <c r="CC17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="CD17" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE17" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="CF17" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
@@ -4382,31 +4437,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4424,10 +4479,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4436,26 +4491,24 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4470,17 +4523,15 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4489,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
@@ -4514,16 +4565,16 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4589,16 +4640,16 @@
         <v>0</v>
       </c>
       <c r="CC18" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="CD18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="CF18" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
@@ -4606,49 +4657,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4660,24 +4711,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4692,7 +4741,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4709,20 +4758,20 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>4.309999942779541</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4734,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4779,10 +4828,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4809,16 +4858,16 @@
         <v>0</v>
       </c>
       <c r="CC19" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="CD19" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="CF19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -4826,49 +4875,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4877,31 +4926,33 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4910,15 +4961,17 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4927,20 +4980,20 @@
         <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.460000038146973</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -4997,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5027,16 +5080,16 @@
         <v>0</v>
       </c>
       <c r="CC20" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="CD20" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE20" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="CF20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -5044,49 +5097,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45693</v>
+        <v>45747</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5098,24 +5151,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5130,7 +5181,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO21" s="2">
         <v>0</v>
@@ -5140,29 +5191,29 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.479999542236328</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -5174,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -5219,10 +5270,10 @@
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU21" s="2">
         <v>0</v>
@@ -5249,16 +5300,16 @@
         <v>0</v>
       </c>
       <c r="CC21" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="CD21" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="CE21" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="CF21" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
@@ -5266,40 +5317,40 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -5317,28 +5368,34 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="U22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -5348,7 +5405,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="AO22" s="2">
         <v>0</v>
@@ -5358,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5367,116 +5424,1880 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>12.539999961853027</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX22" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45747</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>91</v>
+      </c>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>45761</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>10.449999809265137</v>
+      </c>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45721</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" t="s">
+        <v>81</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>91</v>
+      </c>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>45762</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>10.449999809265137</v>
+      </c>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45689</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>81</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>101</v>
+      </c>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>45721</v>
+      </c>
+      <c r="AS25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="2">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX25" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO25" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ25" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45777</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>96</v>
+      </c>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>45797</v>
+      </c>
+      <c r="AS26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="2">
+        <v>10.470000267028809</v>
+      </c>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2">
+        <v>5</v>
+      </c>
+      <c r="AX26" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT26" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB26" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>45797</v>
+      </c>
+      <c r="AS27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="2">
+        <v>10.430000305175781</v>
+      </c>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2">
         <v>10</v>
       </c>
-      <c r="AX22" s="2">
+      <c r="AX27" s="2">
         <v>5</v>
       </c>
-      <c r="AY22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ22" s="2">
-        <v>1</v>
-      </c>
-      <c r="CA22" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB22" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="s">
-        <v>159</v>
-      </c>
-      <c r="CD22" t="s">
-        <v>162</v>
-      </c>
-      <c r="CE22" t="s">
-        <v>167</v>
-      </c>
-      <c r="CF22" t="s">
-        <v>172</v>
+      <c r="AY27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY27" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB27" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>86</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>102</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>45797</v>
+      </c>
+      <c r="AS28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>10.439999580383301</v>
+      </c>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB28" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC28" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD28" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE28" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45721</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <v>0</v>
+      </c>
+      <c r="T29" t="s">
+        <v>87</v>
+      </c>
+      <c r="U29" s="2">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>99</v>
+      </c>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>45762</v>
+      </c>
+      <c r="AS29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>12.539999961853027</v>
+      </c>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC29" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD29" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE29" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45693</v>
+      </c>
+      <c r="G30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>81</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>91</v>
+      </c>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>45723</v>
+      </c>
+      <c r="AS30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>10.479999542236328</v>
+      </c>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>176</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>185</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,75 +24,75 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900246</t>
+  </si>
+  <si>
+    <t>900174</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
     <t>900154</t>
   </si>
   <si>
     <t>900185</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900246</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900174</t>
-  </si>
-  <si>
-    <t>900227</t>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900200</t>
   </si>
   <si>
     <t>300540</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
     <t>900271</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900231</t>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900101</t>
   </si>
   <si>
     <t>900108</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
     <t>900135</t>
   </si>
   <si>
@@ -114,18 +114,18 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke</t>
+  </si>
+  <si>
     <t>Burke County</t>
   </si>
   <si>
-    <t>Burke</t>
+    <t>Gaston</t>
   </si>
   <si>
     <t>Gastonia</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -198,15 +198,15 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>cocaine</t>
   </si>
   <si>
@@ -255,18 +255,18 @@
     <t>orange</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white; light blue</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>white; off-white</t>
   </si>
   <si>
@@ -294,33 +294,33 @@
     <t>shards</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
     <t>rock</t>
   </si>
   <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -345,22 +345,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
   </si>
   <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
     <t>unpleasant</t>
   </si>
   <si>
     <t>weaker</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
   </si>
   <si>
     <t>sedating</t>
@@ -972,7 +972,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1346,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1370,22 +1370,22 @@
         <v>61</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>80</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1412,10 +1412,10 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1427,15 +1427,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1444,20 +1446,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1469,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1514,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1561,10 +1563,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1585,25 +1587,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1621,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1629,13 +1631,15 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1647,10 +1651,10 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
@@ -1666,20 +1670,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1691,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1736,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1783,10 +1787,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1807,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -2001,10 +2005,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -2226,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -2235,7 +2239,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -2247,25 +2251,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2283,15 +2287,15 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>108</v>
@@ -2309,17 +2313,15 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2328,20 +2330,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2353,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2398,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2445,10 +2447,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2499,17 +2501,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2548,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.420000076293945</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2668,7 +2672,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2677,7 +2681,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -2689,25 +2693,25 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2719,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2749,17 +2753,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2768,20 +2772,20 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2793,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2838,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2888,7 +2892,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -2897,7 +2901,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2909,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2971,15 +2975,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2988,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
@@ -3108,7 +3114,7 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3117,37 +3123,37 @@
         <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3165,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3173,15 +3179,13 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD12" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3193,17 +3197,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3212,20 +3216,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3237,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3282,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3329,10 +3333,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3341,7 +3345,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="1">
-        <v>45776</v>
+        <v>45778</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -3356,22 +3360,22 @@
         <v>63</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3383,27 +3387,25 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3415,11 +3417,9 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -3434,20 +3434,20 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>4.3299999237060547</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3563,13 +3563,13 @@
         <v>49</v>
       </c>
       <c r="F14" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3656,14 +3656,14 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.430000305175781</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
         <v>1</v>
@@ -3785,19 +3785,19 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -3815,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3837,16 +3837,14 @@
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3861,17 +3859,15 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3880,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
@@ -3905,16 +3901,16 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH15" s="2">
         <v>0</v>
@@ -4009,31 +4005,31 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -4042,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -4057,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4068,12 +4064,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4083,15 +4079,17 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4100,20 +4098,20 @@
         <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4131,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4158,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
@@ -4170,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4229,7 +4227,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G17" t="s">
         <v>53</v>
@@ -4288,7 +4286,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4303,31 +4301,31 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>10.449999809265137</v>
+      </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
         <v>1</v>
@@ -4339,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
         <v>0</v>
@@ -4449,19 +4447,19 @@
         <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4479,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4491,24 +4489,26 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
+      <c r="Y18" s="2">
+        <v>1</v>
+      </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4523,15 +4523,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4540,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>4.309999942779541</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
@@ -4565,16 +4567,16 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4657,7 +4659,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -4669,37 +4671,37 @@
         <v>49</v>
       </c>
       <c r="F19" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4708,31 +4710,33 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -4741,15 +4745,17 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4758,20 +4764,20 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.460000038146973</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4828,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4875,7 +4881,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -4887,37 +4893,37 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4926,33 +4932,31 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD20" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4961,17 +4965,15 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4980,20 +4982,20 @@
         <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -5050,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5097,7 +5099,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -5109,37 +5111,37 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5151,22 +5153,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5191,44 +5195,42 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="2">
-        <v>4.5100002288818359</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -5270,10 +5272,10 @@
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU21" s="2">
         <v>0</v>
@@ -5329,25 +5331,25 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -5368,16 +5370,16 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5385,17 +5387,15 @@
         <v>1</v>
       </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -5405,17 +5405,15 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5424,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
@@ -5434,10 +5432,10 @@
         <v>2</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5482,10 +5480,10 @@
         <v>0</v>
       </c>
       <c r="BO22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ22" s="2">
         <v>0</v>
@@ -5494,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU22" s="2">
         <v>0</v>
@@ -5553,25 +5551,25 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5592,16 +5590,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5609,15 +5607,17 @@
         <v>1</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -5627,37 +5627,39 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>10.449999809265137</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -5702,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23" s="2">
         <v>0</v>
@@ -5714,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -5761,7 +5763,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -5773,13 +5775,13 @@
         <v>49</v>
       </c>
       <c r="F24" s="1">
-        <v>45721</v>
+        <v>45777</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
@@ -5821,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5832,10 +5834,10 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AD24" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
@@ -5847,17 +5849,15 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45762</v>
+        <v>45797</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5866,14 +5866,14 @@
         <v>1</v>
       </c>
       <c r="AU24" s="2">
-        <v>10.449999809265137</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX24" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="2">
         <v>1</v>
@@ -5891,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
         <v>0</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="BQ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR24" s="2">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -5995,31 +5995,31 @@
         <v>49</v>
       </c>
       <c r="F25" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -6043,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6056,10 +6056,10 @@
       <c r="AC25" t="s">
         <v>115</v>
       </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -6088,20 +6088,20 @@
         <v>1</v>
       </c>
       <c r="AU25" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX25" s="2">
         <v>4</v>
       </c>
-      <c r="AX25" s="2">
-        <v>1</v>
-      </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6113,16 +6113,16 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -6146,22 +6146,22 @@
         <v>0</v>
       </c>
       <c r="BO25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP25" s="2">
         <v>0</v>
       </c>
       <c r="BQ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR25" s="2">
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -6217,7 +6217,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -6229,25 +6229,25 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -6259,19 +6259,17 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -6279,7 +6277,7 @@
         <v>108</v>
       </c>
       <c r="AD26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6291,37 +6289,39 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6333,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="BS26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU26" s="2">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7154,7 +7154,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AD30" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,87 +24,87 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900246</t>
+  </si>
+  <si>
     <t>900165</t>
   </si>
   <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900246</t>
+    <t>900154</t>
   </si>
   <si>
     <t>900174</t>
   </si>
   <si>
-    <t>900227</t>
-  </si>
-  <si>
-    <t>900154</t>
-  </si>
-  <si>
-    <t>900185</t>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>300540</t>
   </si>
   <si>
     <t>900146</t>
   </si>
   <si>
-    <t>900179</t>
+    <t>900279</t>
   </si>
   <si>
     <t>900200</t>
   </si>
   <si>
-    <t>300540</t>
+    <t>900108</t>
   </si>
   <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
     <t>900101</t>
   </si>
   <si>
-    <t>900108</t>
+    <t>900198</t>
   </si>
   <si>
     <t>900135</t>
   </si>
   <si>
-    <t>900198</t>
+    <t>900150</t>
   </si>
   <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -120,12 +120,12 @@
     <t>Burke County</t>
   </si>
   <si>
+    <t>Gastonia</t>
+  </si>
+  <si>
     <t>Gaston</t>
   </si>
   <si>
-    <t>Gastonia</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -177,12 +177,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -207,15 +207,15 @@
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>fentanyl; methamphetamine</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>white; light blue</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -294,33 +294,33 @@
     <t>shards</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
     <t>shards; crystals</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -345,6 +345,12 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
@@ -352,12 +358,6 @@
   </si>
   <si>
     <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>weaker</t>
@@ -722,7 +722,7 @@
         <v>104</v>
       </c>
       <c r="AA1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB1" t="s">
         <v>105</v>
@@ -972,7 +972,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1427,11 +1427,9 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
@@ -1446,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1587,25 +1585,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1617,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
@@ -1631,15 +1629,13 @@
         <v>1</v>
       </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD5" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1651,10 +1647,10 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
@@ -1670,20 +1666,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1695,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1740,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1811,25 +1807,25 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1841,17 +1837,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -1871,9 +1869,11 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1888,20 +1888,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -2029,25 +2029,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2059,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>108</v>
@@ -2091,11 +2091,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2110,20 +2108,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2135,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2180,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2227,7 +2225,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -2239,7 +2237,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -2251,25 +2249,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2293,9 +2291,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>108</v>
@@ -2313,15 +2309,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2330,20 +2328,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2355,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2400,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2447,7 +2445,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -2459,7 +2457,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -2471,25 +2469,25 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2501,19 +2499,17 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2533,17 +2529,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2552,20 +2548,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2577,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2622,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2723,17 +2719,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -2772,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.420000076293945</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
@@ -2904,34 +2902,34 @@
         <v>45776</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2943,21 +2941,21 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>108</v>
@@ -2975,10 +2973,10 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
@@ -2994,20 +2992,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.3299999237060547</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3019,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3064,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3111,7 +3109,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -3123,37 +3121,37 @@
         <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3165,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3179,13 +3177,15 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3197,17 +3197,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3216,20 +3216,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3417,7 +3417,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
@@ -3551,7 +3551,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -3563,7 +3563,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -3575,25 +3575,25 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3605,21 +3605,21 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>108</v>
@@ -3637,17 +3637,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3656,20 +3656,20 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.460000038146973</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G15" t="s">
         <v>53</v>
@@ -3797,25 +3797,25 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3827,24 +3827,24 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3859,52 +3859,52 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>4.309999942779541</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3993,7 +3993,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -4005,7 +4005,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45689</v>
+        <v>45777</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -4017,19 +4017,19 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4064,12 +4064,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4079,17 +4079,15 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4098,20 +4096,20 @@
         <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4129,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4156,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
@@ -4168,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4215,7 +4213,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -4227,13 +4225,13 @@
         <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
@@ -4269,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4301,7 +4299,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4315,17 +4313,17 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="2">
         <v>1</v>
@@ -4435,7 +4433,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -4447,13 +4445,13 @@
         <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -4471,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4480,22 +4478,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4503,17 +4501,17 @@
         <v>1</v>
       </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>111</v>
       </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4539,17 +4537,17 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>8.3500003814697266</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="2">
         <v>0</v>
@@ -4573,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4600,10 +4598,10 @@
         <v>0</v>
       </c>
       <c r="BO18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ18" s="2">
         <v>0</v>
@@ -4659,7 +4657,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -4701,42 +4699,42 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>112</v>
       </c>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -4761,14 +4759,14 @@
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>5.6100001335144043</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX19" s="2">
         <v>1</v>
@@ -4795,10 +4793,10 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4822,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP19" s="2">
         <v>0</v>
@@ -4881,7 +4879,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -4893,7 +4891,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45749</v>
+        <v>45691</v>
       </c>
       <c r="G20" t="s">
         <v>55</v>
@@ -4905,19 +4903,19 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4926,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4935,22 +4933,26 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
       <c r="AC20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -4965,15 +4967,17 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4982,20 +4986,20 @@
         <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -5013,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -5052,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5111,7 +5115,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -5123,25 +5127,25 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5153,24 +5157,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5185,52 +5189,52 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>4.309999942779541</v>
+      </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -5272,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU21" s="2">
         <v>0</v>
@@ -5331,13 +5335,13 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>45748</v>
+        <v>45749</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5373,19 +5377,17 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -5405,7 +5407,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -5419,14 +5421,14 @@
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2">
         <v>10.460000038146973</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="2">
         <v>2</v>
@@ -5551,25 +5553,25 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5590,16 +5592,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5607,17 +5609,15 @@
         <v>1</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -5627,39 +5627,37 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -5704,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="2">
         <v>0</v>
@@ -5716,10 +5714,10 @@
         <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -5763,7 +5761,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -5775,7 +5773,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="1">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="G24" t="s">
         <v>52</v>
@@ -5787,25 +5785,25 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5817,19 +5815,17 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -5837,7 +5833,7 @@
         <v>108</v>
       </c>
       <c r="AD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
@@ -5849,37 +5845,39 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
@@ -5891,10 +5889,10 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
         <v>0</v>
@@ -5936,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU24" s="2">
         <v>0</v>
@@ -5983,7 +5981,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -5995,37 +5993,37 @@
         <v>49</v>
       </c>
       <c r="F25" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -6034,33 +6032,33 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>-1</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
+      <c r="AF25" s="2">
+        <v>1</v>
+      </c>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -6079,29 +6077,29 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6113,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -6152,16 +6150,16 @@
         <v>0</v>
       </c>
       <c r="BQ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR25" s="2">
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6205,7 +6203,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -6217,37 +6215,37 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45747</v>
+        <v>45721</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -6265,19 +6263,21 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AD26" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6299,29 +6299,29 @@
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6372,16 +6372,16 @@
         <v>0</v>
       </c>
       <c r="BQ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR26" s="2">
         <v>0</v>
       </c>
       <c r="BS26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU26" s="2">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6461,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -6479,15 +6479,17 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -6509,9 +6511,11 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>1</v>
+      </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
@@ -6526,11 +6530,11 @@
         <v>1</v>
       </c>
       <c r="AU27" s="2">
-        <v>10.430000305175781</v>
+        <v>10.439999580383301</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX27" s="2">
         <v>5</v>
@@ -6545,10 +6549,10 @@
         <v>0</v>
       </c>
       <c r="BB27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="2">
         <v>1</v>
@@ -6560,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -6590,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR27" s="2">
         <v>0</v>
@@ -6667,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6679,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -6697,17 +6701,15 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="U28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
-      </c>
-      <c r="W28" s="2">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -6729,11 +6731,9 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
@@ -6748,11 +6748,11 @@
         <v>1</v>
       </c>
       <c r="AU28" s="2">
-        <v>10.439999580383301</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX28" s="2">
         <v>5</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD28" s="2">
         <v>1</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="BQ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR28" s="2">
         <v>0</v>
@@ -6877,19 +6877,19 @@
         <v>49</v>
       </c>
       <c r="F29" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -6919,24 +6919,28 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD29" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -6957,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -6966,14 +6970,14 @@
         <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY29" s="2">
         <v>1</v>
@@ -6982,10 +6986,10 @@
         <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -7030,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS29" s="2">
         <v>1</v>
@@ -7057,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="BZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29" s="2">
         <v>0</v>
@@ -7095,19 +7099,19 @@
         <v>49</v>
       </c>
       <c r="F30" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -7116,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -7137,28 +7141,24 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="U30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -7188,14 +7188,14 @@
         <v>1</v>
       </c>
       <c r="AU30" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY30" s="2">
         <v>1</v>
@@ -7204,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="BA30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30" s="2">
         <v>0</v>
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="BQ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS30" s="2">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="BZ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,87 +24,87 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900174</t>
+  </si>
+  <si>
+    <t>900154</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
     <t>900151</t>
   </si>
   <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900246</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
     <t>900185</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900246</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900227</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900154</t>
-  </si>
-  <si>
-    <t>900174</t>
+    <t>900245</t>
   </si>
   <si>
     <t>900235</t>
   </si>
   <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
     <t>900263</t>
   </si>
   <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
     <t>900271</t>
   </si>
   <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
     <t>900198</t>
   </si>
   <si>
     <t>900135</t>
   </si>
   <si>
+    <t>900286</t>
+  </si>
+  <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke County</t>
+  </si>
+  <si>
     <t>Burke</t>
   </si>
   <si>
-    <t>Burke County</t>
-  </si>
-  <si>
     <t>Gastonia</t>
   </si>
   <si>
@@ -201,12 +201,12 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -258,15 +258,15 @@
     <t>white</t>
   </si>
   <si>
+    <t>white; light blue</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white; light blue</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -291,36 +291,36 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>shards</t>
   </si>
   <si>
-    <t>crystals</t>
+    <t>crystals; powder</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -345,19 +345,19 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
   </si>
   <si>
-    <t>unpleasant</t>
-  </si>
-  <si>
     <t>unusual taste</t>
   </si>
   <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
   </si>
   <si>
     <t>weaker</t>
@@ -722,7 +722,7 @@
         <v>104</v>
       </c>
       <c r="AA1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB1" t="s">
         <v>105</v>
@@ -972,7 +972,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1346,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="U4" s="2">
         <v>0</v>
@@ -1409,7 +1409,9 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>108</v>
@@ -1427,15 +1429,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1444,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1564,7 +1568,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1573,7 +1577,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="1">
-        <v>45750</v>
+        <v>45778</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
@@ -1594,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
         <v>0</v>
@@ -1615,27 +1619,25 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1647,17 +1649,15 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1666,14 +1666,14 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.460000038146973</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY5" s="2">
         <v>1</v>
@@ -1783,10 +1783,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1807,25 +1807,25 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1843,15 +1843,15 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>108</v>
@@ -1869,11 +1869,9 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1888,20 +1886,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1913,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1958,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -2005,10 +2003,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -2029,25 +2027,25 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2065,15 +2063,15 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
         <v>108</v>
@@ -2091,9 +2089,11 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2108,20 +2108,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -2240,16 +2240,16 @@
         <v>45776</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2279,17 +2279,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -2328,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.420000076293945</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
@@ -2445,10 +2447,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2499,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2529,11 +2531,9 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2665,10 +2665,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2890,7 +2890,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -2899,37 +2899,37 @@
         <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2955,13 +2955,15 @@
         <v>1</v>
       </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD11" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2973,17 +2975,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2992,20 +2994,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3017,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3062,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3112,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3121,7 +3123,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -3133,25 +3135,25 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3163,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
@@ -3173,19 +3175,15 @@
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD12" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3197,17 +3195,17 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3216,20 +3214,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3241,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3286,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3336,7 +3334,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3345,7 +3343,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="1">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -3357,25 +3355,25 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3390,10 +3388,10 @@
         <v>83</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3402,10 +3400,10 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3417,15 +3415,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3434,20 +3434,20 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3563,7 +3563,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -3575,25 +3575,25 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3611,15 +3611,15 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>108</v>
@@ -3637,17 +3637,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3656,20 +3656,20 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>4.3299999237060547</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3841,15 +3841,17 @@
         <v>1</v>
       </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
         <v>110</v>
       </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2">
+        <v>1</v>
+      </c>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3869,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3877,7 +3879,9 @@
       <c r="AT15" s="2">
         <v>1</v>
       </c>
-      <c r="AU15" s="2"/>
+      <c r="AU15" s="2">
+        <v>7.2100000381469727</v>
+      </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
         <v>3</v>
@@ -3886,19 +3890,19 @@
         <v>2</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -3934,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="BO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ15" s="2">
         <v>0</v>
@@ -3946,10 +3950,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -4005,19 +4009,19 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45777</v>
+        <v>45692</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -4053,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4064,10 +4068,10 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -4079,15 +4083,17 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO16" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4095,12 +4101,10 @@
       <c r="AT16" s="2">
         <v>1</v>
       </c>
-      <c r="AU16" s="2">
-        <v>10.470000267028809</v>
-      </c>
+      <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
         <v>2</v>
@@ -4115,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -4213,7 +4217,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -4225,37 +4229,37 @@
         <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4267,19 +4271,17 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4299,9 +4301,11 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
@@ -4313,23 +4317,23 @@
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4341,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4386,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4457,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -4469,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4478,22 +4482,22 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
       <c r="S18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4501,12 +4505,10 @@
         <v>1</v>
       </c>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2">
@@ -4540,14 +4542,14 @@
         <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>7.2100000381469727</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
         <v>0</v>
@@ -4571,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4601,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="BP18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ18" s="2">
         <v>0</v>
@@ -4669,31 +4671,31 @@
         <v>49</v>
       </c>
       <c r="F19" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4702,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4711,29 +4713,27 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
@@ -4743,39 +4743,37 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4793,10 +4791,10 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4820,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="BO19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP19" s="2">
         <v>0</v>
@@ -4832,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4879,7 +4877,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -4891,31 +4889,31 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4924,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4939,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4948,11 +4946,9 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -4967,17 +4963,15 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4986,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
@@ -4996,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -5017,10 +5011,10 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -5056,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5103,7 +5097,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -5115,19 +5109,19 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -5154,16 +5148,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s">
+        <v>78</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
         <v>31</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>100</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5174,13 +5168,13 @@
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="2"/>
+      <c r="AF21" s="2">
+        <v>1</v>
+      </c>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
@@ -5189,15 +5183,17 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5206,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="2">
-        <v>4.309999942779541</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
@@ -5231,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -5323,7 +5319,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -5335,37 +5331,37 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>45749</v>
+        <v>45747</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5377,19 +5373,21 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
         <v>108</v>
@@ -5424,20 +5422,20 @@
         <v>0</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.460000038146973</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5449,10 +5447,10 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
         <v>0</v>
@@ -5494,10 +5492,10 @@
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU22" s="2">
         <v>0</v>
@@ -5541,7 +5539,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -5553,19 +5551,19 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5601,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5615,7 +5613,7 @@
         <v>108</v>
       </c>
       <c r="AD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -5635,23 +5633,23 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>10.449999809265137</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY23" s="2">
         <v>1</v>
@@ -5773,19 +5771,19 @@
         <v>49</v>
       </c>
       <c r="F24" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -5803,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -5815,22 +5813,26 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
       <c r="AC24" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -5855,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5864,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="2">
-        <v>4.5100002288818359</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
@@ -5889,16 +5891,16 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -5993,37 +5995,37 @@
         <v>49</v>
       </c>
       <c r="F25" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -6032,33 +6034,33 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD25" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -6077,29 +6079,29 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6111,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -6150,16 +6152,16 @@
         <v>0</v>
       </c>
       <c r="BQ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR25" s="2">
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6203,7 +6205,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -6215,19 +6217,19 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45721</v>
+        <v>45748</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -6274,10 +6276,10 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AD26" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6289,17 +6291,15 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6308,14 +6308,14 @@
         <v>1</v>
       </c>
       <c r="AU26" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY26" s="2">
         <v>1</v>
@@ -6333,10 +6333,10 @@
         <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="BQ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR26" s="2">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6877,13 +6877,13 @@
         <v>49</v>
       </c>
       <c r="F29" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -6919,28 +6919,24 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -6961,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -6970,14 +6966,14 @@
         <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY29" s="2">
         <v>1</v>
@@ -6986,10 +6982,10 @@
         <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -7034,10 +7030,10 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS29" s="2">
         <v>1</v>
@@ -7061,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="BZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA29" s="2">
         <v>0</v>
@@ -7099,13 +7095,13 @@
         <v>49</v>
       </c>
       <c r="F30" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -7120,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -7141,24 +7137,28 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="U30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD30" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -7188,14 +7188,14 @@
         <v>1</v>
       </c>
       <c r="AU30" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX30" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY30" s="2">
         <v>1</v>
@@ -7204,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="BA30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="2">
         <v>0</v>
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="BQ30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS30" s="2">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="BZ30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA30" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,87 +24,87 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
     <t>900174</t>
   </si>
   <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900246</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
     <t>900154</t>
   </si>
   <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900227</t>
-  </si>
-  <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900246</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900185</t>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900108</t>
   </si>
   <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900200</t>
+    <t>900146</t>
   </si>
   <si>
     <t>900231</t>
   </si>
   <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
     <t>300540</t>
   </si>
   <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900271</t>
+    <t>900135</t>
   </si>
   <si>
     <t>900198</t>
   </si>
   <si>
-    <t>900135</t>
+    <t>900150</t>
   </si>
   <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke</t>
+  </si>
+  <si>
     <t>Burke County</t>
   </si>
   <si>
-    <t>Burke</t>
-  </si>
-  <si>
     <t>Gastonia</t>
   </si>
   <si>
@@ -201,18 +201,18 @@
     <t>methamphetamine</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>fentanyl</t>
+    <t>cocaine</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>orange</t>
   </si>
   <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white; light blue</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>clear</t>
+    <t>white; off-white</t>
   </si>
   <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -291,30 +291,30 @@
     <t>powder</t>
   </si>
   <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>shards; crystals</t>
   </si>
   <si>
@@ -345,22 +345,22 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
     <t>hallucinations</t>
   </si>
   <si>
     <t>normal</t>
-  </si>
-  <si>
-    <t>weaker</t>
   </si>
   <si>
     <t>sedating</t>
@@ -722,7 +722,7 @@
         <v>104</v>
       </c>
       <c r="AA1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AB1" t="s">
         <v>105</v>
@@ -1346,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1409,9 +1409,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>108</v>
@@ -1439,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1448,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.3299999237060547</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
@@ -1568,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1577,7 +1575,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="1">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
@@ -1589,25 +1587,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1622,22 +1620,24 @@
         <v>81</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1666,20 +1666,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
@@ -1849,9 +1849,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>108</v>
@@ -1886,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -2006,7 +2004,7 @@
         <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -2015,19 +2013,19 @@
         <v>49</v>
       </c>
       <c r="F7" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2057,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2089,17 +2087,17 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2108,14 +2106,14 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.470000267028809</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY7" s="2">
         <v>1</v>
@@ -2225,10 +2223,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -2240,34 +2238,34 @@
         <v>45776</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2279,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2289,11 +2287,11 @@
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
         <v>108</v>
@@ -2311,10 +2309,10 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
@@ -2330,20 +2328,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.430000305175781</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2355,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2400,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2447,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2471,25 +2469,25 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2501,17 +2499,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2531,9 +2531,11 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
@@ -2548,20 +2550,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2573,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2668,7 +2670,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2677,7 +2679,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -2689,25 +2691,25 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2719,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2733,13 +2735,15 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD10" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2751,17 +2755,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2770,20 +2774,20 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2795,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2840,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2890,7 +2894,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -2899,7 +2903,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2911,25 +2915,25 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2941,29 +2945,25 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD11" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2975,17 +2975,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2994,20 +2994,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3019,10 +3019,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3064,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3123,7 +3123,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -3135,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3165,17 +3165,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3214,14 +3216,14 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.420000076293945</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="2">
         <v>1</v>
@@ -3334,7 +3336,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3343,7 +3345,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -3355,25 +3357,25 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3385,17 +3387,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -3415,17 +3419,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3434,20 +3438,20 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3459,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3504,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3554,7 +3558,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3563,7 +3567,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="1">
-        <v>45750</v>
+        <v>45778</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -3584,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -3605,27 +3609,25 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -3637,17 +3639,15 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO14" s="2">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3656,14 +3656,14 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.460000038146973</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY14" s="2">
         <v>1</v>
@@ -3785,25 +3785,25 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3841,17 +3841,15 @@
         <v>1</v>
       </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
         <v>110</v>
       </c>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
@@ -3871,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3880,20 +3878,20 @@
         <v>1</v>
       </c>
       <c r="AU15" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3905,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3938,22 +3936,22 @@
         <v>0</v>
       </c>
       <c r="BO15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR15" s="2">
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -4009,31 +4007,31 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -4042,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -4051,13 +4049,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4070,10 +4068,10 @@
       <c r="AC16" t="s">
         <v>111</v>
       </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4093,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4101,28 +4099,30 @@
       <c r="AT16" s="2">
         <v>1</v>
       </c>
-      <c r="AU16" s="2"/>
+      <c r="AU16" s="2">
+        <v>8.3500003814697266</v>
+      </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
       </c>
       <c r="BB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="2">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
@@ -4170,10 +4170,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4229,7 +4229,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="G17" t="s">
         <v>52</v>
@@ -4241,25 +4241,25 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
@@ -4281,7 +4281,9 @@
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4289,7 +4291,7 @@
         <v>108</v>
       </c>
       <c r="AD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -4301,39 +4303,37 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4345,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4390,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4437,7 +4437,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -4449,31 +4449,31 @@
         <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4491,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4508,12 +4508,12 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4523,39 +4523,37 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4573,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4600,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="2">
         <v>0</v>
@@ -4612,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4683,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="2">
         <v>1</v>
@@ -4713,13 +4711,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4889,19 +4887,19 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -4931,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4977,17 +4975,17 @@
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="2">
         <v>1</v>
@@ -5109,37 +5107,37 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5148,33 +5146,33 @@
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="U21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
-      <c r="AF21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
@@ -5193,38 +5191,36 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="2">
-        <v>5.6100001335144043</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="2">
         <v>0</v>
@@ -5272,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU21" s="2">
         <v>0</v>
@@ -5319,7 +5315,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -5334,10 +5330,10 @@
         <v>45747</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5373,21 +5369,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
         <v>108</v>
@@ -5405,9 +5399,11 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
@@ -5422,7 +5418,7 @@
         <v>0</v>
       </c>
       <c r="AU22" s="2">
-        <v>4.309999942779541</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
@@ -5551,7 +5547,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>45777</v>
+        <v>45689</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -5563,13 +5559,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5590,16 +5586,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5607,15 +5603,17 @@
         <v>1</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -5625,15 +5623,17 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45797</v>
+        <v>45721</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5642,20 +5642,20 @@
         <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>10.470000267028809</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="2">
         <v>2</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -5700,10 +5700,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23" s="2">
         <v>0</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -5771,19 +5771,19 @@
         <v>49</v>
       </c>
       <c r="F24" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -5801,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -5813,26 +5813,24 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -5847,17 +5845,15 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
@@ -5866,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="AU24" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
@@ -5891,16 +5887,16 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -5995,37 +5991,37 @@
         <v>49</v>
       </c>
       <c r="F25" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -6034,33 +6030,33 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>-1</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
+      <c r="AF25" s="2">
+        <v>1</v>
+      </c>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -6079,29 +6075,29 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6113,10 +6109,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -6152,16 +6148,16 @@
         <v>0</v>
       </c>
       <c r="BQ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR25" s="2">
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6205,7 +6201,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -6217,31 +6213,31 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45748</v>
+        <v>45691</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -6250,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -6259,13 +6255,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6274,9 +6270,11 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
+      <c r="AB26" s="2">
+        <v>1</v>
+      </c>
       <c r="AC26" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -6291,37 +6289,39 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6339,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26" s="2">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="BS26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU26" s="2">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6461,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -6479,17 +6479,15 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="U27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>102</v>
-      </c>
-      <c r="W27" s="2">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -6511,11 +6509,9 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
@@ -6530,11 +6526,11 @@
         <v>1</v>
       </c>
       <c r="AU27" s="2">
-        <v>10.439999580383301</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX27" s="2">
         <v>5</v>
@@ -6549,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="BB27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD27" s="2">
         <v>1</v>
@@ -6564,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -6594,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR27" s="2">
         <v>0</v>
@@ -6671,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6683,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -6701,15 +6697,17 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -6731,9 +6729,11 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO28" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>1</v>
+      </c>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
@@ -6748,11 +6748,11 @@
         <v>1</v>
       </c>
       <c r="AU28" s="2">
-        <v>10.430000305175781</v>
+        <v>10.439999580383301</v>
       </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX28" s="2">
         <v>5</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28" s="2">
         <v>1</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="BQ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR28" s="2">
         <v>0</v>
@@ -6877,13 +6877,13 @@
         <v>49</v>
       </c>
       <c r="F29" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -6919,24 +6919,28 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD29" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -6957,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -6966,14 +6970,14 @@
         <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY29" s="2">
         <v>1</v>
@@ -6982,10 +6986,10 @@
         <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -7030,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS29" s="2">
         <v>1</v>
@@ -7057,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="BZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29" s="2">
         <v>0</v>
@@ -7095,13 +7099,13 @@
         <v>49</v>
       </c>
       <c r="F30" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -7116,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -7137,28 +7141,24 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="U30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -7188,14 +7188,14 @@
         <v>1</v>
       </c>
       <c r="AU30" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY30" s="2">
         <v>1</v>
@@ -7204,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="BA30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30" s="2">
         <v>0</v>
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="BQ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS30" s="2">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="BZ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,13 +24,31 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900246</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
     <t>900165</t>
   </si>
   <si>
+    <t>900154</t>
+  </si>
+  <si>
     <t>900138</t>
   </si>
   <si>
-    <t>900151</t>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900121</t>
   </si>
   <si>
     <t>900227</t>
@@ -39,72 +57,54 @@
     <t>900174</t>
   </si>
   <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900246</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900154</t>
+    <t>900271</t>
   </si>
   <si>
     <t>900101</t>
   </si>
   <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
     <t>900263</t>
   </si>
   <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>300540</t>
+    <t>900198</t>
   </si>
   <si>
     <t>900135</t>
   </si>
   <si>
-    <t>900198</t>
+    <t>900286</t>
   </si>
   <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -114,18 +114,18 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke County</t>
+  </si>
+  <si>
     <t>Burke</t>
   </si>
   <si>
-    <t>Burke County</t>
+    <t>Gaston</t>
   </si>
   <si>
     <t>Gastonia</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -198,24 +198,24 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>fentanyl; methamphetamine</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>orange</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
+    <t>white; light blue</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>white; light blue</t>
+    <t>white; gray</t>
   </si>
   <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -291,36 +291,36 @@
     <t>powder</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>shards</t>
   </si>
   <si>
     <t>crystals</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -348,19 +348,19 @@
     <t>weaker</t>
   </si>
   <si>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
-    <t>normal; sedating</t>
+    <t>hallucinations</t>
   </si>
   <si>
     <t>unpleasant</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>normal</t>
   </si>
   <si>
     <t>sedating</t>
@@ -722,7 +722,7 @@
         <v>104</v>
       </c>
       <c r="AA1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB1" t="s">
         <v>105</v>
@@ -972,7 +972,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1346,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1370,22 +1370,22 @@
         <v>61</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1427,17 +1427,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1446,20 +1446,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1563,10 +1563,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1629,9 +1629,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>108</v>
@@ -1666,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.5</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
@@ -1783,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1807,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1837,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1867,9 +1865,11 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -2001,10 +2001,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -2013,19 +2013,19 @@
         <v>49</v>
       </c>
       <c r="F7" s="1">
-        <v>45776</v>
+        <v>45778</v>
       </c>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2055,27 +2055,25 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -2087,11 +2085,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2226,7 +2222,7 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -2235,7 +2231,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -2247,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2277,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2309,17 +2305,15 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2328,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.3299999237060547</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
@@ -2445,10 +2439,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2469,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2499,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2670,7 +2664,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2679,7 +2673,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -2694,22 +2688,22 @@
         <v>61</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2721,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2735,15 +2729,13 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD10" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2755,17 +2747,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2774,20 +2766,20 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2799,10 +2791,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2844,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2894,7 +2886,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -2903,7 +2895,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2915,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" s="2">
         <v>1</v>
@@ -2945,17 +2937,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -2985,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2994,14 +2988,14 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.420000076293945</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="2">
         <v>1</v>
@@ -3111,10 +3105,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3138,22 +3132,22 @@
         <v>62</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3165,13 +3159,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3179,13 +3173,15 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3197,10 +3193,10 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
@@ -3216,20 +3212,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3241,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3286,10 +3282,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3333,10 +3329,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3348,16 +3344,16 @@
         <v>45776</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3387,13 +3383,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3555,10 +3551,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3567,7 +3563,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="1">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="G14" t="s">
         <v>52</v>
@@ -3579,25 +3575,25 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3612,22 +3608,24 @@
         <v>83</v>
       </c>
       <c r="U14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
@@ -3639,9 +3637,11 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
@@ -3656,20 +3656,20 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.430000305175781</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45721</v>
+        <v>45748</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3844,10 +3844,10 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AD15" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3859,17 +3859,15 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3878,14 +3876,14 @@
         <v>1</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
@@ -3903,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3942,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="BQ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR15" s="2">
         <v>0</v>
@@ -3995,7 +3993,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -4007,31 +4005,31 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -4040,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -4049,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4066,12 +4064,12 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4091,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4100,20 +4098,20 @@
         <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX16" s="2">
         <v>4</v>
       </c>
-      <c r="AX16" s="2">
-        <v>1</v>
-      </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4125,16 +4123,16 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4158,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR16" s="2">
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4217,7 +4215,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -4229,19 +4227,19 @@
         <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45777</v>
+        <v>45692</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4271,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4288,10 +4286,10 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -4303,15 +4301,17 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4319,12 +4319,10 @@
       <c r="AT17" s="2">
         <v>1</v>
       </c>
-      <c r="AU17" s="2">
-        <v>10.470000267028809</v>
-      </c>
+      <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
         <v>2</v>
@@ -4339,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="2">
         <v>0</v>
@@ -4449,31 +4447,31 @@
         <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4482,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4491,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4506,9 +4504,11 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4523,15 +4523,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4540,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
@@ -4550,10 +4552,10 @@
         <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4571,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4610,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4669,13 +4671,13 @@
         <v>49</v>
       </c>
       <c r="F19" s="1">
-        <v>45749</v>
+        <v>45747</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -4684,22 +4686,22 @@
         <v>62</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4711,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -4723,7 +4725,9 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>108</v>
@@ -4758,20 +4762,20 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.460000038146973</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4783,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4828,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4887,31 +4891,31 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4920,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4929,13 +4933,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4946,12 +4950,12 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4961,15 +4965,17 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4978,20 +4984,20 @@
         <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -5009,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -5036,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20" s="2">
         <v>0</v>
@@ -5048,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5095,7 +5101,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>41</v>
@@ -5107,13 +5113,13 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45692</v>
+        <v>45747</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -5122,22 +5128,22 @@
         <v>62</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5155,18 +5161,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5191,42 +5195,44 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45723</v>
+        <v>45761</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>4.5100002288818359</v>
+      </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
       </c>
       <c r="BB21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -5268,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU21" s="2">
         <v>0</v>
@@ -5330,10 +5336,10 @@
         <v>45747</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5342,22 +5348,22 @@
         <v>61</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
       </c>
       <c r="P22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -5369,17 +5375,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -5399,11 +5407,9 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
@@ -5418,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="AU22" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
@@ -5428,10 +5434,10 @@
         <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5443,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
         <v>0</v>
@@ -5488,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU22" s="2">
         <v>0</v>
@@ -5535,7 +5541,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -5571,13 +5577,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5589,32 +5595,30 @@
         <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="U23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2">
         <v>1</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2">
+        <v>1</v>
+      </c>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -5639,17 +5643,17 @@
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2">
-        <v>7.2100000381469727</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="2">
         <v>0</v>
@@ -5700,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="2">
         <v>0</v>
@@ -5771,19 +5775,19 @@
         <v>49</v>
       </c>
       <c r="F24" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K24" s="2">
         <v>0</v>
@@ -5795,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5810,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
@@ -5823,19 +5827,21 @@
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2">
         <v>1</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -5845,31 +5851,33 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2">
-        <v>4.309999942779541</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="2">
         <v>0</v>
@@ -5887,10 +5895,10 @@
         <v>0</v>
       </c>
       <c r="BD24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF24" s="2">
         <v>0</v>
@@ -5920,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="BO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ24" s="2">
         <v>0</v>
@@ -5979,7 +5987,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -5991,37 +5999,37 @@
         <v>49</v>
       </c>
       <c r="F25" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -6030,33 +6038,31 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="U25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD25" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>0</v>
+      </c>
       <c r="AE25" s="2"/>
-      <c r="AF25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
@@ -6065,17 +6071,15 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -6084,20 +6088,20 @@
         <v>0</v>
       </c>
       <c r="AU25" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6154,10 +6158,10 @@
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6201,7 +6205,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -6213,31 +6217,31 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45691</v>
+        <v>45777</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
@@ -6246,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -6255,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6270,14 +6274,12 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AB26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="AD26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -6289,39 +6291,37 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6339,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH26" s="2">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="BS26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU26" s="2">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6461,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -6479,15 +6479,17 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1</v>
+      </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -6509,9 +6511,11 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>1</v>
+      </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
@@ -6526,11 +6530,11 @@
         <v>1</v>
       </c>
       <c r="AU27" s="2">
-        <v>10.430000305175781</v>
+        <v>10.439999580383301</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX27" s="2">
         <v>5</v>
@@ -6545,10 +6549,10 @@
         <v>0</v>
       </c>
       <c r="BB27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="2">
         <v>1</v>
@@ -6560,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -6590,7 +6594,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR27" s="2">
         <v>0</v>
@@ -6667,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6679,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -6697,17 +6701,15 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="U28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
-      </c>
-      <c r="W28" s="2">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -6729,11 +6731,9 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
@@ -6748,11 +6748,11 @@
         <v>1</v>
       </c>
       <c r="AU28" s="2">
-        <v>10.439999580383301</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX28" s="2">
         <v>5</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD28" s="2">
         <v>1</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="BQ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR28" s="2">
         <v>0</v>
@@ -6877,19 +6877,19 @@
         <v>49</v>
       </c>
       <c r="F29" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -6919,28 +6919,24 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -6961,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -6970,14 +6966,14 @@
         <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY29" s="2">
         <v>1</v>
@@ -6986,10 +6982,10 @@
         <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -7034,10 +7030,10 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS29" s="2">
         <v>1</v>
@@ -7061,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="BZ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA29" s="2">
         <v>0</v>
@@ -7099,19 +7095,19 @@
         <v>49</v>
       </c>
       <c r="F30" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -7120,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -7141,24 +7137,28 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD30" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -7188,14 +7188,14 @@
         <v>1</v>
       </c>
       <c r="AU30" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX30" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY30" s="2">
         <v>1</v>
@@ -7204,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="BA30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="2">
         <v>0</v>
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="BQ30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS30" s="2">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="BZ30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA30" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,75 +24,75 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900154</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900174</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
     <t>900246</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900154</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
     <t>900227</t>
   </si>
   <si>
-    <t>900174</t>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900101</t>
   </si>
   <si>
     <t>900271</t>
   </si>
   <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900146</t>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900279</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
     <t>900198</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke</t>
+  </si>
+  <si>
     <t>Burke County</t>
   </si>
   <si>
-    <t>Burke</t>
-  </si>
-  <si>
     <t>Gaston</t>
   </si>
   <si>
@@ -177,12 +177,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>spatula</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>spatula</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -198,12 +198,12 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>white; light blue</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>white; light blue</t>
-  </si>
-  <si>
-    <t>white</t>
+    <t>white; off-white</t>
   </si>
   <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -291,18 +291,18 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
     <t>powder; chunky</t>
   </si>
   <si>
@@ -312,15 +312,15 @@
     <t>shards; crystals</t>
   </si>
   <si>
+    <t>rock</t>
+  </si>
+  <si>
     <t>powder; flaky</t>
   </si>
   <si>
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -339,25 +339,25 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical; weaker</t>
+  </si>
+  <si>
     <t>typical</t>
   </si>
   <si>
-    <t>typical; weaker</t>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>normal; sedating</t>
   </si>
   <si>
     <t>weaker</t>
   </si>
   <si>
-    <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>unusual taste</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
   </si>
   <si>
     <t>unpleasant</t>
@@ -972,7 +972,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1346,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1370,22 +1370,22 @@
         <v>61</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1407,15 +1407,19 @@
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
         <v>108</v>
       </c>
       <c r="AD4" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1427,17 +1431,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1446,20 +1450,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.420000076293945</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1471,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1516,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1563,10 +1567,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1587,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1617,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
@@ -1632,7 +1636,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1647,9 +1651,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
@@ -1784,7 +1790,7 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1793,7 +1799,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -1808,22 +1814,22 @@
         <v>62</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1835,22 +1841,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1865,17 +1873,17 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1884,20 +1892,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1909,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1954,10 +1962,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -2004,7 +2012,7 @@
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -2013,7 +2021,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="1">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="G7" t="s">
         <v>52</v>
@@ -2025,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K7" s="2">
         <v>1</v>
@@ -2034,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2055,25 +2063,27 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
@@ -2085,15 +2095,17 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2102,14 +2114,14 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.430000305175781</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX7" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY7" s="2">
         <v>1</v>
@@ -2219,10 +2231,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -2243,7 +2255,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
@@ -2273,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
@@ -2290,7 +2302,7 @@
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2305,7 +2317,7 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -2442,7 +2454,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2451,7 +2463,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -2463,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2472,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2493,27 +2505,25 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2525,17 +2535,15 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2544,14 +2552,14 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.470000267028809</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY9" s="2">
         <v>1</v>
@@ -2664,7 +2672,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2673,7 +2681,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -2688,22 +2696,22 @@
         <v>61</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2715,24 +2723,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2747,17 +2753,15 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2766,20 +2770,20 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2791,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2836,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2886,7 +2890,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -2895,7 +2899,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2910,22 +2914,22 @@
         <v>61</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2937,24 +2941,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2969,17 +2973,17 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2988,20 +2992,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.460000038146973</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3013,10 +3017,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3058,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3105,10 +3109,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3132,22 +3136,22 @@
         <v>62</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3159,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3173,15 +3177,13 @@
         <v>1</v>
       </c>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
         <v>109</v>
       </c>
       <c r="AD12" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3193,10 +3195,10 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
@@ -3212,20 +3214,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3237,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3282,10 +3284,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3344,16 +3346,16 @@
         <v>45776</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3389,18 +3391,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -3434,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.430000305175781</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
@@ -3551,10 +3551,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3566,10 +3566,10 @@
         <v>45776</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -3578,22 +3578,22 @@
         <v>62</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3605,24 +3605,24 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3637,10 +3637,10 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
@@ -3656,20 +3656,20 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>4.3299999237060547</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX14" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2">
         <v>1</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
@@ -3844,7 +3844,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3859,7 +3859,7 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
@@ -3873,17 +3873,17 @@
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.460000038146973</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
@@ -4005,31 +4005,31 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45721</v>
+        <v>45691</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4062,12 +4062,14 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
         <v>110</v>
       </c>
       <c r="AD16" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
@@ -4089,29 +4091,29 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4123,16 +4125,16 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4162,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR16" s="2">
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4227,37 +4229,37 @@
         <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4266,33 +4268,33 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
+      <c r="AA17" s="2">
+        <v>1</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
         <v>111</v>
       </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
+      <c r="AF17" s="2">
+        <v>1</v>
+      </c>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -4311,36 +4313,38 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU17" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>5.6100001335144043</v>
+      </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
       </c>
       <c r="BB17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="2">
         <v>0</v>
@@ -4388,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4447,31 +4451,31 @@
         <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4480,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4489,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4504,9 +4508,7 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>112</v>
       </c>
@@ -4533,38 +4535,36 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="2">
-        <v>8.3500003814697266</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
         <v>0</v>
@@ -4573,10 +4573,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4659,7 +4659,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -4671,13 +4671,13 @@
         <v>49</v>
       </c>
       <c r="F19" s="1">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -4686,22 +4686,22 @@
         <v>62</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4713,27 +4713,27 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
@@ -4745,7 +4745,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
@@ -4753,29 +4753,29 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="2">
-        <v>4.309999942779541</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4787,10 +4787,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4832,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -4891,19 +4891,19 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4921,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4933,29 +4933,29 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4965,30 +4965,28 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -5009,16 +5007,16 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -5042,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="2">
         <v>0</v>
@@ -5113,13 +5111,13 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45747</v>
+        <v>45721</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
@@ -5128,22 +5126,22 @@
         <v>62</v>
       </c>
       <c r="K21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5155,25 +5153,27 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AD21" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -5195,29 +5195,29 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -5268,16 +5268,16 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR21" s="2">
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU21" s="2">
         <v>0</v>
@@ -5333,19 +5333,19 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5392,7 +5392,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD22" s="2">
         <v>0</v>
@@ -5407,7 +5407,7 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -5421,17 +5421,17 @@
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -5565,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -5592,33 +5592,31 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="U23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
@@ -5637,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5646,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AU23" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
@@ -5671,10 +5669,10 @@
         <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -5775,25 +5773,25 @@
         <v>49</v>
       </c>
       <c r="F24" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -5814,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="s">
         <v>84</v>
@@ -5823,25 +5821,21 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -5851,39 +5845,37 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX24" s="2">
         <v>2</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
@@ -5928,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="BO24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ24" s="2">
         <v>0</v>
@@ -5940,10 +5932,10 @@
         <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU24" s="2">
         <v>0</v>
@@ -5999,31 +5991,31 @@
         <v>49</v>
       </c>
       <c r="F25" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -6032,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -6041,27 +6033,29 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2">
+        <v>1</v>
+      </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -6071,37 +6065,39 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU25" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6119,10 +6115,10 @@
         <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -6146,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="BO25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP25" s="2">
         <v>0</v>
@@ -6158,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6217,7 +6213,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45777</v>
+        <v>45689</v>
       </c>
       <c r="G26" t="s">
         <v>52</v>
@@ -6229,13 +6225,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6256,16 +6252,16 @@
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6273,15 +6269,17 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
@@ -6291,15 +6289,17 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45797</v>
+        <v>45721</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
@@ -6308,20 +6308,20 @@
         <v>1</v>
       </c>
       <c r="AU26" s="2">
-        <v>10.470000267028809</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
         <v>2</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="BO26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ26" s="2">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="BS26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU26" s="2">
         <v>0</v>
@@ -6496,7 +6496,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD27" s="2">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6716,7 +6716,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD28" s="2">
         <v>0</v>
@@ -6731,7 +6731,7 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
@@ -6925,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -7107,7 +7107,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U30" s="2">
         <v>0</v>
@@ -7154,7 +7154,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD30" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,87 +24,87 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900154</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900174</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900154</t>
+    <t>900246</t>
   </si>
   <si>
     <t>900151</t>
   </si>
   <si>
-    <t>900174</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900246</t>
-  </si>
-  <si>
     <t>900227</t>
   </si>
   <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
     <t>900200</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
     <t>900198</t>
   </si>
   <si>
     <t>900135</t>
   </si>
   <si>
+    <t>900150</t>
+  </si>
+  <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -114,18 +114,18 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke County</t>
+  </si>
+  <si>
     <t>Burke</t>
   </si>
   <si>
-    <t>Burke County</t>
+    <t>Gastonia</t>
   </si>
   <si>
     <t>Gaston</t>
   </si>
   <si>
-    <t>Gastonia</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -198,21 +198,21 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl; xylazine</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
     <t>fentanyl</t>
   </si>
   <si>
-    <t>fentanyl; xylazine</t>
+    <t>methamphetamine; MDMA</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -255,15 +255,15 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white; light blue</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
     <t>clear</t>
   </si>
   <si>
-    <t>white; light blue</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
@@ -291,33 +291,33 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
+  </si>
+  <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
     <t>powder; crystals</t>
   </si>
   <si>
@@ -339,25 +339,25 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical</t>
+  </si>
+  <si>
     <t>typical; weaker</t>
   </si>
   <si>
-    <t>typical</t>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
     <t>normal; sedating</t>
   </si>
   <si>
     <t>weaker</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
   </si>
   <si>
     <t>unpleasant</t>
@@ -722,7 +722,7 @@
         <v>104</v>
       </c>
       <c r="AA1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AB1" t="s">
         <v>105</v>
@@ -1346,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>45750</v>
+        <v>45778</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1370,22 +1370,22 @@
         <v>61</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1400,26 +1400,22 @@
         <v>80</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD4" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1431,17 +1427,15 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1450,20 +1444,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1475,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1520,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1567,10 +1561,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1591,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1627,16 +1621,18 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1651,11 +1647,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1787,10 +1781,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1814,22 +1808,22 @@
         <v>62</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1841,24 +1835,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1873,10 +1867,10 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
@@ -1892,20 +1886,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.430000305175781</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1917,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1962,10 +1956,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -2009,10 +2003,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -2036,22 +2030,22 @@
         <v>62</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2063,24 +2057,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2114,20 +2106,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2139,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2184,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2234,7 +2226,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -2243,7 +2235,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G8" t="s">
         <v>52</v>
@@ -2255,25 +2247,25 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2285,24 +2277,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2317,15 +2309,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO8" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>1</v>
+      </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2334,20 +2328,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2359,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2404,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2454,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2463,7 +2457,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1">
-        <v>45778</v>
+        <v>45750</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -2484,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
         <v>0</v>
@@ -2505,25 +2499,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -2535,15 +2531,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO9" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>1</v>
+      </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2552,14 +2550,14 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.430000305175781</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="2">
         <v>1</v>
@@ -2669,10 +2667,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2693,25 +2691,25 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2723,22 +2721,24 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2753,9 +2753,11 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
@@ -2770,20 +2772,20 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>4.5</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2795,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2890,7 +2892,7 @@
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -2899,7 +2901,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -2911,7 +2913,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -2941,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
@@ -2951,7 +2953,9 @@
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2">
         <v>1</v>
@@ -2961,7 +2965,7 @@
         <v>109</v>
       </c>
       <c r="AD11" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2983,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
@@ -2992,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.3299999237060547</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
@@ -3112,7 +3116,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3121,7 +3125,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G12" t="s">
         <v>52</v>
@@ -3133,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3163,24 +3167,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3214,14 +3216,14 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.460000038146973</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY12" s="2">
         <v>1</v>
@@ -3334,7 +3336,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3343,7 +3345,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -3358,22 +3360,22 @@
         <v>62</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3385,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3400,7 +3402,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -3415,17 +3417,15 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3434,20 +3434,20 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.420000076293945</v>
+        <v>4.5</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3459,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3622,7 +3622,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3785,37 +3785,37 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3824,33 +3824,33 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
+      <c r="AF15" s="2">
+        <v>1</v>
+      </c>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
@@ -3859,15 +3859,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3876,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.449999809265137</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
@@ -3886,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3993,7 +3995,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -4005,19 +4007,19 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4047,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -4062,16 +4064,14 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2">
+        <v>1</v>
+      </c>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4097,14 +4097,14 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
@@ -4229,19 +4229,19 @@
         <v>49</v>
       </c>
       <c r="F17" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4268,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4288,13 +4288,13 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD17" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
       <c r="AE17" s="2"/>
-      <c r="AF17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
@@ -4303,17 +4303,15 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
@@ -4322,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
@@ -4347,10 +4345,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4439,7 +4437,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -4451,31 +4449,31 @@
         <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4484,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4493,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4508,7 +4506,9 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
       <c r="AC18" t="s">
         <v>112</v>
       </c>
@@ -4535,36 +4535,38 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>8.3500003814697266</v>
+      </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
         <v>0</v>
@@ -4573,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4612,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4659,7 +4661,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -4671,7 +4673,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="1">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="G19" t="s">
         <v>52</v>
@@ -4686,22 +4688,22 @@
         <v>62</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4713,27 +4715,25 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
@@ -4745,37 +4745,39 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO19" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4787,10 +4789,10 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF19" s="2">
         <v>0</v>
@@ -4832,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4891,7 +4893,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -4903,25 +4905,25 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4933,24 +4935,24 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD20" s="2">
         <v>0</v>
@@ -4965,52 +4967,52 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO20" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2">
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="2">
-        <v>4.309999942779541</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -5052,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5111,19 +5113,19 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45721</v>
+        <v>45748</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5153,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -5170,10 +5172,10 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AD21" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
@@ -5185,17 +5187,15 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5204,14 +5204,14 @@
         <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5229,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="BQ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR21" s="2">
         <v>0</v>
@@ -5333,19 +5333,19 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>45748</v>
+        <v>45721</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K22" s="2">
         <v>1</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
@@ -5392,10 +5392,10 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AD22" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
@@ -5407,15 +5407,17 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45761</v>
+        <v>45762</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5424,14 +5426,14 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.460000038146973</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX22" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY22" s="2">
         <v>1</v>
@@ -5449,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF22" s="2">
         <v>0</v>
@@ -5488,7 +5490,7 @@
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR22" s="2">
         <v>0</v>
@@ -5541,7 +5543,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -5553,7 +5555,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -5565,25 +5567,25 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5601,19 +5603,21 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2">
+        <v>1</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -5625,39 +5629,37 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -5669,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -5714,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -5761,7 +5763,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -5785,7 +5787,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -5821,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5830,7 +5832,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -5979,7 +5981,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>41</v>
@@ -6003,7 +6005,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K25" s="2">
         <v>0</v>
@@ -6015,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -6024,22 +6026,22 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6047,10 +6049,12 @@
         <v>1</v>
       </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="2">
+        <v>1</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2">
@@ -6084,14 +6088,14 @@
         <v>1</v>
       </c>
       <c r="AU25" s="2">
-        <v>8.3500003814697266</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY25" s="2">
         <v>0</v>
@@ -6115,10 +6119,10 @@
         <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -6145,7 +6149,7 @@
         <v>1</v>
       </c>
       <c r="BP25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ25" s="2">
         <v>0</v>
@@ -6213,25 +6217,25 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -6252,16 +6256,16 @@
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6269,17 +6273,15 @@
         <v>1</v>
       </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2">
-        <v>1</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
@@ -6289,39 +6291,37 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="BO26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ26" s="2">
         <v>0</v>
@@ -6378,10 +6378,10 @@
         <v>0</v>
       </c>
       <c r="BS26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU26" s="2">
         <v>0</v>
@@ -6496,7 +6496,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD27" s="2">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6716,7 +6716,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD28" s="2">
         <v>0</v>
@@ -6877,13 +6877,13 @@
         <v>49</v>
       </c>
       <c r="F29" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -6919,24 +6919,28 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD29" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -6957,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -6966,14 +6970,14 @@
         <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX29" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY29" s="2">
         <v>1</v>
@@ -6982,10 +6986,10 @@
         <v>1</v>
       </c>
       <c r="BA29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="2">
         <v>0</v>
@@ -7030,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS29" s="2">
         <v>1</v>
@@ -7057,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="BZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA29" s="2">
         <v>0</v>
@@ -7095,19 +7099,19 @@
         <v>49</v>
       </c>
       <c r="F30" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -7116,7 +7120,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -7137,28 +7141,24 @@
         <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="U30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD30" s="2">
-        <v>0</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -7188,14 +7188,14 @@
         <v>1</v>
       </c>
       <c r="AU30" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX30" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY30" s="2">
         <v>1</v>
@@ -7204,10 +7204,10 @@
         <v>1</v>
       </c>
       <c r="BA30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC30" s="2">
         <v>0</v>
@@ -7252,10 +7252,10 @@
         <v>0</v>
       </c>
       <c r="BQ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS30" s="2">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="BZ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA30" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -24,81 +24,81 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900174</t>
+  </si>
+  <si>
     <t>900154</t>
   </si>
   <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900174</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
     <t>900246</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900227</t>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900108</t>
   </si>
   <si>
     <t>900231</t>
   </si>
   <si>
+    <t>900200</t>
+  </si>
+  <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>300540</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900235</t>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900101</t>
   </si>
   <si>
     <t>900271</t>
   </si>
   <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900245</t>
-  </si>
-  <si>
-    <t>900200</t>
+    <t>900135</t>
   </si>
   <si>
     <t>900198</t>
   </si>
   <si>
-    <t>900135</t>
-  </si>
-  <si>
     <t>900150</t>
   </si>
   <si>
@@ -114,12 +114,12 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke</t>
+  </si>
+  <si>
     <t>Burke County</t>
   </si>
   <si>
-    <t>Burke</t>
-  </si>
-  <si>
     <t>Gastonia</t>
   </si>
   <si>
@@ -198,21 +198,21 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>methamphetamine</t>
+  </si>
+  <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
-    <t>methamphetamine</t>
-  </si>
-  <si>
-    <t>fentanyl</t>
+    <t>cocaine</t>
   </si>
   <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>cocaine</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
@@ -255,24 +255,24 @@
     <t>orange</t>
   </si>
   <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
     <t>white; light blue</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>brown</t>
   </si>
   <si>
+    <t>white; gray</t>
+  </si>
+  <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>purple</t>
   </si>
   <si>
@@ -291,36 +291,36 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
-    <t>crystals; powder</t>
+    <t>powder; chunky</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>powder; chunky</t>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>shards; crystals</t>
   </si>
   <si>
     <t>powder; flaky</t>
   </si>
   <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
-    <t>powder; flaky; chunky; shiny</t>
+    <t>powder; crystals</t>
   </si>
   <si>
     <t>rock</t>
   </si>
   <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -339,10 +339,16 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical; weaker</t>
+  </si>
+  <si>
     <t>typical</t>
   </si>
   <si>
-    <t>typical; weaker</t>
+    <t>normal; sedating</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
   <si>
     <t>hallucinations</t>
@@ -351,16 +357,10 @@
     <t>unusual taste</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>normal; sedating</t>
+    <t>unpleasant</t>
   </si>
   <si>
     <t>weaker</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sedating</t>
@@ -722,7 +722,7 @@
         <v>104</v>
       </c>
       <c r="AA1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB1" t="s">
         <v>105</v>
@@ -972,7 +972,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1346,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -1355,7 +1355,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>45778</v>
+        <v>45750</v>
       </c>
       <c r="G4" t="s">
         <v>52</v>
@@ -1370,22 +1370,22 @@
         <v>61</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1400,22 +1400,26 @@
         <v>80</v>
       </c>
       <c r="U4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AD4" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
@@ -1427,15 +1431,17 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO4" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
@@ -1444,20 +1450,20 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1469,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1514,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1561,10 +1567,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -1588,22 +1594,22 @@
         <v>62</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1615,24 +1621,24 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1647,9 +1653,11 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1664,20 +1672,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1689,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1734,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1784,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -1793,7 +1801,7 @@
         <v>49</v>
       </c>
       <c r="F6" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G6" t="s">
         <v>52</v>
@@ -1805,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1835,24 +1843,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1867,17 +1873,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1886,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.3299999237060547</v>
+        <v>4.5</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -2003,10 +2007,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -2027,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
@@ -2057,22 +2061,24 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2087,11 +2093,9 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
@@ -2223,10 +2227,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -2238,16 +2242,16 @@
         <v>45776</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="2">
         <v>1</v>
@@ -2277,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2294,7 +2298,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2445,10 +2449,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2457,7 +2461,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G9" t="s">
         <v>52</v>
@@ -2469,25 +2473,25 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2505,18 +2509,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2531,10 +2533,10 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
@@ -2550,20 +2552,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2575,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2620,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2670,7 +2672,7 @@
         <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -2679,7 +2681,7 @@
         <v>49</v>
       </c>
       <c r="F10" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -2691,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2">
         <v>1</v>
@@ -2721,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
@@ -2738,7 +2740,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
@@ -2753,17 +2755,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2772,14 +2774,14 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.470000267028809</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY10" s="2">
         <v>1</v>
@@ -2889,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
@@ -2916,22 +2918,22 @@
         <v>62</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2943,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -2957,15 +2959,13 @@
         <v>1</v>
       </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
         <v>109</v>
       </c>
       <c r="AD11" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -2977,10 +2977,10 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
@@ -2996,20 +2996,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3021,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3066,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3113,10 +3113,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -3137,25 +3137,25 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3167,22 +3167,24 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3197,10 +3199,10 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
@@ -3216,20 +3218,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.420000076293945</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3241,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3286,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3336,7 +3338,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -3345,7 +3347,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="1">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -3357,25 +3359,25 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3387,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
+        <v>82</v>
+      </c>
+      <c r="U13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
         <v>31</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>93</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
@@ -3402,10 +3404,10 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3425,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3434,20 +3436,20 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>4.5</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3459,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3504,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -3566,16 +3568,16 @@
         <v>45776</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3605,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
@@ -3615,14 +3617,12 @@
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.430000305175781</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
@@ -3785,37 +3785,37 @@
         <v>49</v>
       </c>
       <c r="F15" s="1">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3824,33 +3824,33 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
         <v>110</v>
       </c>
-      <c r="AD15" s="2"/>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
       <c r="AE15" s="2"/>
-      <c r="AF15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
@@ -3869,38 +3869,36 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="2">
-        <v>5.6100001335144043</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -3948,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -4007,19 +4005,19 @@
         <v>49</v>
       </c>
       <c r="F16" s="1">
-        <v>45689</v>
+        <v>45691</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -4049,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
@@ -4064,14 +4062,16 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="AB16" s="2">
+        <v>1</v>
+      </c>
       <c r="AC16" t="s">
         <v>111</v>
       </c>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
@@ -4097,14 +4097,14 @@
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
         <v>1</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="2">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4449,31 +4449,31 @@
         <v>49</v>
       </c>
       <c r="F18" s="1">
-        <v>45691</v>
+        <v>45777</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4491,13 +4491,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4506,14 +4506,12 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -4525,39 +4523,37 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4575,10 +4571,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4614,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4685,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4715,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -4730,7 +4726,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4893,37 +4889,37 @@
         <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="2">
         <v>0</v>
@@ -4932,33 +4928,33 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="U20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
+      <c r="AF20" s="2">
+        <v>1</v>
+      </c>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4977,36 +4973,38 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>5.6100001335144043</v>
+      </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
       </c>
       <c r="BB20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="2">
         <v>0</v>
@@ -5054,10 +5052,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5113,19 +5111,19 @@
         <v>49</v>
       </c>
       <c r="F21" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5155,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
@@ -5172,7 +5170,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5201,17 +5199,17 @@
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.460000038146973</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5333,31 +5331,31 @@
         <v>49</v>
       </c>
       <c r="F22" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -5366,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -5375,13 +5373,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5392,12 +5390,12 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE22" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -5417,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5426,20 +5424,20 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.449999809265137</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX22" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5451,16 +5449,16 @@
         <v>0</v>
       </c>
       <c r="BD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5484,22 +5482,22 @@
         <v>0</v>
       </c>
       <c r="BO22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP22" s="2">
         <v>0</v>
       </c>
       <c r="BQ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR22" s="2">
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU22" s="2">
         <v>0</v>
@@ -5555,7 +5553,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>45777</v>
+        <v>45689</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -5567,13 +5565,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -5594,16 +5592,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5611,15 +5609,17 @@
         <v>1</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
+      <c r="AA23" s="2">
+        <v>1</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2">
+        <v>1</v>
+      </c>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
@@ -5629,15 +5629,17 @@
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO23" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2">
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45797</v>
+        <v>45721</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5646,20 +5648,20 @@
         <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>10.470000267028809</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX23" s="2">
         <v>2</v>
       </c>
       <c r="AY23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -5704,10 +5706,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23" s="2">
         <v>0</v>
@@ -5716,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -5787,7 +5789,7 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K24" s="2">
         <v>1</v>
@@ -5817,13 +5819,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5832,7 +5834,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -5993,25 +5995,25 @@
         <v>49</v>
       </c>
       <c r="F25" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
@@ -6032,16 +6034,16 @@
         <v>0</v>
       </c>
       <c r="S25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6049,17 +6051,15 @@
         <v>1</v>
       </c>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
         <v>115</v>
       </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
@@ -6079,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -6088,20 +6088,20 @@
         <v>1</v>
       </c>
       <c r="AU25" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX25" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6113,10 +6113,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -6146,22 +6146,22 @@
         <v>0</v>
       </c>
       <c r="BO25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR25" s="2">
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6217,19 +6217,19 @@
         <v>49</v>
       </c>
       <c r="F26" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K26" s="2">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
@@ -6276,7 +6276,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -6305,17 +6305,17 @@
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX26" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY26" s="2">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6461,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -6479,24 +6479,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="U27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>102</v>
-      </c>
-      <c r="W27" s="2">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD27" s="2">
         <v>0</v>
@@ -6511,11 +6509,9 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
@@ -6530,11 +6526,11 @@
         <v>1</v>
       </c>
       <c r="AU27" s="2">
-        <v>10.439999580383301</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX27" s="2">
         <v>5</v>
@@ -6549,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="BB27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD27" s="2">
         <v>1</v>
@@ -6564,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -6594,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR27" s="2">
         <v>0</v>
@@ -6671,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6683,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -6701,22 +6697,24 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="U28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>31</v>
-      </c>
-      <c r="W28" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AD28" s="2">
         <v>0</v>
@@ -6731,9 +6729,11 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO28" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>1</v>
+      </c>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
@@ -6748,11 +6748,11 @@
         <v>1</v>
       </c>
       <c r="AU28" s="2">
-        <v>10.430000305175781</v>
+        <v>10.439999580383301</v>
       </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX28" s="2">
         <v>5</v>
@@ -6767,10 +6767,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28" s="2">
         <v>1</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="BG28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH28" s="2">
         <v>0</v>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="BQ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR28" s="2">
         <v>0</v>
@@ -6889,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6919,7 +6919,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
@@ -6936,7 +6936,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD29" s="2">
         <v>0</v>
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K30" s="2">
         <v>1</v>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="548" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="612" uniqueCount="199">
   <si>
     <t>sampleid</t>
   </si>
@@ -24,37 +24,46 @@
     <t>900223</t>
   </si>
   <si>
+    <t>900188</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900217</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900246</t>
+  </si>
+  <si>
     <t>900121</t>
   </si>
   <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900174</t>
+  </si>
+  <si>
     <t>900264</t>
   </si>
   <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
     <t>900227</t>
   </si>
   <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900143</t>
+    <t>900154</t>
   </si>
   <si>
     <t>900185</t>
   </si>
   <si>
-    <t>900174</t>
-  </si>
-  <si>
-    <t>900154</t>
-  </si>
-  <si>
-    <t>900246</t>
+    <t>900146</t>
   </si>
   <si>
     <t>900235</t>
@@ -63,48 +72,51 @@
     <t>300540</t>
   </si>
   <si>
-    <t>900146</t>
+    <t>900256</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900109</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900231</t>
   </si>
   <si>
     <t>900263</t>
   </si>
   <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900179</t>
+    <t>900101</t>
   </si>
   <si>
     <t>900245</t>
   </si>
   <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900271</t>
-  </si>
-  <si>
     <t>900135</t>
   </si>
   <si>
     <t>900198</t>
   </si>
   <si>
+    <t>900286</t>
+  </si>
+  <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -120,12 +132,12 @@
     <t>Burke County</t>
   </si>
   <si>
+    <t>Gaston</t>
+  </si>
+  <si>
     <t>Gastonia</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -177,12 +189,12 @@
     <t>swab</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>spatula</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -198,27 +210,27 @@
     <t>DMT</t>
   </si>
   <si>
+    <t>fentanyl</t>
+  </si>
+  <si>
     <t>methamphetamine</t>
   </si>
   <si>
-    <t>fentanyl</t>
-  </si>
-  <si>
     <t>fentanyl; xylazine</t>
   </si>
   <si>
     <t>cocaine</t>
   </si>
   <si>
+    <t>fentanyl; methamphetamine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>fentanyl; methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -255,27 +267,27 @@
     <t>orange</t>
   </si>
   <si>
+    <t>purple</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
     <t>clear</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white; light blue</t>
   </si>
   <si>
-    <t>brown</t>
+    <t>white; off-white</t>
   </si>
   <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -291,25 +303,31 @@
     <t>powder</t>
   </si>
   <si>
+    <t>shards</t>
+  </si>
+  <si>
+    <t>rock; shards</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>shards</t>
-  </si>
-  <si>
     <t>crystals</t>
   </si>
   <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>other</t>
+    <t>shards; crystals</t>
   </si>
   <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>shards; crystals</t>
+    <t>rock</t>
   </si>
   <si>
     <t>powder; flaky</t>
@@ -318,9 +336,6 @@
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>rock</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -339,33 +354,36 @@
     <t>stronger</t>
   </si>
   <si>
+    <t>typical</t>
+  </si>
+  <si>
     <t>typical; weaker</t>
   </si>
   <si>
-    <t>typical</t>
-  </si>
-  <si>
     <t>normal; sedating</t>
   </si>
   <si>
     <t>normal</t>
   </si>
   <si>
+    <t>weaker; sedating</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
     <t>hallucinations</t>
   </si>
   <si>
-    <t>unusual taste</t>
+    <t>weaker</t>
   </si>
   <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
     <t>sen_strength</t>
   </si>
   <si>
@@ -532,6 +550,9 @@
   </si>
   <si>
     <t>GA | FULTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC | </t>
   </si>
   <si>
     <t>NC | BURKE</t>
@@ -636,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF30"/>
+  <dimension ref="A1:CF34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -647,253 +668,253 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="T1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="U1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="V1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="W1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="X1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Y1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Z1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AA1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AB1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AC1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AD1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AE1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AF1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AG1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AH1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AI1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="AJ1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AL1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AM1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AN1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AO1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AP1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AQ1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AR1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AS1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AT1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AU1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AV1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AW1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AX1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AY1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AZ1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="BA1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="BB1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="BC1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="BD1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="BE1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BF1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="BG1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="BH1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="BI1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="BJ1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="BK1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="BL1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="BM1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="BN1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="BO1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="BP1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BQ1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="BR1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="BS1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="BT1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="BU1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="BV1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="BW1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="BX1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="BY1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="BZ1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="CA1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="CB1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="CC1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="CD1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="CE1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="CF1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2">
@@ -901,31 +922,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
         <v>45751</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -955,13 +976,13 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2">
@@ -972,7 +993,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -985,7 +1006,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1104,16 +1125,16 @@
         <v>0</v>
       </c>
       <c r="CC2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="CD2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="CE2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="CF2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -1121,31 +1142,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1">
         <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1175,13 +1196,13 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="U3" s="2">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1192,7 +1213,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1207,7 +1228,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1326,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="CC3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="CD3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="CE3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="CF3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4">
@@ -1343,49 +1364,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1">
-        <v>45750</v>
+        <v>45809</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -1397,73 +1418,69 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AD4" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="2">
         <v>0</v>
       </c>
       <c r="AR4" s="1">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2">
-        <v>4.5199999809265137</v>
+        <v>13.789999961853027</v>
       </c>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="2">
         <v>0</v>
@@ -1475,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
         <v>0</v>
@@ -1520,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="BS4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="2">
         <v>0</v>
@@ -1550,16 +1567,16 @@
         <v>0</v>
       </c>
       <c r="CC4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="CD4" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="CE4" t="s">
-        <v>182</v>
+        <v>35</v>
       </c>
       <c r="CF4" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -1567,49 +1584,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>45748</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1621,24 +1638,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1653,11 +1668,9 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
@@ -1672,20 +1685,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1697,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1742,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1772,16 +1785,16 @@
         <v>0</v>
       </c>
       <c r="CC5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF5" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
@@ -1789,31 +1802,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K6" s="2">
         <v>0</v>
@@ -1843,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1858,7 +1871,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1873,7 +1886,7 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
@@ -1881,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1890,14 +1903,14 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY6" s="2">
         <v>0</v>
@@ -1990,16 +2003,16 @@
         <v>0</v>
       </c>
       <c r="CC6" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD6" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF6" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
@@ -2007,49 +2020,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2061,24 +2074,24 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2093,15 +2106,17 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO7" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>1</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2110,20 +2125,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2135,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2180,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2210,16 +2225,16 @@
         <v>0</v>
       </c>
       <c r="CC7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
@@ -2227,49 +2242,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2281,24 +2296,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2313,17 +2326,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2332,20 +2345,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2357,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2402,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2432,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="CC8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
@@ -2449,49 +2462,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2503,13 +2516,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2518,7 +2531,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2533,17 +2546,17 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2552,20 +2565,20 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2577,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2622,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2652,16 +2665,16 @@
         <v>0</v>
       </c>
       <c r="CC9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE9" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10">
@@ -2669,49 +2682,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="2">
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
       <c r="P10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
         <v>0</v>
@@ -2723,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2737,13 +2750,15 @@
         <v>1</v>
       </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AD10" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2755,17 +2770,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AO10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2774,20 +2789,20 @@
         <v>0</v>
       </c>
       <c r="AU10" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="2">
         <v>0</v>
@@ -2799,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="BD10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="2">
         <v>0</v>
@@ -2844,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="BS10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="2">
         <v>0</v>
@@ -2874,16 +2889,16 @@
         <v>0</v>
       </c>
       <c r="CC10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
@@ -2891,49 +2906,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1">
-        <v>45750</v>
+        <v>45748</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2945,24 +2960,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2977,11 +2992,9 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO11" s="2">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
@@ -2996,20 +3009,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3021,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3066,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3096,16 +3109,16 @@
         <v>0</v>
       </c>
       <c r="CC11" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD11" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE11" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12">
@@ -3113,31 +3126,31 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>45776</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -3167,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -3184,7 +3197,7 @@
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -3199,7 +3212,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -3318,16 +3331,16 @@
         <v>0</v>
       </c>
       <c r="CC12" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD12" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE12" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
@@ -3335,31 +3348,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
@@ -3368,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -3389,25 +3402,27 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3419,15 +3434,17 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO13" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3436,14 +3453,14 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.430000305175781</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="2">
         <v>1</v>
@@ -3536,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="CC13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD13" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE13" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF13" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14">
@@ -3553,31 +3570,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1">
         <v>45776</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3607,22 +3624,24 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3637,7 +3656,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AO14" s="2">
         <v>1</v>
@@ -3656,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.420000076293945</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
@@ -3756,16 +3775,16 @@
         <v>0</v>
       </c>
       <c r="CC14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CD14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE14" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="CF14" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15">
@@ -3773,81 +3792,79 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>88</v>
+      </c>
+      <c r="U15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45692</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" t="s">
-        <v>80</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" t="s">
-        <v>91</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3859,31 +3876,31 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU15" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>10.430000305175781</v>
+      </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
         <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
@@ -3895,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="2">
         <v>0</v>
@@ -3976,16 +3993,16 @@
         <v>0</v>
       </c>
       <c r="CC15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="CD15" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="CF15" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
@@ -3993,43 +4010,43 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1">
-        <v>45691</v>
+        <v>45750</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
@@ -4038,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -4047,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
@@ -4062,11 +4079,9 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -4081,17 +4096,17 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AO16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4100,20 +4115,20 @@
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4131,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="2">
         <v>0</v>
@@ -4170,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4200,16 +4215,16 @@
         <v>0</v>
       </c>
       <c r="CC16" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="CD16" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE16" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="CF16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
@@ -4217,31 +4232,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1">
         <v>45747</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4271,13 +4286,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4288,7 +4303,7 @@
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4303,7 +4318,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4420,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="CC17" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD17" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE17" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF17" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
@@ -4437,31 +4452,31 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1">
-        <v>45777</v>
+        <v>45692</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2">
         <v>1</v>
@@ -4491,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4508,10 +4523,10 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AD18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -4523,15 +4538,17 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO18" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2">
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45797</v>
+        <v>45723</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4539,12 +4556,10 @@
       <c r="AT18" s="2">
         <v>1</v>
       </c>
-      <c r="AU18" s="2">
-        <v>10.470000267028809</v>
-      </c>
+      <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX18" s="2">
         <v>2</v>
@@ -4559,10 +4574,10 @@
         <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="2">
         <v>0</v>
@@ -4640,16 +4655,16 @@
         <v>0</v>
       </c>
       <c r="CC18" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD18" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE18" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF18" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19">
@@ -4657,31 +4672,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1">
-        <v>45747</v>
+        <v>45691</v>
       </c>
       <c r="G19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -4699,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4711,22 +4726,26 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
       <c r="AC19" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4741,7 +4760,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
@@ -4751,7 +4770,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4760,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>4.5100002288818359</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
@@ -4785,16 +4804,16 @@
         <v>0</v>
       </c>
       <c r="BD19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4860,16 +4879,16 @@
         <v>0</v>
       </c>
       <c r="CC19" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD19" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE19" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF19" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -4877,37 +4896,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1">
-        <v>45689</v>
+        <v>45812</v>
       </c>
       <c r="G20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4928,33 +4947,31 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD20" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE20" s="2"/>
-      <c r="AF20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
@@ -4963,7 +4980,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -4973,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45823</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
@@ -4982,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>5.6100001335144043</v>
+        <v>5</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
@@ -5007,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF20" s="2">
         <v>0</v>
@@ -5082,16 +5099,16 @@
         <v>0</v>
       </c>
       <c r="CC20" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD20" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE20" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF20" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
@@ -5099,31 +5116,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5153,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -5170,7 +5187,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5185,7 +5202,7 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
@@ -5199,17 +5216,17 @@
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5302,16 +5319,16 @@
         <v>0</v>
       </c>
       <c r="CC21" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE21" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF21" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
@@ -5319,43 +5336,43 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1">
-        <v>45689</v>
+        <v>45749</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -5364,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -5373,29 +5390,27 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
         <v>113</v>
       </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -5405,39 +5420,37 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5455,10 +5468,10 @@
         <v>0</v>
       </c>
       <c r="BF22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH22" s="2">
         <v>0</v>
@@ -5482,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="2">
         <v>0</v>
@@ -5494,10 +5507,10 @@
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU22" s="2">
         <v>0</v>
@@ -5524,16 +5537,16 @@
         <v>0</v>
       </c>
       <c r="CC22" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD22" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE22" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF22" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23">
@@ -5541,40 +5554,40 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1">
-        <v>45689</v>
+        <v>45812</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -5592,16 +5605,16 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5609,27 +5622,25 @@
         <v>1</v>
       </c>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="2">
+        <v>1</v>
+      </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO23" s="2">
         <v>0</v>
@@ -5639,29 +5650,29 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45721</v>
+        <v>45824</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.359999656677246</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
         <v>3</v>
       </c>
       <c r="AX23" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="2">
         <v>0</v>
@@ -5706,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="BO23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ23" s="2">
         <v>0</v>
@@ -5718,10 +5729,10 @@
         <v>0</v>
       </c>
       <c r="BS23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -5748,16 +5759,16 @@
         <v>0</v>
       </c>
       <c r="CC23" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD23" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE23" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF23" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24">
@@ -5765,43 +5776,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -5810,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -5825,21 +5836,23 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2">
+        <v>1</v>
+      </c>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -5849,37 +5862,39 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU24" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
@@ -5897,10 +5912,10 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -5924,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP24" s="2">
         <v>0</v>
@@ -5936,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU24" s="2">
         <v>0</v>
@@ -5966,16 +5981,16 @@
         <v>0</v>
       </c>
       <c r="CC24" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD24" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE24" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF24" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
@@ -5983,31 +5998,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1">
-        <v>45721</v>
+        <v>45747</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6037,13 +6052,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -6054,10 +6069,10 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AD25" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
@@ -6069,33 +6084,31 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45762</v>
+        <v>45761</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
       </c>
       <c r="AT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="2">
         <v>10.449999809265137</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
         <v>1</v>
@@ -6113,10 +6126,10 @@
         <v>0</v>
       </c>
       <c r="BD25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="2">
         <v>0</v>
@@ -6152,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="BQ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR25" s="2">
         <v>0</v>
@@ -6188,16 +6201,16 @@
         <v>0</v>
       </c>
       <c r="CC25" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD25" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE25" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF25" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6218,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1">
-        <v>45748</v>
+        <v>45747</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -6259,24 +6272,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -6291,9 +6302,11 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
@@ -6305,23 +6318,23 @@
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA26" s="2">
         <v>0</v>
@@ -6333,10 +6346,10 @@
         <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="2">
         <v>0</v>
@@ -6378,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="BS26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU26" s="2">
         <v>0</v>
@@ -6408,16 +6421,16 @@
         <v>0</v>
       </c>
       <c r="CC26" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="CD26" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE26" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="CF26" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
@@ -6425,49 +6438,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1">
-        <v>45778</v>
+        <v>45689</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="2">
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
@@ -6476,31 +6489,33 @@
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="U27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
+      <c r="AF27" s="2">
+        <v>1</v>
+      </c>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
@@ -6509,58 +6524,60 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>0</v>
+      </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45797</v>
+        <v>45721</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
       </c>
       <c r="AT27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="2">
-        <v>10.430000305175781</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="2">
         <v>0</v>
       </c>
       <c r="BB27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF27" s="2">
         <v>0</v>
       </c>
       <c r="BG27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH27" s="2">
         <v>0</v>
@@ -6590,16 +6607,16 @@
         <v>0</v>
       </c>
       <c r="BQ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR27" s="2">
         <v>0</v>
       </c>
       <c r="BS27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU27" s="2">
         <v>0</v>
@@ -6626,16 +6643,16 @@
         <v>0</v>
       </c>
       <c r="CC27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="CD27" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE27" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="CF27" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
@@ -6643,31 +6660,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F28" s="1">
-        <v>45778</v>
+        <v>45777</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6679,13 +6696,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -6697,27 +6714,27 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
-      </c>
-      <c r="W28" s="2">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AD28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
@@ -6729,11 +6746,9 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO28" s="2">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
@@ -6748,14 +6763,14 @@
         <v>1</v>
       </c>
       <c r="AU28" s="2">
-        <v>10.439999580383301</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY28" s="2">
         <v>1</v>
@@ -6773,10 +6788,10 @@
         <v>0</v>
       </c>
       <c r="BD28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF28" s="2">
         <v>0</v>
@@ -6848,16 +6863,16 @@
         <v>0</v>
       </c>
       <c r="CC28" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="CD28" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE28" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="CF28" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
@@ -6865,31 +6880,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F29" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6919,13 +6934,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -6936,10 +6951,10 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="AD29" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
@@ -6951,7 +6966,7 @@
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO29" s="2">
         <v>0</v>
@@ -6961,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -6970,15 +6985,15 @@
         <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>10.479999542236328</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX29" s="2">
         <v>4</v>
       </c>
-      <c r="AX29" s="2">
-        <v>3</v>
-      </c>
       <c r="AY29" s="2">
         <v>1</v>
       </c>
@@ -6995,10 +7010,10 @@
         <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="2">
         <v>0</v>
@@ -7034,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR29" s="2">
         <v>0</v>
@@ -7070,16 +7085,16 @@
         <v>0</v>
       </c>
       <c r="CC29" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="CD29" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="CE29" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="CF29" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30">
@@ -7087,40 +7102,40 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F30" s="1">
-        <v>45721</v>
+        <v>45689</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
@@ -7138,28 +7153,34 @@
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="U30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
+      <c r="AA30" s="2">
+        <v>1</v>
+      </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
+      <c r="AE30" s="2">
+        <v>1</v>
+      </c>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
@@ -7169,7 +7190,7 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AO30" s="2">
         <v>0</v>
@@ -7179,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -7188,116 +7209,996 @@
         <v>1</v>
       </c>
       <c r="AU30" s="2">
-        <v>12.539999961853027</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
+        <v>3</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BP30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB30" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC30" t="s">
+        <v>181</v>
+      </c>
+      <c r="CD30" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE30" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>35</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" t="s">
+        <v>35</v>
+      </c>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>45797</v>
+      </c>
+      <c r="AS31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>10.430000305175781</v>
+      </c>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2">
         <v>10</v>
       </c>
-      <c r="AX30" s="2">
+      <c r="AX31" s="2">
         <v>5</v>
       </c>
-      <c r="AY30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BR30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT30" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY30" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ30" s="2">
-        <v>1</v>
-      </c>
-      <c r="CA30" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB30" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC30" t="s">
-        <v>176</v>
-      </c>
-      <c r="CD30" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE30" t="s">
-        <v>185</v>
-      </c>
-      <c r="CF30" t="s">
+      <c r="AY31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB31" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC31" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD31" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE31" t="s">
         <v>191</v>
+      </c>
+      <c r="CF31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
+        <v>0</v>
+      </c>
+      <c r="T32" t="s">
+        <v>84</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>107</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AM32" s="2"/>
+      <c r="AN32" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="2"/>
+      <c r="AQ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>45797</v>
+      </c>
+      <c r="AS32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>10.439999580383301</v>
+      </c>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC32" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD32" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE32" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45721</v>
+      </c>
+      <c r="G33" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
+        <v>0</v>
+      </c>
+      <c r="T33" t="s">
+        <v>91</v>
+      </c>
+      <c r="U33" s="2">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>104</v>
+      </c>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="2"/>
+      <c r="AM33" s="2"/>
+      <c r="AN33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>45762</v>
+      </c>
+      <c r="AS33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>12.539999961853027</v>
+      </c>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC33" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD33" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE33" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45693</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" t="s">
+        <v>85</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>95</v>
+      </c>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" t="s">
+        <v>134</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>45723</v>
+      </c>
+      <c r="AS34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>10.479999542236328</v>
+      </c>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>3</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="612" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="660" uniqueCount="203">
   <si>
     <t>sampleid</t>
   </si>
@@ -27,96 +27,105 @@
     <t>900188</t>
   </si>
   <si>
+    <t>900174</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900217</t>
+  </si>
+  <si>
+    <t>900177</t>
+  </si>
+  <si>
+    <t>900154</t>
+  </si>
+  <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900246</t>
+  </si>
+  <si>
     <t>900151</t>
   </si>
   <si>
-    <t>900217</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900246</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900174</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900227</t>
-  </si>
-  <si>
-    <t>900154</t>
-  </si>
-  <si>
-    <t>900185</t>
+    <t>300540</t>
+  </si>
+  <si>
+    <t>900235</t>
+  </si>
+  <si>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900173</t>
+  </si>
+  <si>
+    <t>900245</t>
+  </si>
+  <si>
+    <t>900299</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900108</t>
   </si>
   <si>
     <t>900146</t>
   </si>
   <si>
-    <t>900235</t>
-  </si>
-  <si>
-    <t>300540</t>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900109</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900271</t>
+  </si>
+  <si>
+    <t>900101</t>
   </si>
   <si>
     <t>900256</t>
   </si>
   <si>
-    <t>900271</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900109</t>
-  </si>
-  <si>
-    <t>900179</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900245</t>
+    <t>900198</t>
   </si>
   <si>
     <t>900135</t>
   </si>
   <si>
-    <t>900198</t>
+    <t>900150</t>
   </si>
   <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -126,18 +135,21 @@
     <t>Atlanta</t>
   </si>
   <si>
+    <t>Burke County</t>
+  </si>
+  <si>
     <t>Burke</t>
   </si>
   <si>
-    <t>Burke County</t>
+    <t>Gastonia</t>
+  </si>
+  <si>
+    <t>Gaston County</t>
   </si>
   <si>
     <t>Gaston</t>
   </si>
   <si>
-    <t>Gastonia</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -150,9 +162,6 @@
     <t>Fulton County</t>
   </si>
   <si>
-    <t>Gaston County</t>
-  </si>
-  <si>
     <t>McDowell County</t>
   </si>
   <si>
@@ -195,6 +204,9 @@
     <t>spatula</t>
   </si>
   <si>
+    <t>pipe</t>
+  </si>
+  <si>
     <t>collection</t>
   </si>
   <si>
@@ -225,12 +237,12 @@
     <t>fentanyl; methamphetamine</t>
   </si>
   <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>methamphetamine; MDMA</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -276,18 +288,18 @@
     <t>clear</t>
   </si>
   <si>
+    <t>white; light blue</t>
+  </si>
+  <si>
     <t>brown</t>
   </si>
   <si>
-    <t>white; light blue</t>
+    <t>white; gray</t>
   </si>
   <si>
     <t>white; off-white</t>
   </si>
   <si>
-    <t>white; gray</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -303,39 +315,39 @@
     <t>powder</t>
   </si>
   <si>
+    <t>crystals</t>
+  </si>
+  <si>
     <t>shards</t>
   </si>
   <si>
     <t>rock; shards</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
-    <t>crystals; powder</t>
-  </si>
-  <si>
-    <t>crystals</t>
-  </si>
-  <si>
-    <t>powder; chunky</t>
+    <t>powder; flaky; chunky; shiny</t>
+  </si>
+  <si>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
+  </si>
+  <si>
+    <t>rock</t>
   </si>
   <si>
     <t>shards; crystals</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -360,28 +372,28 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>weaker</t>
   </si>
   <si>
     <t>weaker; sedating</t>
-  </si>
-  <si>
-    <t>sedating</t>
-  </si>
-  <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -657,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF34"/>
+  <dimension ref="A1:CF37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -668,253 +680,253 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="T1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="U1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="W1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="X1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="Z1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AA1" t="s">
         <v>100</v>
       </c>
       <c r="AB1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AC1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AD1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AE1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AF1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AG1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="AH1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AI1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="AJ1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AK1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AM1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AN1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AO1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="AP1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AQ1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AR1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="AS1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AT1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AU1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AV1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AW1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="AX1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AY1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AZ1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="BA1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="BB1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="BC1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BD1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="BE1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="BF1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BG1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="BH1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="BI1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BJ1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="BK1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="BL1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BM1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BN1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="BO1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BP1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="BQ1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="BR1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BS1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BT1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="BU1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="BV1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="BW1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="BX1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BY1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="BZ1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="CA1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="CB1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="CC1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="CD1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="CE1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="CF1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2">
@@ -922,31 +934,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1">
         <v>45751</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2">
         <v>0</v>
@@ -976,13 +988,13 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="U2" s="2">
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2">
@@ -993,7 +1005,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1006,7 +1018,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO2" s="2">
         <v>0</v>
@@ -1125,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="CC2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="CD2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CE2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CF2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1142,31 +1154,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1">
         <v>45689</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1196,13 +1208,13 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U3" s="2">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
@@ -1213,7 +1225,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AD3" s="2">
         <v>1</v>
@@ -1228,7 +1240,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO3" s="2">
         <v>0</v>
@@ -1347,16 +1359,16 @@
         <v>0</v>
       </c>
       <c r="CC3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="CD3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="CE3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="CF3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -1364,31 +1376,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" s="1">
         <v>45809</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -1418,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U4" s="2">
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
@@ -1433,7 +1445,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD4" s="2">
         <v>0</v>
@@ -1450,7 +1462,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
@@ -1567,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="CC4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="CD4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CE4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CF4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -1584,31 +1596,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
@@ -1638,22 +1650,24 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1668,15 +1682,17 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO5" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS5" s="2">
         <v>1</v>
@@ -1685,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.5</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
@@ -1785,16 +1801,16 @@
         <v>0</v>
       </c>
       <c r="CC5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6">
@@ -1802,49 +1818,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F6" s="1">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1856,22 +1872,24 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD6" s="2">
         <v>0</v>
@@ -1886,15 +1904,17 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO6" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45824</v>
+        <v>45761</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1903,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -1913,10 +1933,10 @@
         <v>2</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1928,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1973,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -2003,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="CC6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
@@ -2020,49 +2040,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2074,24 +2094,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -2106,17 +2124,17 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AO7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2">
         <v>0</v>
       </c>
       <c r="AR7" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS7" s="2">
         <v>1</v>
@@ -2125,20 +2143,20 @@
         <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2150,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="BD7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="2">
         <v>0</v>
@@ -2195,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="BS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="2">
         <v>0</v>
@@ -2225,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="CC7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
@@ -2242,49 +2260,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F8" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -2296,22 +2314,24 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -2326,17 +2346,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2345,20 +2365,20 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2370,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8" s="2">
         <v>0</v>
@@ -2415,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="BS8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8" s="2">
         <v>0</v>
@@ -2445,16 +2465,16 @@
         <v>0</v>
       </c>
       <c r="CC8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
@@ -2462,31 +2482,31 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F9" s="1">
-        <v>45776</v>
+        <v>45750</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
@@ -2516,22 +2536,24 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -2546,7 +2568,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AO9" s="2">
         <v>1</v>
@@ -2556,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2565,14 +2587,14 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.420000076293945</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="2">
         <v>1</v>
@@ -2665,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="CC9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
@@ -2682,31 +2704,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1">
-        <v>45750</v>
+        <v>45809</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -2736,29 +2758,25 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD10" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2770,17 +2788,15 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2793,10 +2809,10 @@
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" s="2">
         <v>0</v>
@@ -2889,16 +2905,16 @@
         <v>0</v>
       </c>
       <c r="CC10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF10" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
@@ -2906,49 +2922,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="1">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2960,24 +2976,24 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -2992,7 +3008,7 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
@@ -3000,29 +3016,29 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45761</v>
+        <v>45825</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3034,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3079,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3109,16 +3125,16 @@
         <v>0</v>
       </c>
       <c r="CC11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12">
@@ -3126,81 +3142,79 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45776</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" t="s">
-        <v>85</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>100</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3212,11 +3226,9 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -3231,20 +3243,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>4.3299999237060547</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3256,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3301,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3331,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="CC12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
@@ -3348,49 +3360,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1">
         <v>45748</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
         <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3402,24 +3414,24 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -3434,11 +3446,9 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
         <v>0</v>
@@ -3453,20 +3463,20 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3478,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3523,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3553,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="CC13" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14">
@@ -3570,31 +3580,31 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1">
         <v>45776</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K14" s="2">
         <v>1</v>
@@ -3624,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3641,7 +3651,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD14" s="2">
         <v>0</v>
@@ -3656,7 +3666,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AO14" s="2">
         <v>1</v>
@@ -3775,16 +3785,16 @@
         <v>0</v>
       </c>
       <c r="CC14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD14" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE14" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF14" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15">
@@ -3792,49 +3802,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1">
-        <v>45778</v>
+        <v>45750</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3846,25 +3856,29 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="U15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
+      <c r="Y15" s="2">
+        <v>1</v>
+      </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
+      <c r="AA15" s="2">
+        <v>1</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AD15" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3876,15 +3890,17 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO15" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3893,20 +3909,20 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3918,10 +3934,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3963,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -3993,16 +4009,16 @@
         <v>0</v>
       </c>
       <c r="CC15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF15" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16">
@@ -4010,31 +4026,31 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K16" s="2">
         <v>1</v>
@@ -4064,24 +4080,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -4096,7 +4110,7 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AO16" s="2">
         <v>1</v>
@@ -4106,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4115,14 +4129,14 @@
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.460000038146973</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY16" s="2">
         <v>1</v>
@@ -4215,16 +4229,16 @@
         <v>0</v>
       </c>
       <c r="CC16" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="CD16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="CF16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
@@ -4232,31 +4246,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -4286,24 +4300,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U17" s="2">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -4318,7 +4330,7 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
@@ -4335,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>4.309999942779541</v>
+        <v>4.5</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
@@ -4435,16 +4447,16 @@
         <v>0</v>
       </c>
       <c r="CC17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="CD17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE17" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="CF17" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
@@ -4452,43 +4464,43 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F18" s="1">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4497,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4506,13 +4518,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4521,9 +4533,11 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
       <c r="AC18" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -4538,7 +4552,7 @@
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO18" s="2">
         <v>0</v>
@@ -4548,36 +4562,38 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>8.3500003814697266</v>
+      </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
       </c>
       <c r="BB18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="2">
         <v>0</v>
@@ -4586,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="BF18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4625,10 +4641,10 @@
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4655,16 +4671,16 @@
         <v>0</v>
       </c>
       <c r="CC18" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD18" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE18" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF18" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -4672,43 +4688,43 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F19" s="1">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -4717,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -4726,13 +4742,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
@@ -4741,11 +4757,9 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
-      <c r="AB19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -4760,7 +4774,7 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO19" s="2">
         <v>0</v>
@@ -4770,38 +4784,36 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45721</v>
+        <v>45723</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="2">
-        <v>8.3500003814697266</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
       </c>
       <c r="BB19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD19" s="2">
         <v>0</v>
@@ -4810,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="BF19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="2">
         <v>0</v>
@@ -4849,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4879,16 +4891,16 @@
         <v>0</v>
       </c>
       <c r="CC19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD19" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE19" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -4896,37 +4908,37 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" s="1">
-        <v>45812</v>
+        <v>45689</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I20" s="2">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -4938,10 +4950,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -4950,27 +4962,29 @@
         <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE20" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2">
+        <v>1</v>
+      </c>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
@@ -4980,7 +4994,7 @@
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO20" s="2">
         <v>0</v>
@@ -4990,20 +5004,20 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45823</v>
+        <v>45721</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>5</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX20" s="2">
         <v>1</v>
@@ -5024,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="BD20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -5057,7 +5071,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20" s="2">
         <v>0</v>
@@ -5099,16 +5113,16 @@
         <v>0</v>
       </c>
       <c r="CC20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -5116,31 +5130,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1">
-        <v>45748</v>
+        <v>45812</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K21" s="2">
         <v>1</v>
@@ -5152,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="2">
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
         <v>0</v>
@@ -5170,28 +5184,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5202,31 +5212,33 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO21" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45761</v>
+        <v>45825</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
       </c>
       <c r="AT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.460000038146973</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX21" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY21" s="2">
         <v>1</v>
@@ -5244,10 +5256,10 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
         <v>0</v>
@@ -5319,16 +5331,16 @@
         <v>0</v>
       </c>
       <c r="CC21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
@@ -5336,37 +5348,37 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1">
-        <v>45749</v>
+        <v>45689</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -5387,30 +5399,34 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2">
+        <v>1</v>
+      </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
+      <c r="AA22" s="2">
+        <v>1</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2">
+        <v>1</v>
+      </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -5420,37 +5436,39 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO22" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.460000038146973</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="2">
         <v>2</v>
       </c>
       <c r="AY22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5495,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="BO22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ22" s="2">
         <v>0</v>
@@ -5507,10 +5525,10 @@
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU22" s="2">
         <v>0</v>
@@ -5537,16 +5555,16 @@
         <v>0</v>
       </c>
       <c r="CC22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD22" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -5554,31 +5572,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1">
         <v>45812</v>
       </c>
       <c r="G23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5608,13 +5626,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
@@ -5625,22 +5643,22 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD23" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
-      <c r="AH23" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO23" s="2">
         <v>0</v>
@@ -5650,23 +5668,23 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>10.359999656677246</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY23" s="2">
         <v>1</v>
@@ -5684,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="BD23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -5759,16 +5777,16 @@
         <v>0</v>
       </c>
       <c r="CC23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD23" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -5776,43 +5794,43 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -5821,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -5830,13 +5848,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -5847,12 +5865,12 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
@@ -5862,39 +5880,37 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
         <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
@@ -5912,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="BF24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH24" s="2">
         <v>0</v>
@@ -5939,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="BO24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP24" s="2">
         <v>0</v>
@@ -5951,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU24" s="2">
         <v>0</v>
@@ -5981,16 +5997,16 @@
         <v>0</v>
       </c>
       <c r="CC24" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE24" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -5998,31 +6014,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F25" s="1">
-        <v>45747</v>
+        <v>45749</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K25" s="2">
         <v>1</v>
@@ -6052,24 +6068,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -6084,7 +6098,7 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
@@ -6101,14 +6115,14 @@
         <v>0</v>
       </c>
       <c r="AU25" s="2">
-        <v>10.449999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY25" s="2">
         <v>1</v>
@@ -6201,16 +6215,16 @@
         <v>0</v>
       </c>
       <c r="CC25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF25" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -6218,31 +6232,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1">
         <v>45747</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6272,13 +6286,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -6287,7 +6301,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD26" s="2">
         <v>0</v>
@@ -6302,7 +6316,7 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO26" s="2">
         <v>0</v>
@@ -6421,16 +6435,16 @@
         <v>0</v>
       </c>
       <c r="CC26" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -6438,25 +6452,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F27" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
@@ -6489,16 +6503,16 @@
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="U27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6509,13 +6523,13 @@
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD27" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0</v>
+      </c>
       <c r="AE27" s="2"/>
-      <c r="AF27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
@@ -6524,17 +6538,15 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>134</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -6543,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="AU27" s="2">
-        <v>5.6100001335144043</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
@@ -6568,10 +6580,10 @@
         <v>0</v>
       </c>
       <c r="BD27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF27" s="2">
         <v>0</v>
@@ -6643,16 +6655,16 @@
         <v>0</v>
       </c>
       <c r="CC27" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE27" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
@@ -6660,31 +6672,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1">
         <v>45777</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K28" s="2">
         <v>1</v>
@@ -6714,13 +6726,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
@@ -6731,7 +6743,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD28" s="2">
         <v>1</v>
@@ -6746,7 +6758,7 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AO28" s="2"/>
       <c r="AP28" s="2"/>
@@ -6863,16 +6875,16 @@
         <v>0</v>
       </c>
       <c r="CC28" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE28" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
@@ -6880,31 +6892,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F29" s="1">
-        <v>45721</v>
+        <v>45812</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6913,7 +6925,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
@@ -6934,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
@@ -6951,22 +6963,22 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD29" s="2">
-        <v>-1</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
+      <c r="AH29" s="2">
+        <v>1</v>
+      </c>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2"/>
       <c r="AM29" s="2"/>
       <c r="AN29" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO29" s="2">
         <v>0</v>
@@ -6976,23 +6988,23 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45762</v>
+        <v>45824</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
       </c>
       <c r="AT29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="2">
-        <v>10.449999809265137</v>
+        <v>10.359999656677246</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY29" s="2">
         <v>1</v>
@@ -7010,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="2">
         <v>0</v>
@@ -7049,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="BQ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="2">
         <v>0</v>
@@ -7085,16 +7097,16 @@
         <v>0</v>
       </c>
       <c r="CC29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD29" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE29" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF29" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
@@ -7102,31 +7114,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F30" s="1">
         <v>45689</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -7138,13 +7150,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -7156,32 +7168,30 @@
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2">
         <v>1</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2">
+        <v>1</v>
+      </c>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
@@ -7190,7 +7200,7 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO30" s="2">
         <v>0</v>
@@ -7206,17 +7216,17 @@
         <v>1</v>
       </c>
       <c r="AT30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="2">
-        <v>7.2100000381469727</v>
+        <v>5.6100001335144043</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX30" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY30" s="2">
         <v>0</v>
@@ -7267,10 +7277,10 @@
         <v>0</v>
       </c>
       <c r="BO30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ30" s="2">
         <v>0</v>
@@ -7309,16 +7319,16 @@
         <v>0</v>
       </c>
       <c r="CC30" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="CD30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE30" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="CF30" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -7326,31 +7336,31 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="G31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -7380,22 +7390,24 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
+      <c r="Y31" s="2">
+        <v>1</v>
+      </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AD31" s="2">
         <v>0</v>
@@ -7410,7 +7422,7 @@
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AO31" s="2"/>
       <c r="AP31" s="2"/>
@@ -7418,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS31" s="2">
         <v>1</v>
@@ -7427,14 +7439,14 @@
         <v>1</v>
       </c>
       <c r="AU31" s="2">
-        <v>10.430000305175781</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AX31" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY31" s="2">
         <v>1</v>
@@ -7446,22 +7458,22 @@
         <v>0</v>
       </c>
       <c r="BB31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="2">
         <v>0</v>
       </c>
       <c r="BG31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH31" s="2">
         <v>0</v>
@@ -7491,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BQ31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR31" s="2">
         <v>0</v>
@@ -7527,16 +7539,16 @@
         <v>0</v>
       </c>
       <c r="CC31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CD31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CF31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -7544,25 +7556,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F32" s="1">
-        <v>45778</v>
+        <v>45721</v>
       </c>
       <c r="G32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
@@ -7580,13 +7592,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <v>0</v>
       </c>
       <c r="P32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2">
         <v>0</v>
@@ -7598,27 +7610,27 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="U32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>107</v>
-      </c>
-      <c r="W32" s="2">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
+      <c r="Y32" s="2">
+        <v>1</v>
+      </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AD32" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -7630,17 +7642,17 @@
       <c r="AL32" s="2"/>
       <c r="AM32" s="2"/>
       <c r="AN32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AO32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2">
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <v>45797</v>
+        <v>45762</v>
       </c>
       <c r="AS32" s="2">
         <v>1</v>
@@ -7649,14 +7661,14 @@
         <v>1</v>
       </c>
       <c r="AU32" s="2">
-        <v>10.439999580383301</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2">
         <v>6</v>
       </c>
       <c r="AX32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY32" s="2">
         <v>1</v>
@@ -7713,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="BQ32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR32" s="2">
         <v>0</v>
@@ -7749,16 +7761,16 @@
         <v>0</v>
       </c>
       <c r="CC32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="CD32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE32" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="CF32" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
@@ -7769,28 +7781,28 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F33" s="1">
-        <v>45721</v>
+        <v>45812</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -7799,16 +7811,16 @@
         <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -7820,13 +7832,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
@@ -7835,9 +7847,11 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD33" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
@@ -7848,7 +7862,7 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AO33" s="2">
         <v>0</v>
@@ -7858,44 +7872,44 @@
         <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>45762</v>
+        <v>45823</v>
       </c>
       <c r="AS33" s="2">
         <v>1</v>
       </c>
       <c r="AT33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="2">
-        <v>12.539999961853027</v>
+        <v>5</v>
       </c>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AX33" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="2">
         <v>0</v>
       </c>
       <c r="BD33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF33" s="2">
         <v>0</v>
@@ -7931,16 +7945,16 @@
         <v>0</v>
       </c>
       <c r="BQ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU33" s="2">
         <v>0</v>
@@ -7958,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="BZ33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA33" s="2">
         <v>0</v>
@@ -7967,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="CC33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="CD33" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="CE33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="CF33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
@@ -7984,31 +7998,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1">
-        <v>45693</v>
+        <v>45778</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I34" s="2">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8020,13 +8034,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -8038,24 +8052,24 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>95</v>
-      </c>
-      <c r="W34" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
       <c r="X34" s="2"/>
-      <c r="Y34" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD34" s="2">
         <v>0</v>
@@ -8070,17 +8084,17 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AO34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2">
         <v>0</v>
       </c>
       <c r="AR34" s="1">
-        <v>45723</v>
+        <v>45797</v>
       </c>
       <c r="AS34" s="2">
         <v>1</v>
@@ -8089,116 +8103,774 @@
         <v>1</v>
       </c>
       <c r="AU34" s="2">
-        <v>10.479999542236328</v>
+        <v>10.439999580383301</v>
       </c>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>195</v>
+      </c>
+      <c r="CF34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45778</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" t="s">
+        <v>38</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>45797</v>
+      </c>
+      <c r="AS35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>10.430000305175781</v>
+      </c>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC35" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD35" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE35" t="s">
+        <v>195</v>
+      </c>
+      <c r="CF35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45693</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>89</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>99</v>
+      </c>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>45723</v>
+      </c>
+      <c r="AS36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="2">
+        <v>10.479999542236328</v>
+      </c>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2">
         <v>4</v>
       </c>
-      <c r="AX34" s="2">
+      <c r="AX36" s="2">
         <v>3</v>
       </c>
-      <c r="AY34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BK34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BO34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BQ34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BR34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BT34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BU34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BW34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BX34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BZ34" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA34" s="2">
-        <v>0</v>
-      </c>
-      <c r="CB34" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>183</v>
-      </c>
-      <c r="CD34" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE34" t="s">
-        <v>192</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>198</v>
+      <c r="AY36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="CA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC36" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD36" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE36" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45721</v>
+      </c>
+      <c r="G37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>95</v>
+      </c>
+      <c r="U37" s="2">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>109</v>
+      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>45762</v>
+      </c>
+      <c r="AS37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="2">
+        <v>12.539999961853027</v>
+      </c>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2">
+        <v>10</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>5</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BR37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BT37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="2">
+        <v>1</v>
+      </c>
+      <c r="CA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -27,105 +27,105 @@
     <t>900188</t>
   </si>
   <si>
+    <t>900246</t>
+  </si>
+  <si>
     <t>900174</t>
   </si>
   <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900227</t>
+  </si>
+  <si>
+    <t>900217</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900154</t>
+  </si>
+  <si>
     <t>900264</t>
   </si>
   <si>
-    <t>900165</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
     <t>900185</t>
   </si>
   <si>
-    <t>900217</t>
+    <t>900138</t>
   </si>
   <si>
     <t>900177</t>
   </si>
   <si>
-    <t>900154</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900227</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900246</t>
-  </si>
-  <si>
-    <t>900151</t>
+    <t>900179</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>900245</t>
   </si>
   <si>
     <t>300540</t>
   </si>
   <si>
+    <t>900263</t>
+  </si>
+  <si>
+    <t>900101</t>
+  </si>
+  <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900179</t>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900146</t>
   </si>
   <si>
     <t>900173</t>
   </si>
   <si>
-    <t>900245</t>
+    <t>900108</t>
+  </si>
+  <si>
+    <t>900256</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900109</t>
   </si>
   <si>
     <t>900299</t>
   </si>
   <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900263</t>
-  </si>
-  <si>
-    <t>900109</t>
-  </si>
-  <si>
-    <t>900231</t>
-  </si>
-  <si>
     <t>900271</t>
   </si>
   <si>
-    <t>900101</t>
-  </si>
-  <si>
-    <t>900256</t>
+    <t>900135</t>
   </si>
   <si>
     <t>900198</t>
   </si>
   <si>
-    <t>900135</t>
+    <t>900286</t>
   </si>
   <si>
     <t>900150</t>
   </si>
   <si>
-    <t>900286</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -144,12 +144,12 @@
     <t>Gastonia</t>
   </si>
   <si>
+    <t>Gaston</t>
+  </si>
+  <si>
     <t>Gaston County</t>
   </si>
   <si>
-    <t>Gaston</t>
-  </si>
-  <si>
     <t>McDowell</t>
   </si>
   <si>
@@ -234,15 +234,15 @@
     <t>cocaine</t>
   </si>
   <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
+    <t>ketamine</t>
+  </si>
+  <si>
     <t>fentanyl; methamphetamine</t>
   </si>
   <si>
-    <t>ketamine</t>
-  </si>
-  <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -282,6 +282,9 @@
     <t>purple</t>
   </si>
   <si>
+    <t>brown</t>
+  </si>
+  <si>
     <t>white</t>
   </si>
   <si>
@@ -291,9 +294,6 @@
     <t>white; light blue</t>
   </si>
   <si>
-    <t>brown</t>
-  </si>
-  <si>
     <t>white; gray</t>
   </si>
   <si>
@@ -315,33 +315,33 @@
     <t>powder</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>crystals</t>
   </si>
   <si>
     <t>shards</t>
   </si>
   <si>
+    <t>powder; chunky</t>
+  </si>
+  <si>
     <t>rock; shards</t>
   </si>
   <si>
-    <t>powder; chunky</t>
-  </si>
-  <si>
     <t>crystals; powder</t>
   </si>
   <si>
-    <t>other</t>
+    <t>powder; flaky</t>
+  </si>
+  <si>
+    <t>powder; crystals</t>
   </si>
   <si>
     <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
-    <t>powder; flaky</t>
-  </si>
-  <si>
-    <t>powder; crystals</t>
-  </si>
-  <si>
     <t>rock</t>
   </si>
   <si>
@@ -372,28 +372,28 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>unusual taste</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>unpleasant</t>
+  </si>
+  <si>
     <t>normal</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
     <t>normal; sedating</t>
   </si>
   <si>
-    <t>unusual taste</t>
-  </si>
-  <si>
-    <t>unpleasant</t>
+    <t>weaker; sedating</t>
   </si>
   <si>
     <t>sedating</t>
-  </si>
-  <si>
-    <t>hallucinations</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
-    <t>weaker; sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -755,7 +755,7 @@
         <v>113</v>
       </c>
       <c r="AA1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB1" t="s">
         <v>114</v>
@@ -1005,7 +1005,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
@@ -1620,25 +1620,25 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1662,9 +1662,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" t="s">
         <v>117</v>
@@ -1682,10 +1680,10 @@
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2"/>
       <c r="AQ5" s="2">
@@ -1701,20 +1699,20 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>4.3299999237060547</v>
+        <v>10.420000076293945</v>
       </c>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1726,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1771,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="BS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="2">
         <v>0</v>
@@ -1818,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1830,7 +1828,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G6" t="s">
         <v>59</v>
@@ -1842,25 +1840,25 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="2">
         <v>0</v>
@@ -1872,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" t="s">
         <v>117</v>
@@ -1914,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1923,20 +1921,20 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>10.470000267028809</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1948,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF6" s="2">
         <v>0</v>
@@ -1993,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="BS6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="2">
         <v>0</v>
@@ -2094,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="U7" s="2">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2275,10 +2273,10 @@
         <v>45776</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -2314,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2482,7 +2480,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -2494,37 +2492,37 @@
         <v>56</v>
       </c>
       <c r="F9" s="1">
-        <v>45750</v>
+        <v>45809</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -2536,19 +2534,17 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -2568,17 +2564,15 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2">
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2587,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>10.460000038146973</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
@@ -2597,10 +2591,10 @@
         <v>2</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2612,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="BD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9" s="2">
         <v>0</v>
@@ -2657,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="BS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9" s="2">
         <v>0</v>
@@ -2704,7 +2698,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -2716,13 +2710,13 @@
         <v>56</v>
       </c>
       <c r="F10" s="1">
-        <v>45809</v>
+        <v>45750</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2758,25 +2752,29 @@
         <v>0</v>
       </c>
       <c r="T10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD10" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -2788,15 +2786,17 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO10" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2">
         <v>0</v>
       </c>
       <c r="AR10" s="1">
-        <v>45824</v>
+        <v>45761</v>
       </c>
       <c r="AS10" s="2">
         <v>1</v>
@@ -2809,10 +2809,10 @@
       </c>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" s="2">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -2934,7 +2934,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="1">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
@@ -2946,25 +2946,25 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2976,19 +2976,17 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="U11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -3016,29 +3014,29 @@
         <v>0</v>
       </c>
       <c r="AR11" s="1">
-        <v>45825</v>
+        <v>45761</v>
       </c>
       <c r="AS11" s="2">
         <v>1</v>
       </c>
       <c r="AT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>10.319999694824219</v>
+        <v>4.5</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AX11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3050,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3095,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3154,7 +3152,7 @@
         <v>56</v>
       </c>
       <c r="F12" s="1">
-        <v>45778</v>
+        <v>45776</v>
       </c>
       <c r="G12" t="s">
         <v>59</v>
@@ -3166,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
@@ -3175,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
         <v>0</v>
@@ -3196,25 +3194,27 @@
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
@@ -3226,9 +3226,11 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO12" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>1</v>
+      </c>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -3372,7 +3374,7 @@
         <v>56</v>
       </c>
       <c r="F13" s="1">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="G13" t="s">
         <v>59</v>
@@ -3384,25 +3386,25 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -3414,27 +3416,25 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS13" s="2">
         <v>1</v>
@@ -3463,20 +3463,20 @@
         <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV13" s="2"/>
       <c r="AW13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="2">
         <v>0</v>
@@ -3488,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="BD13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF13" s="2">
         <v>0</v>
@@ -3533,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="BS13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU13" s="2">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -3592,13 +3592,13 @@
         <v>56</v>
       </c>
       <c r="F14" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I14" s="2">
         <v>1</v>
@@ -3634,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U14" s="2">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -3666,17 +3666,17 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AO14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2">
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3685,14 +3685,14 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.430000305175781</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY14" s="2">
         <v>1</v>
@@ -3826,25 +3826,25 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <v>0</v>
@@ -3856,13 +3856,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U15" s="2">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
@@ -3870,15 +3870,13 @@
         <v>1</v>
       </c>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD15" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
@@ -3890,10 +3888,10 @@
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AO15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2">
@@ -3909,20 +3907,20 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>4.5199999809265137</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="2">
         <v>0</v>
@@ -3934,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="BD15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF15" s="2">
         <v>0</v>
@@ -3979,10 +3977,10 @@
         <v>0</v>
       </c>
       <c r="BS15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU15" s="2">
         <v>0</v>
@@ -4026,7 +4024,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -4038,7 +4036,7 @@
         <v>56</v>
       </c>
       <c r="F16" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G16" t="s">
         <v>59</v>
@@ -4050,25 +4048,25 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -4080,19 +4078,21 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="U16" s="2">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
+      <c r="AA16" s="2">
+        <v>1</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
         <v>117</v>
@@ -4110,17 +4110,15 @@
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO16" s="2">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2">
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
@@ -4129,20 +4127,20 @@
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <v>10.420000076293945</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4154,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF16" s="2">
         <v>0</v>
@@ -4199,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4246,7 +4244,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -4258,7 +4256,7 @@
         <v>56</v>
       </c>
       <c r="F17" s="1">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="G17" t="s">
         <v>59</v>
@@ -4270,25 +4268,25 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -4300,17 +4298,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="U17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -4338,29 +4338,29 @@
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45761</v>
+        <v>45825</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="2">
-        <v>4.5</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="2">
         <v>0</v>
@@ -4372,10 +4372,10 @@
         <v>0</v>
       </c>
       <c r="BD17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF17" s="2">
         <v>0</v>
@@ -4417,10 +4417,10 @@
         <v>0</v>
       </c>
       <c r="BS17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU17" s="2">
         <v>0</v>
@@ -4467,7 +4467,7 @@
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>53</v>
@@ -4476,13 +4476,13 @@
         <v>56</v>
       </c>
       <c r="F18" s="1">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -4533,16 +4533,14 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
-      <c r="AB18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="2"/>
       <c r="AC18" t="s">
         <v>119</v>
       </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2">
+        <v>1</v>
+      </c>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4568,14 +4566,14 @@
         <v>1</v>
       </c>
       <c r="AT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="2">
         <v>8.3500003814697266</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX18" s="2">
         <v>1</v>
@@ -4629,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="BO18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP18" s="2">
         <v>0</v>
@@ -4691,7 +4689,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>53</v>
@@ -4700,37 +4698,37 @@
         <v>56</v>
       </c>
       <c r="F19" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4739,33 +4737,33 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
         <v>120</v>
       </c>
-      <c r="AD19" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
+      <c r="AF19" s="2">
+        <v>1</v>
+      </c>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -4784,36 +4782,38 @@
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
       </c>
       <c r="AT19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>5.6100001335144043</v>
+      </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
       </c>
       <c r="BB19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="2">
         <v>0</v>
@@ -4861,10 +4861,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4911,7 +4911,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>53</v>
@@ -4932,7 +4932,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K20" s="2">
         <v>0</v>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -4953,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
@@ -4976,7 +4976,9 @@
         <v>1</v>
       </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
         <v>121</v>
@@ -5013,14 +5015,14 @@
         <v>1</v>
       </c>
       <c r="AU20" s="2">
-        <v>8.3500003814697266</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY20" s="2">
         <v>0</v>
@@ -5044,10 +5046,10 @@
         <v>0</v>
       </c>
       <c r="BF20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH20" s="2">
         <v>0</v>
@@ -5074,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="BP20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
@@ -5130,10 +5132,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
         <v>53</v>
@@ -5142,25 +5144,25 @@
         <v>56</v>
       </c>
       <c r="F21" s="1">
-        <v>45812</v>
+        <v>45691</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -5172,10 +5174,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -5184,24 +5186,30 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
+      <c r="Y21" s="2">
+        <v>1</v>
+      </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="AB21" s="2">
+        <v>1</v>
+      </c>
       <c r="AC21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD21" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0</v>
+      </c>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -5222,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45825</v>
+        <v>45721</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5231,20 +5239,20 @@
         <v>0</v>
       </c>
       <c r="AU21" s="2">
-        <v>10.319999694824219</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="2">
         <v>0</v>
@@ -5256,16 +5264,16 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH21" s="2">
         <v>0</v>
@@ -5301,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="BS21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU21" s="2">
         <v>0</v>
@@ -5351,7 +5359,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
@@ -5360,7 +5368,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="1">
-        <v>45689</v>
+        <v>45777</v>
       </c>
       <c r="G22" t="s">
         <v>59</v>
@@ -5372,13 +5380,13 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -5399,16 +5407,16 @@
         <v>0</v>
       </c>
       <c r="S22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -5416,17 +5424,15 @@
         <v>1</v>
       </c>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
@@ -5436,17 +5442,15 @@
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2">
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45721</v>
+        <v>45797</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
@@ -5455,20 +5459,20 @@
         <v>1</v>
       </c>
       <c r="AU22" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX22" s="2">
         <v>2</v>
       </c>
       <c r="AY22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="2">
         <v>0</v>
@@ -5513,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="BO22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ22" s="2">
         <v>0</v>
@@ -5525,10 +5529,10 @@
         <v>0</v>
       </c>
       <c r="BS22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU22" s="2">
         <v>0</v>
@@ -5572,10 +5576,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
@@ -5584,19 +5588,19 @@
         <v>56</v>
       </c>
       <c r="F23" s="1">
-        <v>45812</v>
+        <v>45721</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5605,7 +5609,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
@@ -5626,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U23" s="2">
         <v>0</v>
@@ -5643,10 +5647,10 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AD23" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
@@ -5668,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45825</v>
+        <v>45762</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
@@ -5677,11 +5681,11 @@
         <v>1</v>
       </c>
       <c r="AU23" s="2">
-        <v>10.319999694824219</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX23" s="2">
         <v>4</v>
@@ -5741,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR23" s="2">
         <v>0</v>
@@ -5794,10 +5798,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
@@ -5806,7 +5810,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="1">
-        <v>45747</v>
+        <v>45692</v>
       </c>
       <c r="G24" t="s">
         <v>60</v>
@@ -5848,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U24" s="2">
         <v>0</v>
@@ -5865,7 +5869,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AD24" s="2">
         <v>0</v>
@@ -5880,31 +5884,31 @@
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO24" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2">
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45761</v>
+        <v>45723</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="2">
-        <v>10.449999809265137</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="2">
         <v>1</v>
@@ -5916,10 +5920,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="2">
         <v>0</v>
@@ -6017,7 +6021,7 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>53</v>
@@ -6232,10 +6236,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
@@ -6247,10 +6251,10 @@
         <v>45747</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
@@ -6286,19 +6290,21 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
+      <c r="AA26" s="2">
+        <v>1</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
         <v>117</v>
@@ -6316,11 +6322,9 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
@@ -6335,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="2">
-        <v>4.5100002288818359</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
@@ -6455,7 +6459,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>53</v>
@@ -6464,25 +6468,25 @@
         <v>56</v>
       </c>
       <c r="F27" s="1">
-        <v>45747</v>
+        <v>45812</v>
       </c>
       <c r="G27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
         <v>0</v>
@@ -6506,28 +6510,24 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
+        <v>90</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
         <v>38</v>
-      </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
-        <v>110</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD27" s="2">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -6538,15 +6538,17 @@
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
       <c r="AN27" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO27" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO27" s="2">
+        <v>0</v>
+      </c>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2">
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45761</v>
+        <v>45825</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -6555,20 +6557,20 @@
         <v>0</v>
       </c>
       <c r="AU27" s="2">
-        <v>4.309999942779541</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="2">
         <v>0</v>
@@ -6625,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="BS27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU27" s="2">
         <v>0</v>
@@ -6675,7 +6677,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
@@ -6684,7 +6686,7 @@
         <v>56</v>
       </c>
       <c r="F28" s="1">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="G28" t="s">
         <v>59</v>
@@ -6696,25 +6698,25 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="2">
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -6726,19 +6728,17 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -6746,7 +6746,7 @@
         <v>117</v>
       </c>
       <c r="AD28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
@@ -6758,37 +6758,39 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO28" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>0</v>
+      </c>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2">
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="2">
-        <v>10.470000267028809</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="2">
         <v>0</v>
@@ -6800,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="BD28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF28" s="2">
         <v>0</v>
@@ -6845,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="BS28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU28" s="2">
         <v>0</v>
@@ -6892,10 +6894,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
         <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>53</v>
@@ -6916,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K29" s="2">
         <v>1</v>
@@ -6925,16 +6927,16 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -6946,32 +6948,30 @@
         <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD29" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="2">
-        <v>1</v>
-      </c>
+      <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45824</v>
+        <v>45823</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
@@ -6997,20 +6997,20 @@
         <v>0</v>
       </c>
       <c r="AU29" s="2">
-        <v>10.359999656677246</v>
+        <v>5</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX29" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA29" s="2">
         <v>0</v>
@@ -7022,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF29" s="2">
         <v>0</v>
@@ -7067,10 +7067,10 @@
         <v>0</v>
       </c>
       <c r="BS29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU29" s="2">
         <v>0</v>
@@ -7114,10 +7114,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>53</v>
@@ -7126,37 +7126,37 @@
         <v>56</v>
       </c>
       <c r="F30" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
         <v>0</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2">
         <v>0</v>
@@ -7165,33 +7165,33 @@
         <v>0</v>
       </c>
       <c r="S30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
+      <c r="Y30" s="2">
+        <v>1</v>
+      </c>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD30" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
       <c r="AE30" s="2"/>
-      <c r="AF30" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
@@ -7200,17 +7200,15 @@
       <c r="AL30" s="2"/>
       <c r="AM30" s="2"/>
       <c r="AN30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO30" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2">
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
@@ -7219,7 +7217,7 @@
         <v>0</v>
       </c>
       <c r="AU30" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
@@ -7229,10 +7227,10 @@
         <v>1</v>
       </c>
       <c r="AY30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA30" s="2">
         <v>0</v>
@@ -7289,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="BS30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU30" s="2">
         <v>0</v>
@@ -7336,10 +7334,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
@@ -7348,19 +7346,19 @@
         <v>56</v>
       </c>
       <c r="F31" s="1">
-        <v>45748</v>
+        <v>45812</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K31" s="2">
         <v>1</v>
@@ -7369,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
@@ -7390,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U31" s="2">
         <v>0</v>
@@ -7407,46 +7405,48 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD31" s="2">
-        <v>0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
+      <c r="AH31" s="2">
+        <v>1</v>
+      </c>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2"/>
       <c r="AM31" s="2"/>
       <c r="AN31" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO31" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>0</v>
+      </c>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2">
         <v>0</v>
       </c>
       <c r="AR31" s="1">
-        <v>45761</v>
+        <v>45824</v>
       </c>
       <c r="AS31" s="2">
         <v>1</v>
       </c>
       <c r="AT31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="2">
-        <v>10.460000038146973</v>
+        <v>10.359999656677246</v>
       </c>
       <c r="AV31" s="2"/>
       <c r="AW31" s="2">
         <v>3</v>
       </c>
       <c r="AX31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY31" s="2">
         <v>1</v>
@@ -7556,10 +7556,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
         <v>53</v>
@@ -7568,19 +7568,19 @@
         <v>56</v>
       </c>
       <c r="F32" s="1">
-        <v>45721</v>
+        <v>45812</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
@@ -7589,7 +7589,7 @@
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
@@ -7610,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="U32" s="2">
         <v>0</v>
@@ -7627,10 +7627,10 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AD32" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
@@ -7652,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="1">
-        <v>45762</v>
+        <v>45825</v>
       </c>
       <c r="AS32" s="2">
         <v>1</v>
@@ -7661,11 +7661,11 @@
         <v>1</v>
       </c>
       <c r="AU32" s="2">
-        <v>10.449999809265137</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV32" s="2"/>
       <c r="AW32" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX32" s="2">
         <v>4</v>
@@ -7725,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="BQ32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR32" s="2">
         <v>0</v>
@@ -7778,10 +7778,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
@@ -7790,19 +7790,19 @@
         <v>56</v>
       </c>
       <c r="F33" s="1">
-        <v>45812</v>
+        <v>45748</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K33" s="2">
         <v>1</v>
@@ -7814,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>0</v>
       </c>
       <c r="P33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2">
         <v>0</v>
@@ -7832,25 +7832,27 @@
         <v>0</v>
       </c>
       <c r="T33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U33" s="2">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
+      <c r="Y33" s="2">
+        <v>1</v>
+      </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AD33" s="2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
@@ -7862,39 +7864,37 @@
       <c r="AL33" s="2"/>
       <c r="AM33" s="2"/>
       <c r="AN33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO33" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO33" s="2"/>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="2">
         <v>0</v>
       </c>
       <c r="AR33" s="1">
-        <v>45823</v>
+        <v>45761</v>
       </c>
       <c r="AS33" s="2">
         <v>1</v>
       </c>
       <c r="AT33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU33" s="2">
-        <v>5</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV33" s="2"/>
       <c r="AW33" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA33" s="2">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="BD33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF33" s="2">
         <v>0</v>
@@ -7951,10 +7951,10 @@
         <v>0</v>
       </c>
       <c r="BS33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU33" s="2">
         <v>0</v>
@@ -8022,7 +8022,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K34" s="2">
         <v>1</v>
@@ -8034,13 +8034,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
@@ -8052,17 +8052,15 @@
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="U34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>111</v>
-      </c>
-      <c r="W34" s="2">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
@@ -8084,11 +8082,9 @@
       <c r="AL34" s="2"/>
       <c r="AM34" s="2"/>
       <c r="AN34" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO34" s="2">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO34" s="2"/>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="2">
         <v>0</v>
@@ -8103,11 +8099,11 @@
         <v>1</v>
       </c>
       <c r="AU34" s="2">
-        <v>10.439999580383301</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV34" s="2"/>
       <c r="AW34" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AX34" s="2">
         <v>5</v>
@@ -8122,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="BB34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD34" s="2">
         <v>1</v>
@@ -8137,7 +8133,7 @@
         <v>0</v>
       </c>
       <c r="BG34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH34" s="2">
         <v>0</v>
@@ -8167,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="BQ34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR34" s="2">
         <v>0</v>
@@ -8244,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K35" s="2">
         <v>1</v>
@@ -8256,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="2">
         <v>0</v>
@@ -8274,15 +8270,17 @@
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="U35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>38</v>
-      </c>
-      <c r="W35" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -8304,9 +8302,11 @@
       <c r="AL35" s="2"/>
       <c r="AM35" s="2"/>
       <c r="AN35" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO35" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>1</v>
+      </c>
       <c r="AP35" s="2"/>
       <c r="AQ35" s="2">
         <v>0</v>
@@ -8321,11 +8321,11 @@
         <v>1</v>
       </c>
       <c r="AU35" s="2">
-        <v>10.430000305175781</v>
+        <v>10.439999580383301</v>
       </c>
       <c r="AV35" s="2"/>
       <c r="AW35" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX35" s="2">
         <v>5</v>
@@ -8340,10 +8340,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="2">
         <v>1</v>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="BG35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH35" s="2">
         <v>0</v>
@@ -8385,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="BQ35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR35" s="2">
         <v>0</v>
@@ -8450,19 +8450,19 @@
         <v>56</v>
       </c>
       <c r="F36" s="1">
-        <v>45693</v>
+        <v>45721</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I36" s="2">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K36" s="2">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
@@ -8492,28 +8492,24 @@
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="U36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-      <c r="Y36" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>0</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
@@ -8534,7 +8530,7 @@
         <v>0</v>
       </c>
       <c r="AR36" s="1">
-        <v>45723</v>
+        <v>45762</v>
       </c>
       <c r="AS36" s="2">
         <v>1</v>
@@ -8543,14 +8539,14 @@
         <v>1</v>
       </c>
       <c r="AU36" s="2">
-        <v>10.479999542236328</v>
+        <v>12.539999961853027</v>
       </c>
       <c r="AV36" s="2"/>
       <c r="AW36" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX36" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY36" s="2">
         <v>1</v>
@@ -8559,10 +8555,10 @@
         <v>1</v>
       </c>
       <c r="BA36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC36" s="2">
         <v>0</v>
@@ -8607,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="BQ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS36" s="2">
         <v>1</v>
@@ -8634,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="BZ36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA36" s="2">
         <v>0</v>
@@ -8672,19 +8668,19 @@
         <v>56</v>
       </c>
       <c r="F37" s="1">
-        <v>45721</v>
+        <v>45693</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I37" s="2">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K37" s="2">
         <v>1</v>
@@ -8693,7 +8689,7 @@
         <v>1</v>
       </c>
       <c r="M37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -8714,24 +8710,28 @@
         <v>0</v>
       </c>
       <c r="T37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="U37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
+      <c r="Y37" s="2">
+        <v>1</v>
+      </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD37" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="1">
-        <v>45762</v>
+        <v>45723</v>
       </c>
       <c r="AS37" s="2">
         <v>1</v>
@@ -8761,14 +8761,14 @@
         <v>1</v>
       </c>
       <c r="AU37" s="2">
-        <v>12.539999961853027</v>
+        <v>10.479999542236328</v>
       </c>
       <c r="AV37" s="2"/>
       <c r="AW37" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX37" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY37" s="2">
         <v>1</v>
@@ -8777,10 +8777,10 @@
         <v>1</v>
       </c>
       <c r="BA37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="2">
         <v>0</v>
@@ -8825,10 +8825,10 @@
         <v>0</v>
       </c>
       <c r="BQ37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS37" s="2">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="BZ37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA37" s="2">
         <v>0</v>

--- a/datasets/selfservice/RT/analysis_dataset.xlsx
+++ b/datasets/selfservice/RT/analysis_dataset.xlsx
@@ -30,87 +30,87 @@
     <t>900246</t>
   </si>
   <si>
+    <t>900138</t>
+  </si>
+  <si>
+    <t>900165</t>
+  </si>
+  <si>
+    <t>900264</t>
+  </si>
+  <si>
+    <t>900151</t>
+  </si>
+  <si>
+    <t>900121</t>
+  </si>
+  <si>
+    <t>900185</t>
+  </si>
+  <si>
+    <t>900217</t>
+  </si>
+  <si>
+    <t>900154</t>
+  </si>
+  <si>
     <t>900174</t>
   </si>
   <si>
-    <t>900165</t>
+    <t>900143</t>
+  </si>
+  <si>
+    <t>900177</t>
   </si>
   <si>
     <t>900227</t>
   </si>
   <si>
-    <t>900217</t>
-  </si>
-  <si>
-    <t>900121</t>
-  </si>
-  <si>
-    <t>900151</t>
-  </si>
-  <si>
-    <t>900143</t>
-  </si>
-  <si>
-    <t>900154</t>
-  </si>
-  <si>
-    <t>900264</t>
-  </si>
-  <si>
-    <t>900185</t>
-  </si>
-  <si>
-    <t>900138</t>
-  </si>
-  <si>
-    <t>900177</t>
+    <t>900101</t>
+  </si>
+  <si>
+    <t>900200</t>
+  </si>
+  <si>
+    <t>900109</t>
+  </si>
+  <si>
+    <t>900146</t>
+  </si>
+  <si>
+    <t>900279</t>
+  </si>
+  <si>
+    <t>900173</t>
+  </si>
+  <si>
+    <t>900231</t>
+  </si>
+  <si>
+    <t>300540</t>
   </si>
   <si>
     <t>900179</t>
   </si>
   <si>
-    <t>900231</t>
+    <t>900256</t>
+  </si>
+  <si>
+    <t>900299</t>
   </si>
   <si>
     <t>900245</t>
   </si>
   <si>
-    <t>300540</t>
-  </si>
-  <si>
     <t>900263</t>
   </si>
   <si>
-    <t>900101</t>
+    <t>900108</t>
   </si>
   <si>
     <t>900235</t>
   </si>
   <si>
-    <t>900279</t>
-  </si>
-  <si>
-    <t>900146</t>
-  </si>
-  <si>
-    <t>900173</t>
-  </si>
-  <si>
-    <t>900108</t>
-  </si>
-  <si>
-    <t>900256</t>
-  </si>
-  <si>
-    <t>900200</t>
-  </si>
-  <si>
-    <t>900109</t>
-  </si>
-  <si>
-    <t>900299</t>
-  </si>
-  <si>
     <t>900271</t>
   </si>
   <si>
@@ -120,12 +120,12 @@
     <t>900198</t>
   </si>
   <si>
+    <t>900150</t>
+  </si>
+  <si>
     <t>900286</t>
   </si>
   <si>
-    <t>900150</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -231,18 +231,18 @@
     <t>fentanyl; xylazine</t>
   </si>
   <si>
+    <t>fentanyl; methamphetamine</t>
+  </si>
+  <si>
+    <t>methamphetamine; MDMA</t>
+  </si>
+  <si>
     <t>cocaine</t>
   </si>
   <si>
-    <t>methamphetamine; MDMA</t>
-  </si>
-  <si>
     <t>ketamine</t>
   </si>
   <si>
-    <t>fentanyl; methamphetamine</t>
-  </si>
-  <si>
     <t>expect_opioid</t>
   </si>
   <si>
@@ -294,12 +294,12 @@
     <t>white; light blue</t>
   </si>
   <si>
+    <t>white; off-white</t>
+  </si>
+  <si>
     <t>white; gray</t>
   </si>
   <si>
-    <t>white; off-white</t>
-  </si>
-  <si>
     <t>pink; light purple</t>
   </si>
   <si>
@@ -324,13 +324,22 @@
     <t>shards</t>
   </si>
   <si>
+    <t>crystals; powder</t>
+  </si>
+  <si>
+    <t>rock; shards</t>
+  </si>
+  <si>
     <t>powder; chunky</t>
   </si>
   <si>
-    <t>rock; shards</t>
-  </si>
-  <si>
-    <t>crystals; powder</t>
+    <t>shards; crystals</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>powder; flaky; chunky; shiny</t>
   </si>
   <si>
     <t>powder; flaky</t>
@@ -339,15 +348,6 @@
     <t>powder; crystals</t>
   </si>
   <si>
-    <t>powder; flaky; chunky; shiny</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>shards; crystals</t>
-  </si>
-  <si>
     <t>oil/wax</t>
   </si>
   <si>
@@ -372,28 +372,28 @@
     <t>typical; weaker</t>
   </si>
   <si>
+    <t>weaker</t>
+  </si>
+  <si>
+    <t>sedating</t>
+  </si>
+  <si>
+    <t>hallucinations</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>unusual taste</t>
   </si>
   <si>
-    <t>hallucinations</t>
+    <t>weaker; sedating</t>
   </si>
   <si>
     <t>unpleasant</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>weaker</t>
-  </si>
-  <si>
     <t>normal; sedating</t>
-  </si>
-  <si>
-    <t>weaker; sedating</t>
-  </si>
-  <si>
-    <t>sedating</t>
   </si>
   <si>
     <t>sen_strength</t>
@@ -1816,7 +1816,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -1828,7 +1828,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G6" t="s">
         <v>59</v>
@@ -1902,17 +1902,15 @@
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2">
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS6" s="2">
         <v>1</v>
@@ -1921,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>4.3299999237060547</v>
+        <v>4.5100002288818359</v>
       </c>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2">
@@ -2258,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>40</v>
@@ -2270,13 +2268,13 @@
         <v>56</v>
       </c>
       <c r="F8" s="1">
-        <v>45776</v>
+        <v>45748</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
@@ -2318,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
@@ -2344,17 +2342,17 @@
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AO8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2">
         <v>0</v>
       </c>
       <c r="AR8" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS8" s="2">
         <v>1</v>
@@ -2363,14 +2361,14 @@
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <v>10.430000305175781</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY8" s="2">
         <v>1</v>
@@ -2480,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -2492,13 +2490,13 @@
         <v>56</v>
       </c>
       <c r="F9" s="1">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2">
         <v>1</v>
@@ -2534,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
@@ -2572,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <v>45824</v>
+        <v>45761</v>
       </c>
       <c r="AS9" s="2">
         <v>1</v>
@@ -2581,14 +2579,14 @@
         <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>4.5199999809265137</v>
+        <v>4.5</v>
       </c>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
         <v>0</v>
@@ -2758,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -2934,7 +2932,7 @@
         <v>56</v>
       </c>
       <c r="F11" s="1">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="G11" t="s">
         <v>59</v>
@@ -2946,25 +2944,25 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
         <v>0</v>
@@ -2976,17 +2974,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -3006,9 +3006,11 @@
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO11" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>1</v>
+      </c>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2">
         <v>0</v>
@@ -3023,20 +3025,20 @@
         <v>0</v>
       </c>
       <c r="AU11" s="2">
-        <v>4.5</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="2">
         <v>0</v>
@@ -3048,10 +3050,10 @@
         <v>0</v>
       </c>
       <c r="BD11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
         <v>0</v>
@@ -3093,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="BS11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -3152,37 +3154,37 @@
         <v>56</v>
       </c>
       <c r="F12" s="1">
-        <v>45776</v>
+        <v>45809</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="2">
         <v>0</v>
@@ -3200,13 +3202,11 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -3226,17 +3226,15 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2">
         <v>0</v>
       </c>
       <c r="AR12" s="1">
-        <v>45797</v>
+        <v>45824</v>
       </c>
       <c r="AS12" s="2">
         <v>1</v>
@@ -3245,20 +3243,20 @@
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>10.430000305175781</v>
+        <v>4.5199999809265137</v>
       </c>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="2">
         <v>0</v>
@@ -3270,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF12" s="2">
         <v>0</v>
@@ -3315,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="BS12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU12" s="2">
         <v>0</v>
@@ -3580,7 +3578,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -3592,7 +3590,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="1">
-        <v>45748</v>
+        <v>45776</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
@@ -3604,25 +3602,25 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="2">
         <v>0</v>
@@ -3640,15 +3638,15 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
+      <c r="AA14" s="2">
+        <v>1</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s">
         <v>117</v>
@@ -3676,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS14" s="2">
         <v>1</v>
@@ -3685,20 +3683,20 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>10.470000267028809</v>
+        <v>4.3299999237060547</v>
       </c>
       <c r="AV14" s="2"/>
       <c r="AW14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA14" s="2">
         <v>0</v>
@@ -3710,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="BD14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF14" s="2">
         <v>0</v>
@@ -3755,10 +3753,10 @@
         <v>0</v>
       </c>
       <c r="BS14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU14" s="2">
         <v>0</v>
@@ -3802,7 +3800,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -3814,7 +3812,7 @@
         <v>56</v>
       </c>
       <c r="F15" s="1">
-        <v>45750</v>
+        <v>45776</v>
       </c>
       <c r="G15" t="s">
         <v>59</v>
@@ -3898,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="AR15" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS15" s="2">
         <v>1</v>
@@ -3907,14 +3905,14 @@
         <v>0</v>
       </c>
       <c r="AU15" s="2">
-        <v>10.460000038146973</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV15" s="2"/>
       <c r="AW15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY15" s="2">
         <v>1</v>
@@ -4024,7 +4022,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -4036,7 +4034,7 @@
         <v>56</v>
       </c>
       <c r="F16" s="1">
-        <v>45748</v>
+        <v>45809</v>
       </c>
       <c r="G16" t="s">
         <v>59</v>
@@ -4048,25 +4046,25 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
         <v>0</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2">
         <v>0</v>
@@ -4078,21 +4076,21 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
+      <c r="Y16" s="2">
+        <v>1</v>
+      </c>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s">
         <v>117</v>
@@ -4118,29 +4116,29 @@
         <v>0</v>
       </c>
       <c r="AR16" s="1">
-        <v>45761</v>
+        <v>45825</v>
       </c>
       <c r="AS16" s="2">
         <v>1</v>
       </c>
       <c r="AT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV16" s="2"/>
       <c r="AW16" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX16" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="2">
         <v>0</v>
@@ -4152,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="2">
         <v>0</v>
@@ -4197,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="BS16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU16" s="2">
         <v>0</v>
@@ -4256,19 +4254,19 @@
         <v>56</v>
       </c>
       <c r="F17" s="1">
-        <v>45809</v>
+        <v>45776</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K17" s="2">
         <v>1</v>
@@ -4277,7 +4275,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -4298,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
@@ -4330,31 +4328,33 @@
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO17" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>1</v>
+      </c>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2">
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <v>45825</v>
+        <v>45797</v>
       </c>
       <c r="AS17" s="2">
         <v>1</v>
       </c>
       <c r="AT17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="2">
-        <v>10.319999694824219</v>
+        <v>10.430000305175781</v>
       </c>
       <c r="AV17" s="2"/>
       <c r="AW17" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY17" s="2">
         <v>1</v>
@@ -4476,31 +4476,31 @@
         <v>56</v>
       </c>
       <c r="F18" s="1">
-        <v>45689</v>
+        <v>45721</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I18" s="2">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
@@ -4537,10 +4537,10 @@
       <c r="AC18" t="s">
         <v>119</v>
       </c>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2">
-        <v>1</v>
-      </c>
+      <c r="AD18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <v>45721</v>
+        <v>45762</v>
       </c>
       <c r="AS18" s="2">
         <v>1</v>
@@ -4569,20 +4569,20 @@
         <v>1</v>
       </c>
       <c r="AU18" s="2">
-        <v>8.3500003814697266</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV18" s="2"/>
       <c r="AW18" s="2">
+        <v>6</v>
+      </c>
+      <c r="AX18" s="2">
         <v>4</v>
       </c>
-      <c r="AX18" s="2">
-        <v>1</v>
-      </c>
       <c r="AY18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="2">
         <v>0</v>
@@ -4594,16 +4594,16 @@
         <v>0</v>
       </c>
       <c r="BD18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="2">
         <v>0</v>
@@ -4627,22 +4627,22 @@
         <v>0</v>
       </c>
       <c r="BO18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="2">
         <v>0</v>
       </c>
       <c r="BQ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR18" s="2">
         <v>0</v>
       </c>
       <c r="BS18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU18" s="2">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -4698,37 +4698,37 @@
         <v>56</v>
       </c>
       <c r="F19" s="1">
-        <v>45689</v>
+        <v>45747</v>
       </c>
       <c r="G19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
       <c r="P19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2">
         <v>0</v>
@@ -4737,33 +4737,33 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
       <c r="AE19" s="2"/>
-      <c r="AF19" s="2">
-        <v>1</v>
-      </c>
+      <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
@@ -4772,17 +4772,15 @@
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2">
         <v>0</v>
       </c>
       <c r="AR19" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS19" s="2">
         <v>1</v>
@@ -4791,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="2">
-        <v>5.6100001335144043</v>
+        <v>10.449999809265137</v>
       </c>
       <c r="AV19" s="2"/>
       <c r="AW19" s="2">
@@ -4801,10 +4799,10 @@
         <v>1</v>
       </c>
       <c r="AY19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="2">
         <v>0</v>
@@ -4861,10 +4859,10 @@
         <v>0</v>
       </c>
       <c r="BS19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU19" s="2">
         <v>0</v>
@@ -4908,7 +4906,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -4920,7 +4918,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="1">
-        <v>45689</v>
+        <v>45812</v>
       </c>
       <c r="G20" t="s">
         <v>59</v>
@@ -4932,16 +4930,16 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
@@ -4959,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="U20" s="2">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
@@ -4976,20 +4974,18 @@
         <v>1</v>
       </c>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2">
-        <v>1</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
       <c r="AG20" s="2"/>
-      <c r="AH20" s="2"/>
+      <c r="AH20" s="2">
+        <v>1</v>
+      </c>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
@@ -5006,29 +5002,29 @@
         <v>0</v>
       </c>
       <c r="AR20" s="1">
-        <v>45721</v>
+        <v>45824</v>
       </c>
       <c r="AS20" s="2">
         <v>1</v>
       </c>
       <c r="AT20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="2">
-        <v>7.2100000381469727</v>
+        <v>10.359999656677246</v>
       </c>
       <c r="AV20" s="2"/>
       <c r="AW20" s="2">
         <v>3</v>
       </c>
       <c r="AX20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="2">
         <v>0</v>
@@ -5073,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="BO20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ20" s="2">
         <v>0</v>
@@ -5085,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="BS20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU20" s="2">
         <v>0</v>
@@ -5132,7 +5128,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
@@ -5144,19 +5140,19 @@
         <v>56</v>
       </c>
       <c r="F21" s="1">
-        <v>45691</v>
+        <v>45747</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I21" s="2">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K21" s="2">
         <v>0</v>
@@ -5174,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
@@ -5186,26 +5182,24 @@
         <v>0</v>
       </c>
       <c r="T21" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="U21" s="2">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AD21" s="2">
         <v>0</v>
@@ -5220,17 +5214,15 @@
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2">
         <v>0</v>
       </c>
       <c r="AR21" s="1">
-        <v>45721</v>
+        <v>45761</v>
       </c>
       <c r="AS21" s="2">
         <v>1</v>
@@ -5239,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="AU21" s="2">
-        <v>8.3500003814697266</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="AV21" s="2"/>
       <c r="AW21" s="2">
@@ -5264,16 +5256,16 @@
         <v>0</v>
       </c>
       <c r="BD21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="2">
         <v>0</v>
@@ -5368,13 +5360,13 @@
         <v>56</v>
       </c>
       <c r="F22" s="1">
-        <v>45777</v>
+        <v>45749</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
@@ -5410,19 +5402,17 @@
         <v>0</v>
       </c>
       <c r="T22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="U22" s="2">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -5430,7 +5420,7 @@
         <v>117</v>
       </c>
       <c r="AD22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
@@ -5450,20 +5440,20 @@
         <v>0</v>
       </c>
       <c r="AR22" s="1">
-        <v>45797</v>
+        <v>45761</v>
       </c>
       <c r="AS22" s="2">
         <v>1</v>
       </c>
       <c r="AT22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="2">
-        <v>10.470000267028809</v>
+        <v>10.460000038146973</v>
       </c>
       <c r="AV22" s="2"/>
       <c r="AW22" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX22" s="2">
         <v>2</v>
@@ -5576,7 +5566,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -5588,19 +5578,19 @@
         <v>56</v>
       </c>
       <c r="F23" s="1">
-        <v>45721</v>
+        <v>45812</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K23" s="2">
         <v>1</v>
@@ -5612,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="2">
         <v>0</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -5636,22 +5626,18 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>-1</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
       <c r="AG23" s="2"/>
@@ -5672,23 +5658,23 @@
         <v>0</v>
       </c>
       <c r="AR23" s="1">
-        <v>45762</v>
+        <v>45825</v>
       </c>
       <c r="AS23" s="2">
         <v>1</v>
       </c>
       <c r="AT23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="2">
-        <v>10.449999809265137</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV23" s="2"/>
       <c r="AW23" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY23" s="2">
         <v>1</v>
@@ -5745,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR23" s="2">
         <v>0</v>
@@ -5810,37 +5796,37 @@
         <v>56</v>
       </c>
       <c r="F24" s="1">
-        <v>45692</v>
+        <v>45689</v>
       </c>
       <c r="G24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -5849,33 +5835,33 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2">
-        <v>1</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
+      <c r="AA24" s="2">
+        <v>1</v>
+      </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD24" s="2">
-        <v>0</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
+      <c r="AF24" s="2">
+        <v>1</v>
+      </c>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
@@ -5894,36 +5880,38 @@
         <v>0</v>
       </c>
       <c r="AR24" s="1">
-        <v>45723</v>
+        <v>45721</v>
       </c>
       <c r="AS24" s="2">
         <v>1</v>
       </c>
       <c r="AT24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>5.6100001335144043</v>
+      </c>
       <c r="AV24" s="2"/>
       <c r="AW24" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="2">
         <v>0</v>
       </c>
       <c r="BB24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="2">
         <v>0</v>
@@ -5971,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="BS24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU24" s="2">
         <v>0</v>
@@ -6030,31 +6018,31 @@
         <v>56</v>
       </c>
       <c r="F25" s="1">
-        <v>45749</v>
+        <v>45691</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -6063,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -6072,22 +6060,26 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="U25" s="2">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="2">
+        <v>1</v>
+      </c>
       <c r="AC25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -6102,15 +6094,17 @@
       <c r="AL25" s="2"/>
       <c r="AM25" s="2"/>
       <c r="AN25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO25" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO25" s="2">
+        <v>0</v>
+      </c>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2">
         <v>0</v>
       </c>
       <c r="AR25" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS25" s="2">
         <v>1</v>
@@ -6119,20 +6113,20 @@
         <v>0</v>
       </c>
       <c r="AU25" s="2">
-        <v>10.460000038146973</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV25" s="2"/>
       <c r="AW25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="2">
         <v>0</v>
@@ -6150,10 +6144,10 @@
         <v>0</v>
       </c>
       <c r="BF25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" s="2">
         <v>0</v>
@@ -6189,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="BS25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU25" s="2">
         <v>0</v>
@@ -6236,7 +6230,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
@@ -6248,19 +6242,19 @@
         <v>56</v>
       </c>
       <c r="F26" s="1">
-        <v>45747</v>
+        <v>45689</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -6278,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -6290,29 +6284,29 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="U26" s="2">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2">
-        <v>1</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2">
+        <v>1</v>
+      </c>
       <c r="AF26" s="2"/>
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
@@ -6322,28 +6316,30 @@
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO26" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="AO26" s="2">
+        <v>0</v>
+      </c>
       <c r="AP26" s="2"/>
       <c r="AQ26" s="2">
         <v>0</v>
       </c>
       <c r="AR26" s="1">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="AS26" s="2">
         <v>1</v>
       </c>
       <c r="AT26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU26" s="2">
-        <v>4.309999942779541</v>
+        <v>8.3500003814697266</v>
       </c>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX26" s="2">
         <v>1</v>
@@ -6364,16 +6360,16 @@
         <v>0</v>
       </c>
       <c r="BD26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26" s="2">
         <v>0</v>
@@ -6397,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="BO26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP26" s="2">
         <v>0</v>
@@ -6456,7 +6452,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -6480,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K27" s="2">
         <v>1</v>
@@ -6516,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -6525,9 +6521,11 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD27" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>-1</v>
+      </c>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
       <c r="AG27" s="2"/>
@@ -6548,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="AR27" s="1">
-        <v>45825</v>
+        <v>45823</v>
       </c>
       <c r="AS27" s="2">
         <v>1</v>
@@ -6557,20 +6555,20 @@
         <v>0</v>
       </c>
       <c r="AU27" s="2">
-        <v>10.319999694824219</v>
+        <v>5</v>
       </c>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA27" s="2">
         <v>0</v>
@@ -6627,10 +6625,10 @@
         <v>0</v>
       </c>
       <c r="BS27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU27" s="2">
         <v>0</v>
@@ -6674,7 +6672,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>44</v>
@@ -6686,37 +6684,37 @@
         <v>56</v>
       </c>
       <c r="F28" s="1">
-        <v>45747</v>
+        <v>45812</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2">
         <v>0</v>
       </c>
       <c r="P28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2">
         <v>0</v>
@@ -6728,17 +6726,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="U28" s="2">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -6768,29 +6768,29 @@
         <v>0</v>
       </c>
       <c r="AR28" s="1">
-        <v>45761</v>
+        <v>45825</v>
       </c>
       <c r="AS28" s="2">
         <v>1</v>
       </c>
       <c r="AT28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU28" s="2">
-        <v>4.5100002288818359</v>
+        <v>10.319999694824219</v>
       </c>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX28" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA28" s="2">
         <v>0</v>
@@ -6847,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="BS28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU28" s="2">
         <v>0</v>
@@ -6906,7 +6906,7 @@
         <v>56</v>
       </c>
       <c r="F29" s="1">
-        <v>45812</v>
+        <v>45689</v>
       </c>
       <c r="G29" t="s">
         <v>59</v>
@@ -6921,22 +6921,22 @@
         <v>75</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
         <v>0</v>
@@ -6945,30 +6945,34 @@
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="U29" s="2">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
+      <c r="Y29" s="2">
+        <v>1</v>
+      </c>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
+      <c r="AA29" s="2">
+        <v>1</v>
+      </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s">
         <v>125</v>
       </c>
-      <c r="AD29" s="2">
-        <v>-1</v>
-      </c>
-      <c r="AE29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2">
+        <v>1</v>
+      </c>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
@@ -6988,23 +6992,23 @@
         <v>0</v>
       </c>
       <c r="AR29" s="1">
-        <v>45823</v>
+        <v>45721</v>
       </c>
       <c r="AS29" s="2">
         <v>1</v>
       </c>
       <c r="AT29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU29" s="2">
-        <v>5</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY29" s="2">
         <v>0</v>
@@ -7022,10 +7026,10 @@
         <v>0</v>
       </c>
       <c r="BD29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="2">
         <v>0</v>
@@ -7055,10 +7059,10 @@
         <v>0</v>
       </c>
       <c r="BO29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ29" s="2">
         <v>0</v>
@@ -7114,7 +7118,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -7126,13 +7130,13 @@
         <v>56</v>
       </c>
       <c r="F30" s="1">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
@@ -7174,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
@@ -7188,7 +7192,7 @@
         <v>117</v>
       </c>
       <c r="AD30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
@@ -7208,23 +7212,23 @@
         <v>0</v>
       </c>
       <c r="AR30" s="1">
-        <v>45761</v>
+        <v>45797</v>
       </c>
       <c r="AS30" s="2">
         <v>1</v>
       </c>
       <c r="AT30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="2">
-        <v>10.449999809265137</v>
+        <v>10.470000267028809</v>
       </c>
       <c r="AV30" s="2"/>
       <c r="AW30" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY30" s="2">
         <v>1</v>
@@ -7334,7 +7338,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -7346,7 +7350,7 @@
         <v>56</v>
       </c>
       <c r="F31" s="1">
-        <v>45812</v>
+        <v>45747</v>
       </c>
       <c r="G31" t="s">
         <v>59</v>
@@ -7358,25 +7362,25 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M